--- a/one_excel.xlsx
+++ b/one_excel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F469BF-BDE4-4F91-868C-DCFA02701A19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10F3A39-FCBF-4650-9760-22FC9D09C5FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="120">
   <si>
     <t>CA_124_7</t>
   </si>
@@ -788,6 +788,18 @@
       <t xml:space="preserve"> ±13.8 °</t>
     </r>
   </si>
+  <si>
+    <t>CS_301_RED_13 (23 electrodes)</t>
+  </si>
+  <si>
+    <t>CS_301_RED_14 (23 electrodes)</t>
+  </si>
+  <si>
+    <t>CS_301_RED_13</t>
+  </si>
+  <si>
+    <t>CS_301_RED_14</t>
+  </si>
 </sst>
 </file>
 
@@ -1253,59 +1265,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1319,7 +1286,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8927,7 +8939,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>CS_301_RED_6</c:v>
+                        <c:v>CS_301_RED_13</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9018,38 +9030,8 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="11"/>
-                      <c:pt idx="0">
-                        <c:v>18.54</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>17.98</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>17.649999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>17.13</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>16.45</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>15.36</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>14.69</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>14.95</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>15.65</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>16.23</c:v>
-                      </c:pt>
                       <c:pt idx="10">
-                        <c:v>16.86</c:v>
+                        <c:v>23.35</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9078,7 +9060,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>CS_301_RED_7</c:v>
+                        <c:v>CS_301_RED_14</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9169,38 +9151,8 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="11"/>
-                      <c:pt idx="0">
-                        <c:v>19.86</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>19.23</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>18.52</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>17.760000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>16.64</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>15.26</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>15.56</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>16.02</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>16.86</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>17.16</c:v>
-                      </c:pt>
                       <c:pt idx="10">
-                        <c:v>17.690000000000001</c:v>
+                        <c:v>23.22</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9320,39 +9272,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="11"/>
-                      <c:pt idx="0">
-                        <c:v>24.81</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>24.36</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>23.67</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>23.16</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>22.69</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>22.06</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>23.49</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>23.91</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>24.24</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>24.98</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>25.26</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -31298,7 +31217,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="61" t="s">
         <v>94</v>
       </c>
       <c r="B2">
@@ -31309,7 +31228,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="78"/>
+      <c r="A3" s="61"/>
       <c r="B3">
         <v>16</v>
       </c>
@@ -31318,7 +31237,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="78"/>
+      <c r="A4" s="61"/>
       <c r="B4">
         <v>17</v>
       </c>
@@ -31327,7 +31246,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
+      <c r="A5" s="61"/>
       <c r="B5">
         <v>18</v>
       </c>
@@ -31336,7 +31255,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="78"/>
+      <c r="A6" s="61"/>
       <c r="B6">
         <v>19</v>
       </c>
@@ -31345,7 +31264,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="78"/>
+      <c r="A7" s="61"/>
       <c r="B7">
         <v>20</v>
       </c>
@@ -31354,7 +31273,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="78"/>
+      <c r="A8" s="61"/>
       <c r="B8">
         <v>21</v>
       </c>
@@ -31363,7 +31282,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="78"/>
+      <c r="A9" s="61"/>
       <c r="B9">
         <v>22</v>
       </c>
@@ -31372,7 +31291,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="78"/>
+      <c r="A10" s="61"/>
       <c r="B10">
         <v>23</v>
       </c>
@@ -31381,7 +31300,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="78"/>
+      <c r="A11" s="61"/>
       <c r="B11">
         <v>24</v>
       </c>
@@ -31390,7 +31309,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="78"/>
+      <c r="A12" s="61"/>
       <c r="B12">
         <v>25</v>
       </c>
@@ -31399,7 +31318,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="61" t="s">
         <v>0</v>
       </c>
       <c r="B13">
@@ -31410,7 +31329,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="78"/>
+      <c r="A14" s="61"/>
       <c r="B14">
         <v>16</v>
       </c>
@@ -31419,7 +31338,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="78"/>
+      <c r="A15" s="61"/>
       <c r="B15">
         <v>17</v>
       </c>
@@ -31428,7 +31347,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="78"/>
+      <c r="A16" s="61"/>
       <c r="B16">
         <v>18</v>
       </c>
@@ -31437,7 +31356,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="78"/>
+      <c r="A17" s="61"/>
       <c r="B17">
         <v>19</v>
       </c>
@@ -31446,7 +31365,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
+      <c r="A18" s="61"/>
       <c r="B18">
         <v>20</v>
       </c>
@@ -31455,7 +31374,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="78"/>
+      <c r="A19" s="61"/>
       <c r="B19">
         <v>21</v>
       </c>
@@ -31464,7 +31383,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="78"/>
+      <c r="A20" s="61"/>
       <c r="B20">
         <v>22</v>
       </c>
@@ -31473,7 +31392,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="78"/>
+      <c r="A21" s="61"/>
       <c r="B21">
         <v>23</v>
       </c>
@@ -31482,7 +31401,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="78"/>
+      <c r="A22" s="61"/>
       <c r="B22">
         <v>24</v>
       </c>
@@ -31491,7 +31410,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="78"/>
+      <c r="A23" s="61"/>
       <c r="B23">
         <v>25</v>
       </c>
@@ -31500,7 +31419,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="61" t="s">
         <v>6</v>
       </c>
       <c r="B24">
@@ -31511,7 +31430,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="78"/>
+      <c r="A25" s="61"/>
       <c r="B25">
         <v>16</v>
       </c>
@@ -31520,7 +31439,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="78"/>
+      <c r="A26" s="61"/>
       <c r="B26">
         <v>17</v>
       </c>
@@ -31529,7 +31448,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="78"/>
+      <c r="A27" s="61"/>
       <c r="B27">
         <v>18</v>
       </c>
@@ -31538,7 +31457,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="78"/>
+      <c r="A28" s="61"/>
       <c r="B28">
         <v>19</v>
       </c>
@@ -31547,7 +31466,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="78"/>
+      <c r="A29" s="61"/>
       <c r="B29">
         <v>20</v>
       </c>
@@ -31556,7 +31475,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="78"/>
+      <c r="A30" s="61"/>
       <c r="B30">
         <v>21</v>
       </c>
@@ -31565,7 +31484,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="78"/>
+      <c r="A31" s="61"/>
       <c r="B31">
         <v>22</v>
       </c>
@@ -31574,7 +31493,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="78"/>
+      <c r="A32" s="61"/>
       <c r="B32">
         <v>23</v>
       </c>
@@ -31583,7 +31502,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="78"/>
+      <c r="A33" s="61"/>
       <c r="B33">
         <v>24</v>
       </c>
@@ -31592,7 +31511,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="78"/>
+      <c r="A34" s="61"/>
       <c r="B34">
         <v>25</v>
       </c>
@@ -31601,7 +31520,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="61" t="s">
         <v>96</v>
       </c>
       <c r="B35">
@@ -31612,7 +31531,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="78"/>
+      <c r="A36" s="61"/>
       <c r="B36">
         <v>16</v>
       </c>
@@ -31621,7 +31540,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="78"/>
+      <c r="A37" s="61"/>
       <c r="B37">
         <v>17</v>
       </c>
@@ -31630,7 +31549,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="78"/>
+      <c r="A38" s="61"/>
       <c r="B38">
         <v>18</v>
       </c>
@@ -31639,7 +31558,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="78"/>
+      <c r="A39" s="61"/>
       <c r="B39">
         <v>19</v>
       </c>
@@ -31648,7 +31567,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="78"/>
+      <c r="A40" s="61"/>
       <c r="B40">
         <v>20</v>
       </c>
@@ -31657,7 +31576,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="78"/>
+      <c r="A41" s="61"/>
       <c r="B41">
         <v>21</v>
       </c>
@@ -31666,7 +31585,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="78"/>
+      <c r="A42" s="61"/>
       <c r="B42">
         <v>22</v>
       </c>
@@ -31675,7 +31594,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="78"/>
+      <c r="A43" s="61"/>
       <c r="B43">
         <v>23</v>
       </c>
@@ -31684,7 +31603,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="78"/>
+      <c r="A44" s="61"/>
       <c r="B44">
         <v>24</v>
       </c>
@@ -31693,7 +31612,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="78"/>
+      <c r="A45" s="61"/>
       <c r="B45">
         <v>25</v>
       </c>
@@ -31702,7 +31621,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="78" t="s">
+      <c r="A46" s="61" t="s">
         <v>1</v>
       </c>
       <c r="B46">
@@ -31713,7 +31632,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="78"/>
+      <c r="A47" s="61"/>
       <c r="B47">
         <v>16</v>
       </c>
@@ -31722,7 +31641,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="78"/>
+      <c r="A48" s="61"/>
       <c r="B48">
         <v>17</v>
       </c>
@@ -31731,7 +31650,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="78"/>
+      <c r="A49" s="61"/>
       <c r="B49">
         <v>18</v>
       </c>
@@ -31740,7 +31659,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="78"/>
+      <c r="A50" s="61"/>
       <c r="B50">
         <v>19</v>
       </c>
@@ -31749,7 +31668,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="78"/>
+      <c r="A51" s="61"/>
       <c r="B51">
         <v>20</v>
       </c>
@@ -31758,7 +31677,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="78"/>
+      <c r="A52" s="61"/>
       <c r="B52">
         <v>21</v>
       </c>
@@ -31767,7 +31686,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="78"/>
+      <c r="A53" s="61"/>
       <c r="B53">
         <v>22</v>
       </c>
@@ -31776,7 +31695,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="78"/>
+      <c r="A54" s="61"/>
       <c r="B54">
         <v>23</v>
       </c>
@@ -31785,7 +31704,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="78"/>
+      <c r="A55" s="61"/>
       <c r="B55">
         <v>24</v>
       </c>
@@ -31794,7 +31713,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="78"/>
+      <c r="A56" s="61"/>
       <c r="B56">
         <v>25</v>
       </c>
@@ -31803,7 +31722,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="78" t="s">
+      <c r="A57" s="61" t="s">
         <v>2</v>
       </c>
       <c r="B57">
@@ -31814,7 +31733,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="78"/>
+      <c r="A58" s="61"/>
       <c r="B58">
         <v>16</v>
       </c>
@@ -31823,7 +31742,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="78"/>
+      <c r="A59" s="61"/>
       <c r="B59">
         <v>17</v>
       </c>
@@ -31832,7 +31751,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="78"/>
+      <c r="A60" s="61"/>
       <c r="B60">
         <v>18</v>
       </c>
@@ -31841,7 +31760,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="78"/>
+      <c r="A61" s="61"/>
       <c r="B61">
         <v>19</v>
       </c>
@@ -31850,7 +31769,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="78"/>
+      <c r="A62" s="61"/>
       <c r="B62">
         <v>20</v>
       </c>
@@ -31859,7 +31778,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="78"/>
+      <c r="A63" s="61"/>
       <c r="B63">
         <v>21</v>
       </c>
@@ -31868,7 +31787,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="78"/>
+      <c r="A64" s="61"/>
       <c r="B64">
         <v>22</v>
       </c>
@@ -31877,7 +31796,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="78"/>
+      <c r="A65" s="61"/>
       <c r="B65">
         <v>23</v>
       </c>
@@ -31886,7 +31805,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="78"/>
+      <c r="A66" s="61"/>
       <c r="B66">
         <v>24</v>
       </c>
@@ -31895,7 +31814,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="78"/>
+      <c r="A67" s="61"/>
       <c r="B67">
         <v>25</v>
       </c>
@@ -31904,7 +31823,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="78" t="s">
+      <c r="A68" s="61" t="s">
         <v>97</v>
       </c>
       <c r="B68">
@@ -31915,7 +31834,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="78"/>
+      <c r="A69" s="61"/>
       <c r="B69">
         <v>16</v>
       </c>
@@ -31924,7 +31843,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="78"/>
+      <c r="A70" s="61"/>
       <c r="B70">
         <v>17</v>
       </c>
@@ -31933,7 +31852,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="78"/>
+      <c r="A71" s="61"/>
       <c r="B71">
         <v>18</v>
       </c>
@@ -31942,7 +31861,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="78"/>
+      <c r="A72" s="61"/>
       <c r="B72">
         <v>19</v>
       </c>
@@ -31951,7 +31870,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="78"/>
+      <c r="A73" s="61"/>
       <c r="B73">
         <v>20</v>
       </c>
@@ -31960,7 +31879,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="78"/>
+      <c r="A74" s="61"/>
       <c r="B74">
         <v>21</v>
       </c>
@@ -31969,7 +31888,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="78"/>
+      <c r="A75" s="61"/>
       <c r="B75">
         <v>22</v>
       </c>
@@ -31978,7 +31897,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="78"/>
+      <c r="A76" s="61"/>
       <c r="B76">
         <v>23</v>
       </c>
@@ -31987,7 +31906,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="78"/>
+      <c r="A77" s="61"/>
       <c r="B77">
         <v>24</v>
       </c>
@@ -31996,7 +31915,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="78"/>
+      <c r="A78" s="61"/>
       <c r="B78">
         <v>25</v>
       </c>
@@ -32005,7 +31924,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="78" t="s">
+      <c r="A79" s="61" t="s">
         <v>3</v>
       </c>
       <c r="B79">
@@ -32016,7 +31935,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="78"/>
+      <c r="A80" s="61"/>
       <c r="B80">
         <v>16</v>
       </c>
@@ -32025,7 +31944,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="78"/>
+      <c r="A81" s="61"/>
       <c r="B81">
         <v>17</v>
       </c>
@@ -32034,7 +31953,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="78"/>
+      <c r="A82" s="61"/>
       <c r="B82">
         <v>18</v>
       </c>
@@ -32043,7 +31962,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="78"/>
+      <c r="A83" s="61"/>
       <c r="B83">
         <v>19</v>
       </c>
@@ -32052,7 +31971,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="78"/>
+      <c r="A84" s="61"/>
       <c r="B84">
         <v>20</v>
       </c>
@@ -32061,7 +31980,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="78"/>
+      <c r="A85" s="61"/>
       <c r="B85">
         <v>21</v>
       </c>
@@ -32070,7 +31989,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="78"/>
+      <c r="A86" s="61"/>
       <c r="B86">
         <v>22</v>
       </c>
@@ -32079,7 +31998,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="78"/>
+      <c r="A87" s="61"/>
       <c r="B87">
         <v>23</v>
       </c>
@@ -32088,7 +32007,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="78"/>
+      <c r="A88" s="61"/>
       <c r="B88">
         <v>24</v>
       </c>
@@ -32097,7 +32016,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="78"/>
+      <c r="A89" s="61"/>
       <c r="B89">
         <v>25</v>
       </c>
@@ -32106,7 +32025,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="78" t="s">
+      <c r="A90" s="61" t="s">
         <v>4</v>
       </c>
       <c r="B90">
@@ -32117,7 +32036,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="78"/>
+      <c r="A91" s="61"/>
       <c r="B91">
         <v>16</v>
       </c>
@@ -32126,7 +32045,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="78"/>
+      <c r="A92" s="61"/>
       <c r="B92">
         <v>17</v>
       </c>
@@ -32135,7 +32054,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="78"/>
+      <c r="A93" s="61"/>
       <c r="B93">
         <v>18</v>
       </c>
@@ -32144,7 +32063,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="78"/>
+      <c r="A94" s="61"/>
       <c r="B94">
         <v>19</v>
       </c>
@@ -32153,7 +32072,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="78"/>
+      <c r="A95" s="61"/>
       <c r="B95">
         <v>20</v>
       </c>
@@ -32162,7 +32081,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="78"/>
+      <c r="A96" s="61"/>
       <c r="B96">
         <v>21</v>
       </c>
@@ -32171,7 +32090,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="78"/>
+      <c r="A97" s="61"/>
       <c r="B97">
         <v>22</v>
       </c>
@@ -32180,7 +32099,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="78"/>
+      <c r="A98" s="61"/>
       <c r="B98">
         <v>23</v>
       </c>
@@ -32189,7 +32108,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="78"/>
+      <c r="A99" s="61"/>
       <c r="B99">
         <v>24</v>
       </c>
@@ -32198,7 +32117,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="78"/>
+      <c r="A100" s="61"/>
       <c r="B100">
         <v>25</v>
       </c>
@@ -32248,57 +32167,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="77" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
       <c r="H1" s="85"/>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
       <c r="L1" s="85"/>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="74" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="85"/>
-      <c r="O1" s="64" t="s">
+      <c r="O1" s="74" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="85"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="62"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="86"/>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76" t="s">
+      <c r="F2" s="72"/>
+      <c r="G2" s="72" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="86"/>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76" t="s">
+      <c r="J2" s="72"/>
+      <c r="K2" s="72" t="s">
         <v>13</v>
       </c>
       <c r="L2" s="86"/>
@@ -32308,9 +32227,9 @@
       <c r="P2" s="50"/>
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="63"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="63"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="79"/>
       <c r="D3" s="87"/>
       <c r="E3" s="48" t="s">
         <v>7</v>
@@ -32388,12 +32307,12 @@
         <v>1.12E-2</v>
       </c>
       <c r="R4" s="9"/>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="73"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="82"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -32569,12 +32488,12 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R9" s="9"/>
-      <c r="S9" s="71" t="s">
+      <c r="S9" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="73"/>
+      <c r="T9" s="81"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="82"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -32789,12 +32708,12 @@
         <v>2.3744051886735753</v>
       </c>
       <c r="R14" s="9"/>
-      <c r="S14" s="71" t="s">
+      <c r="S14" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="73"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="82"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R15" s="9"/>
@@ -33311,6 +33230,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
@@ -33321,11 +33245,6 @@
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:L1"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33904,70 +33823,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="62" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="84"/>
       <c r="G1" s="84"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="66" t="s">
+      <c r="H1" s="68"/>
+      <c r="I1" s="62" t="s">
         <v>9</v>
       </c>
       <c r="J1" s="84"/>
       <c r="K1" s="84"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="66" t="s">
+      <c r="L1" s="68"/>
+      <c r="M1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="66" t="s">
+      <c r="N1" s="68"/>
+      <c r="O1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="67"/>
+      <c r="P1" s="68"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="78"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="68" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69" t="s">
+      <c r="F2" s="83"/>
+      <c r="G2" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="68" t="s">
+      <c r="H2" s="69"/>
+      <c r="I2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69" t="s">
+      <c r="J2" s="83"/>
+      <c r="K2" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="70"/>
+      <c r="L2" s="69"/>
       <c r="M2" s="22"/>
       <c r="N2" s="23"/>
       <c r="O2" s="22"/>
       <c r="P2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="78"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="11" t="s">
         <v>7</v>
       </c>
@@ -34004,11 +33923,11 @@
       <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="78"/>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="77">
         <v>2E-3</v>
       </c>
       <c r="D4" s="36">
@@ -34050,9 +33969,9 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="62"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="37">
         <v>2</v>
       </c>
@@ -34092,9 +34011,9 @@
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="78"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="62"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="37">
         <v>4</v>
       </c>
@@ -34134,9 +34053,9 @@
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="78"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="62"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="37">
         <v>6</v>
       </c>
@@ -34176,9 +34095,9 @@
       <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="78"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="62"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="37">
         <v>8</v>
       </c>
@@ -34218,9 +34137,9 @@
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="78"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="62"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="37">
         <v>10</v>
       </c>
@@ -34260,9 +34179,9 @@
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="78"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="63"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="38">
         <v>15</v>
       </c>
@@ -34302,9 +34221,9 @@
       <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="78"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="61">
+      <c r="A11" s="61"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="77">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D11" s="36">
@@ -34350,9 +34269,9 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="78"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="62"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="37">
         <v>2</v>
       </c>
@@ -34396,9 +34315,9 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="78"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="62"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="37">
         <v>4</v>
       </c>
@@ -34442,9 +34361,9 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="78"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="62"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="37">
         <v>6</v>
       </c>
@@ -34488,9 +34407,9 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="78"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="62"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="37">
         <v>8</v>
       </c>
@@ -34534,9 +34453,9 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="78"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="62"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="37">
         <v>10</v>
       </c>
@@ -34580,9 +34499,9 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="78"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="63"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="38">
         <v>15</v>
       </c>
@@ -34626,11 +34545,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
-      <c r="B18" s="61" t="s">
+      <c r="A18" s="61"/>
+      <c r="B18" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="61">
+      <c r="C18" s="77">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D18" s="36">
@@ -34676,9 +34595,9 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="78"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="37">
         <v>2</v>
       </c>
@@ -34714,9 +34633,9 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="78"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="37">
         <v>4</v>
       </c>
@@ -34752,9 +34671,9 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="78"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="37">
         <v>6</v>
       </c>
@@ -34790,9 +34709,9 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="78"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="37">
         <v>8</v>
       </c>
@@ -34828,9 +34747,9 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="78"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="37">
         <v>10</v>
       </c>
@@ -34866,9 +34785,9 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="78"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="38">
         <v>15</v>
       </c>
@@ -34908,10 +34827,10 @@
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="64">
+      <c r="B26" s="74">
         <v>14</v>
       </c>
-      <c r="C26" s="61">
+      <c r="C26" s="77">
         <v>2E-3</v>
       </c>
       <c r="D26" s="36" t="s">
@@ -34953,8 +34872,8 @@
       <c r="P26" s="16"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="65"/>
-      <c r="C27" s="62"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="37">
         <v>2</v>
       </c>
@@ -34994,8 +34913,8 @@
       <c r="P27" s="10"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="65"/>
-      <c r="C28" s="62"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="37">
         <v>4</v>
       </c>
@@ -35035,8 +34954,8 @@
       <c r="P28" s="10"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="65"/>
-      <c r="C29" s="62"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="37">
         <v>6</v>
       </c>
@@ -35076,8 +34995,8 @@
       <c r="P29" s="10"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="65"/>
-      <c r="C30" s="62"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="37">
         <v>8</v>
       </c>
@@ -35117,8 +35036,8 @@
       <c r="P30" s="10"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="65"/>
-      <c r="C31" s="62"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="37">
         <v>10</v>
       </c>
@@ -35158,8 +35077,8 @@
       <c r="P31" s="10"/>
     </row>
     <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="65"/>
-      <c r="C32" s="63"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="79"/>
       <c r="D32" s="38">
         <v>15</v>
       </c>
@@ -35199,8 +35118,8 @@
       <c r="P32" s="10"/>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B33" s="65"/>
-      <c r="C33" s="61">
+      <c r="B33" s="75"/>
+      <c r="C33" s="77">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D33" s="36" t="s">
@@ -35242,8 +35161,8 @@
       <c r="P33" s="10"/>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B34" s="65"/>
-      <c r="C34" s="62"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="78"/>
       <c r="D34" s="37">
         <v>2</v>
       </c>
@@ -35283,8 +35202,8 @@
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B35" s="65"/>
-      <c r="C35" s="62"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="78"/>
       <c r="D35" s="37">
         <v>4</v>
       </c>
@@ -35324,8 +35243,8 @@
       <c r="P35" s="10"/>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B36" s="65"/>
-      <c r="C36" s="62"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="78"/>
       <c r="D36" s="37">
         <v>6</v>
       </c>
@@ -35365,8 +35284,8 @@
       <c r="P36" s="10"/>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B37" s="65"/>
-      <c r="C37" s="62"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="78"/>
       <c r="D37" s="37">
         <v>8</v>
       </c>
@@ -35406,8 +35325,8 @@
       <c r="P37" s="10"/>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B38" s="65"/>
-      <c r="C38" s="62"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="78"/>
       <c r="D38" s="37">
         <v>10</v>
       </c>
@@ -35447,8 +35366,8 @@
       <c r="P38" s="10"/>
     </row>
     <row r="39" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="74"/>
-      <c r="C39" s="63"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="79"/>
       <c r="D39" s="38">
         <v>15</v>
       </c>
@@ -35488,10 +35407,10 @@
       <c r="P39" s="13"/>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B40" s="64">
+      <c r="B40" s="74">
         <v>25</v>
       </c>
-      <c r="C40" s="75">
+      <c r="C40" s="71">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D40" s="15" t="s">
@@ -35533,8 +35452,8 @@
       <c r="P40" s="16"/>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B41" s="65"/>
-      <c r="C41" s="76"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="72"/>
       <c r="D41" s="9">
         <v>2</v>
       </c>
@@ -35552,8 +35471,8 @@
       <c r="P41" s="10"/>
     </row>
     <row r="42" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="65"/>
-      <c r="C42" s="76"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="72"/>
       <c r="D42" s="9">
         <v>4</v>
       </c>
@@ -35571,8 +35490,8 @@
       <c r="P42" s="10"/>
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B43" s="65"/>
-      <c r="C43" s="76"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="72"/>
       <c r="D43" s="9">
         <v>6</v>
       </c>
@@ -35588,16 +35507,16 @@
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="10"/>
-      <c r="X43" s="71" t="s">
+      <c r="X43" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="Y43" s="72"/>
-      <c r="Z43" s="72"/>
-      <c r="AA43" s="73"/>
+      <c r="Y43" s="81"/>
+      <c r="Z43" s="81"/>
+      <c r="AA43" s="82"/>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B44" s="65"/>
-      <c r="C44" s="76"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="9">
         <v>8</v>
       </c>
@@ -35625,8 +35544,8 @@
       </c>
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B45" s="65"/>
-      <c r="C45" s="76"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="72"/>
       <c r="D45" s="9">
         <v>10</v>
       </c>
@@ -35656,8 +35575,8 @@
       </c>
     </row>
     <row r="46" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="74"/>
-      <c r="C46" s="77"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="73"/>
       <c r="D46" s="12">
         <v>15</v>
       </c>
@@ -35693,12 +35612,12 @@
     <row r="48" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
-      <c r="X48" s="71" t="s">
+      <c r="X48" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="Y48" s="72"/>
-      <c r="Z48" s="72"/>
-      <c r="AA48" s="73"/>
+      <c r="Y48" s="81"/>
+      <c r="Z48" s="81"/>
+      <c r="AA48" s="82"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="X49" s="3"/>
@@ -35790,13 +35709,13 @@
     </row>
     <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="75" t="s">
+      <c r="B53" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="75">
+      <c r="C53" s="71">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D53" s="15">
@@ -35839,17 +35758,17 @@
         <f>M53*1000</f>
         <v>34</v>
       </c>
-      <c r="X53" s="71" t="s">
+      <c r="X53" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="Y53" s="72"/>
-      <c r="Z53" s="72"/>
-      <c r="AA53" s="73"/>
+      <c r="Y53" s="81"/>
+      <c r="Z53" s="81"/>
+      <c r="AA53" s="82"/>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A54" s="65"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="76"/>
+      <c r="A54" s="75"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="72"/>
       <c r="D54" s="9">
         <v>2</v>
       </c>
@@ -35902,9 +35821,9 @@
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A55" s="65"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="76"/>
+      <c r="A55" s="75"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="72"/>
       <c r="D55" s="9">
         <v>4</v>
       </c>
@@ -35959,9 +35878,9 @@
       </c>
     </row>
     <row r="56" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="65"/>
-      <c r="B56" s="76"/>
-      <c r="C56" s="76"/>
+      <c r="A56" s="75"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="72"/>
       <c r="D56" s="9">
         <v>6</v>
       </c>
@@ -36016,9 +35935,9 @@
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A57" s="65"/>
-      <c r="B57" s="76"/>
-      <c r="C57" s="76"/>
+      <c r="A57" s="75"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="72"/>
       <c r="D57" s="9">
         <v>8</v>
       </c>
@@ -36061,9 +35980,9 @@
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A58" s="65"/>
-      <c r="B58" s="76"/>
-      <c r="C58" s="76"/>
+      <c r="A58" s="75"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="72"/>
       <c r="D58" s="9">
         <v>10</v>
       </c>
@@ -36106,9 +36025,9 @@
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A59" s="65"/>
-      <c r="B59" s="76"/>
-      <c r="C59" s="76"/>
+      <c r="A59" s="75"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
       <c r="D59" s="9">
         <v>15</v>
       </c>
@@ -36151,11 +36070,11 @@
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A60" s="65"/>
-      <c r="B60" s="76" t="s">
+      <c r="A60" s="75"/>
+      <c r="B60" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="76">
+      <c r="C60" s="72">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D60" s="9">
@@ -36200,9 +36119,9 @@
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A61" s="65"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="76"/>
+      <c r="A61" s="75"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
       <c r="D61" s="9">
         <v>2</v>
       </c>
@@ -36237,9 +36156,9 @@
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A62" s="65"/>
-      <c r="B62" s="76"/>
-      <c r="C62" s="76"/>
+      <c r="A62" s="75"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="72"/>
       <c r="D62" s="9">
         <v>4</v>
       </c>
@@ -36274,9 +36193,9 @@
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A63" s="65"/>
-      <c r="B63" s="76"/>
-      <c r="C63" s="76"/>
+      <c r="A63" s="75"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
       <c r="D63" s="9">
         <v>6</v>
       </c>
@@ -36311,9 +36230,9 @@
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A64" s="65"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="76"/>
+      <c r="A64" s="75"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="72"/>
       <c r="D64" s="9">
         <v>8</v>
       </c>
@@ -36348,9 +36267,9 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="65"/>
-      <c r="B65" s="76"/>
-      <c r="C65" s="76"/>
+      <c r="A65" s="75"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="72"/>
       <c r="D65" s="9">
         <v>10</v>
       </c>
@@ -36385,9 +36304,9 @@
       </c>
     </row>
     <row r="66" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="74"/>
-      <c r="B66" s="77"/>
-      <c r="C66" s="77"/>
+      <c r="A66" s="76"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="73"/>
       <c r="D66" s="12">
         <v>15</v>
       </c>
@@ -36426,13 +36345,13 @@
     </row>
     <row r="69" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="64" t="s">
+      <c r="A70" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="75">
+      <c r="B70" s="71">
         <v>14</v>
       </c>
-      <c r="C70" s="75">
+      <c r="C70" s="71">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D70" s="15" t="s">
@@ -36473,9 +36392,9 @@
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="65"/>
-      <c r="B71" s="76"/>
-      <c r="C71" s="76"/>
+      <c r="A71" s="75"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="72"/>
       <c r="D71" s="9">
         <v>2</v>
       </c>
@@ -36514,9 +36433,9 @@
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="65"/>
-      <c r="B72" s="76"/>
-      <c r="C72" s="76"/>
+      <c r="A72" s="75"/>
+      <c r="B72" s="72"/>
+      <c r="C72" s="72"/>
       <c r="D72" s="9">
         <v>4</v>
       </c>
@@ -36555,9 +36474,9 @@
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="65"/>
-      <c r="B73" s="76"/>
-      <c r="C73" s="76"/>
+      <c r="A73" s="75"/>
+      <c r="B73" s="72"/>
+      <c r="C73" s="72"/>
       <c r="D73" s="9">
         <v>6</v>
       </c>
@@ -36596,9 +36515,9 @@
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" s="65"/>
-      <c r="B74" s="76"/>
-      <c r="C74" s="76"/>
+      <c r="A74" s="75"/>
+      <c r="B74" s="72"/>
+      <c r="C74" s="72"/>
       <c r="D74" s="9">
         <v>8</v>
       </c>
@@ -36637,9 +36556,9 @@
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="65"/>
-      <c r="B75" s="76"/>
-      <c r="C75" s="76"/>
+      <c r="A75" s="75"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="72"/>
       <c r="D75" s="9">
         <v>10</v>
       </c>
@@ -36678,9 +36597,9 @@
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="65"/>
-      <c r="B76" s="76"/>
-      <c r="C76" s="76"/>
+      <c r="A76" s="75"/>
+      <c r="B76" s="72"/>
+      <c r="C76" s="72"/>
       <c r="D76" s="9">
         <v>15</v>
       </c>
@@ -36719,11 +36638,11 @@
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="65"/>
-      <c r="B77" s="76">
+      <c r="A77" s="75"/>
+      <c r="B77" s="72">
         <v>25</v>
       </c>
-      <c r="C77" s="76">
+      <c r="C77" s="72">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D77" s="9" t="s">
@@ -36764,9 +36683,9 @@
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" s="65"/>
-      <c r="B78" s="76"/>
-      <c r="C78" s="76"/>
+      <c r="A78" s="75"/>
+      <c r="B78" s="72"/>
+      <c r="C78" s="72"/>
       <c r="D78" s="9">
         <v>2</v>
       </c>
@@ -36783,9 +36702,9 @@
       <c r="O78" s="10"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79" s="65"/>
-      <c r="B79" s="76"/>
-      <c r="C79" s="76"/>
+      <c r="A79" s="75"/>
+      <c r="B79" s="72"/>
+      <c r="C79" s="72"/>
       <c r="D79" s="9">
         <v>4</v>
       </c>
@@ -36802,9 +36721,9 @@
       <c r="O79" s="10"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" s="65"/>
-      <c r="B80" s="76"/>
-      <c r="C80" s="76"/>
+      <c r="A80" s="75"/>
+      <c r="B80" s="72"/>
+      <c r="C80" s="72"/>
       <c r="D80" s="9">
         <v>6</v>
       </c>
@@ -36821,9 +36740,9 @@
       <c r="O80" s="10"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A81" s="65"/>
-      <c r="B81" s="76"/>
-      <c r="C81" s="76"/>
+      <c r="A81" s="75"/>
+      <c r="B81" s="72"/>
+      <c r="C81" s="72"/>
       <c r="D81" s="9">
         <v>8</v>
       </c>
@@ -36840,9 +36759,9 @@
       <c r="O81" s="10"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A82" s="65"/>
-      <c r="B82" s="76"/>
-      <c r="C82" s="76"/>
+      <c r="A82" s="75"/>
+      <c r="B82" s="72"/>
+      <c r="C82" s="72"/>
       <c r="D82" s="9">
         <v>10</v>
       </c>
@@ -36859,9 +36778,9 @@
       <c r="O82" s="10"/>
     </row>
     <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="74"/>
-      <c r="B83" s="77"/>
-      <c r="C83" s="77"/>
+      <c r="A83" s="76"/>
+      <c r="B83" s="73"/>
+      <c r="C83" s="73"/>
       <c r="D83" s="12">
         <v>15</v>
       </c>
@@ -37072,17 +36991,18 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:A24"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="C40:C46"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="B26:B39"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="X43:AA43"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="B4:B17"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="X48:AA48"/>
     <mergeCell ref="A70:A83"/>
     <mergeCell ref="C70:C76"/>
@@ -37095,18 +37015,17 @@
     <mergeCell ref="A53:A66"/>
     <mergeCell ref="B53:B59"/>
     <mergeCell ref="B60:B66"/>
-    <mergeCell ref="X43:AA43"/>
-    <mergeCell ref="C11:C17"/>
-    <mergeCell ref="B4:B17"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:A24"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="C40:C46"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="B26:B39"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="C26:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -37118,8 +37037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BB8612-D910-4E1C-B060-8B590798E8C6}">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37139,57 +37058,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="77" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
       <c r="H1" s="85"/>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
       <c r="L1" s="85"/>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="74" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="85"/>
-      <c r="O1" s="64" t="s">
+      <c r="O1" s="74" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="85"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="62"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="86"/>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76" t="s">
+      <c r="F2" s="72"/>
+      <c r="G2" s="72" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="86"/>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76" t="s">
+      <c r="J2" s="72"/>
+      <c r="K2" s="72" t="s">
         <v>13</v>
       </c>
       <c r="L2" s="86"/>
@@ -37199,9 +37118,9 @@
       <c r="P2" s="50"/>
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="63"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="63"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="79"/>
       <c r="D3" s="87"/>
       <c r="E3" s="46" t="s">
         <v>7</v>
@@ -37279,12 +37198,12 @@
         <v>1.12E-2</v>
       </c>
       <c r="R4" s="9"/>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="73"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="82"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -37460,12 +37379,12 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R9" s="9"/>
-      <c r="S9" s="71" t="s">
+      <c r="S9" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="73"/>
+      <c r="T9" s="81"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="82"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -37676,12 +37595,12 @@
         <v>2.3744051886735753</v>
       </c>
       <c r="R14" s="9"/>
-      <c r="S14" s="71" t="s">
+      <c r="S14" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="73"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="82"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R15" s="9"/>
@@ -37698,10 +37617,43 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="B16">
         <v>21</v>
+      </c>
+      <c r="E16">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="F16">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="G16">
+        <v>1.4931000000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.752</v>
+      </c>
+      <c r="I16">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J16">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="K16">
+        <v>16.2883</v>
+      </c>
+      <c r="L16">
+        <v>8.7365999999999993</v>
+      </c>
+      <c r="M16">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="N16">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="O16">
+        <v>1.6E-2</v>
       </c>
       <c r="R16" s="9"/>
       <c r="S16" s="3" t="s">
@@ -37717,10 +37669,43 @@
     </row>
     <row r="17" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="B17">
         <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1.01E-2</v>
+      </c>
+      <c r="F17">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="G17">
+        <v>1.4663999999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.85129999999999995</v>
+      </c>
+      <c r="I17">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="J17">
+        <v>0.1065</v>
+      </c>
+      <c r="K17">
+        <v>20.1435</v>
+      </c>
+      <c r="L17">
+        <v>13.0496</v>
+      </c>
+      <c r="M17">
+        <v>2.2329999999999999E-2</v>
+      </c>
+      <c r="N17">
+        <v>1.4E-2</v>
+      </c>
+      <c r="O17">
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="R17" s="9"/>
       <c r="S17" s="5" t="s">
@@ -37749,53 +37734,53 @@
       <c r="S19" s="9"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E20" s="52" t="e">
-        <f>AVERAGE(E16:E18)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="52" t="e">
-        <f>AVERAGE(F16:F18)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="52" t="e">
-        <f>AVERAGE(G16:G18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="52" t="e">
-        <f>AVERAGE(H16:H18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="52" t="e">
-        <f>AVERAGE(I16:I18)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="52" t="e">
-        <f>AVERAGE(J16:J18)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="52" t="e">
-        <f>AVERAGE(K16:K18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="52" t="e">
-        <f>AVERAGE(L16:L18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="52" t="e">
-        <f>AVERAGE(M16:M18)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="52" t="e">
-        <f>AVERAGE(N16:N18)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O20" s="52" t="e">
+      <c r="E20" s="52">
+        <f>AVERAGE(E17:E18)*1000</f>
+        <v>10.1</v>
+      </c>
+      <c r="F20" s="52">
+        <f>AVERAGE(F17:F18)*1000</f>
+        <v>7.3</v>
+      </c>
+      <c r="G20" s="52">
+        <f>AVERAGE(G17:G18)</f>
+        <v>1.4663999999999999</v>
+      </c>
+      <c r="H20" s="52">
+        <f>AVERAGE(H17:H18)</f>
+        <v>0.85129999999999995</v>
+      </c>
+      <c r="I20" s="52">
+        <f>AVERAGE(I17:I18)*1000</f>
+        <v>11.299999999999999</v>
+      </c>
+      <c r="J20" s="52">
+        <f>AVERAGE(J17:J18)*1000</f>
+        <v>106.5</v>
+      </c>
+      <c r="K20" s="52">
+        <f>AVERAGE(K17:K18)</f>
+        <v>20.1435</v>
+      </c>
+      <c r="L20" s="52">
+        <f>AVERAGE(L17:L18)</f>
+        <v>13.0496</v>
+      </c>
+      <c r="M20" s="52">
+        <f>AVERAGE(M17:M18)*1000</f>
+        <v>22.33</v>
+      </c>
+      <c r="N20" s="52">
+        <f>AVERAGE(N17:N18)*1000</f>
+        <v>14</v>
+      </c>
+      <c r="O20" s="52">
         <f>AVERAGE(O16:O18)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P20" s="52" t="e">
+        <v>16.25</v>
+      </c>
+      <c r="P20" s="52">
         <f>_xlfn.STDEV.P(O16:O18)*1000</f>
-        <v>#DIV/0!</v>
+        <v>0.25000000000000022</v>
       </c>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
@@ -38227,7 +38212,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="61" t="s">
         <v>32</v>
       </c>
       <c r="B3">
@@ -38267,7 +38252,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="78"/>
+      <c r="A4" s="61"/>
       <c r="B4">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -38305,7 +38290,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
+      <c r="A5" s="61"/>
       <c r="B5">
         <v>1.2E-2</v>
       </c>
@@ -38343,7 +38328,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="78"/>
+      <c r="A6" s="61"/>
       <c r="B6">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -38381,7 +38366,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="78"/>
+      <c r="A7" s="61"/>
       <c r="B7">
         <v>1.4E-2</v>
       </c>
@@ -38419,7 +38404,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="78"/>
+      <c r="A8" s="61"/>
       <c r="B8">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -38457,7 +38442,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="78"/>
+      <c r="A9" s="61"/>
       <c r="B9">
         <v>1.6E-2</v>
       </c>
@@ -38495,7 +38480,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="78"/>
+      <c r="A10" s="61"/>
       <c r="B10">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -38533,7 +38518,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="78"/>
+      <c r="A11" s="61"/>
       <c r="B11">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -38571,7 +38556,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="78"/>
+      <c r="A12" s="61"/>
       <c r="B12">
         <v>1.9E-2</v>
       </c>
@@ -38609,7 +38594,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="78"/>
+      <c r="A13" s="61"/>
       <c r="B13">
         <v>0.02</v>
       </c>
@@ -38647,7 +38632,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="78"/>
+      <c r="A14" s="61"/>
       <c r="B14">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -38685,7 +38670,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="78"/>
+      <c r="A15" s="61"/>
       <c r="B15">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -38723,7 +38708,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="78"/>
+      <c r="A16" s="61"/>
       <c r="B16">
         <v>2.3E-2</v>
       </c>
@@ -38761,7 +38746,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="78"/>
+      <c r="A17" s="61"/>
       <c r="B17">
         <v>2.4E-2</v>
       </c>
@@ -38799,7 +38784,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
+      <c r="A18" s="61"/>
       <c r="B18">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -38837,7 +38822,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="78"/>
+      <c r="A19" s="61"/>
       <c r="B19">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -38875,7 +38860,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="78"/>
+      <c r="A20" s="61"/>
       <c r="B20">
         <v>2.7E-2</v>
       </c>
@@ -38913,7 +38898,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="78"/>
+      <c r="A21" s="61"/>
       <c r="B21">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -38951,7 +38936,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="78"/>
+      <c r="A22" s="61"/>
       <c r="B22">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -38989,7 +38974,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="61" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="60" t="s">
@@ -39012,7 +38997,7 @@
       <c r="K23" s="60"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="78"/>
+      <c r="A24" s="61"/>
       <c r="B24" t="s">
         <v>28</v>
       </c>
@@ -39045,7 +39030,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="61" t="s">
         <v>33</v>
       </c>
       <c r="B25">
@@ -39085,7 +39070,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="78"/>
+      <c r="A26" s="61"/>
       <c r="B26">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -39123,7 +39108,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="78"/>
+      <c r="A27" s="61"/>
       <c r="B27">
         <v>1.2E-2</v>
       </c>
@@ -39161,7 +39146,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="78"/>
+      <c r="A28" s="61"/>
       <c r="B28">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -39199,7 +39184,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="78"/>
+      <c r="A29" s="61"/>
       <c r="B29">
         <v>1.4E-2</v>
       </c>
@@ -39237,7 +39222,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="78"/>
+      <c r="A30" s="61"/>
       <c r="B30">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -39275,7 +39260,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="78"/>
+      <c r="A31" s="61"/>
       <c r="B31">
         <v>1.6E-2</v>
       </c>
@@ -39313,7 +39298,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="78"/>
+      <c r="A32" s="61"/>
       <c r="B32">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -39351,7 +39336,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="78"/>
+      <c r="A33" s="61"/>
       <c r="B33">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -39389,7 +39374,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="78"/>
+      <c r="A34" s="61"/>
       <c r="B34">
         <v>1.9E-2</v>
       </c>
@@ -39427,7 +39412,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="78"/>
+      <c r="A35" s="61"/>
       <c r="B35">
         <v>0.02</v>
       </c>
@@ -39465,7 +39450,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="78"/>
+      <c r="A36" s="61"/>
       <c r="B36">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -39503,7 +39488,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="78"/>
+      <c r="A37" s="61"/>
       <c r="B37">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -39541,7 +39526,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="78"/>
+      <c r="A38" s="61"/>
       <c r="B38">
         <v>2.3E-2</v>
       </c>
@@ -39579,7 +39564,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="78"/>
+      <c r="A39" s="61"/>
       <c r="B39">
         <v>2.4E-2</v>
       </c>
@@ -39617,7 +39602,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="78"/>
+      <c r="A40" s="61"/>
       <c r="B40">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -39655,7 +39640,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="78"/>
+      <c r="A41" s="61"/>
       <c r="B41">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -39693,7 +39678,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="78"/>
+      <c r="A42" s="61"/>
       <c r="B42">
         <v>2.7E-2</v>
       </c>
@@ -39731,7 +39716,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="78"/>
+      <c r="A43" s="61"/>
       <c r="B43">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -39769,7 +39754,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="78"/>
+      <c r="A44" s="61"/>
       <c r="B44">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -39863,7 +39848,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="78" t="s">
+      <c r="A47" s="61" t="s">
         <v>68</v>
       </c>
       <c r="B47">
@@ -39903,7 +39888,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="78"/>
+      <c r="A48" s="61"/>
       <c r="B48">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -39941,7 +39926,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="78"/>
+      <c r="A49" s="61"/>
       <c r="B49">
         <v>1.2E-2</v>
       </c>
@@ -39979,7 +39964,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="78"/>
+      <c r="A50" s="61"/>
       <c r="B50">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -40017,7 +40002,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="78"/>
+      <c r="A51" s="61"/>
       <c r="B51">
         <v>1.4E-2</v>
       </c>
@@ -40055,7 +40040,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="78"/>
+      <c r="A52" s="61"/>
       <c r="B52">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -40093,7 +40078,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="78"/>
+      <c r="A53" s="61"/>
       <c r="B53">
         <v>1.6E-2</v>
       </c>
@@ -40131,7 +40116,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="78"/>
+      <c r="A54" s="61"/>
       <c r="B54">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -40169,7 +40154,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="78"/>
+      <c r="A55" s="61"/>
       <c r="B55">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -40207,7 +40192,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="78"/>
+      <c r="A56" s="61"/>
       <c r="B56">
         <v>1.9E-2</v>
       </c>
@@ -40245,7 +40230,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="78"/>
+      <c r="A57" s="61"/>
       <c r="B57">
         <v>0.02</v>
       </c>
@@ -40283,7 +40268,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="78"/>
+      <c r="A58" s="61"/>
       <c r="B58">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -40321,7 +40306,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="78"/>
+      <c r="A59" s="61"/>
       <c r="B59">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -40359,7 +40344,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="78"/>
+      <c r="A60" s="61"/>
       <c r="B60">
         <v>2.3E-2</v>
       </c>
@@ -40397,7 +40382,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="78"/>
+      <c r="A61" s="61"/>
       <c r="B61">
         <v>2.4E-2</v>
       </c>
@@ -40435,7 +40420,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="78"/>
+      <c r="A62" s="61"/>
       <c r="B62">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -40473,7 +40458,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="78"/>
+      <c r="A63" s="61"/>
       <c r="B63">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -40511,7 +40496,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="78"/>
+      <c r="A64" s="61"/>
       <c r="B64">
         <v>2.7E-2</v>
       </c>
@@ -40549,7 +40534,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="78"/>
+      <c r="A65" s="61"/>
       <c r="B65">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -40681,7 +40666,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="78" t="s">
+      <c r="A69" s="61" t="s">
         <v>69</v>
       </c>
       <c r="B69">
@@ -40721,7 +40706,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="78"/>
+      <c r="A70" s="61"/>
       <c r="B70">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -40759,7 +40744,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="78"/>
+      <c r="A71" s="61"/>
       <c r="B71">
         <v>1.2E-2</v>
       </c>
@@ -40797,7 +40782,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="78"/>
+      <c r="A72" s="61"/>
       <c r="B72">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -40835,7 +40820,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="78"/>
+      <c r="A73" s="61"/>
       <c r="B73">
         <v>1.4E-2</v>
       </c>
@@ -40873,7 +40858,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="78"/>
+      <c r="A74" s="61"/>
       <c r="B74">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -40911,7 +40896,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="78"/>
+      <c r="A75" s="61"/>
       <c r="B75">
         <v>1.6E-2</v>
       </c>
@@ -40949,7 +40934,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="78"/>
+      <c r="A76" s="61"/>
       <c r="B76">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -40987,7 +40972,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="78"/>
+      <c r="A77" s="61"/>
       <c r="B77">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -41025,7 +41010,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="78"/>
+      <c r="A78" s="61"/>
       <c r="B78">
         <v>1.9E-2</v>
       </c>
@@ -41063,7 +41048,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="78"/>
+      <c r="A79" s="61"/>
       <c r="B79">
         <v>0.02</v>
       </c>
@@ -41101,7 +41086,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="78"/>
+      <c r="A80" s="61"/>
       <c r="B80">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -41139,7 +41124,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="78"/>
+      <c r="A81" s="61"/>
       <c r="B81">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -41177,7 +41162,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="78"/>
+      <c r="A82" s="61"/>
       <c r="B82">
         <v>2.3E-2</v>
       </c>
@@ -41215,7 +41200,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="78"/>
+      <c r="A83" s="61"/>
       <c r="B83">
         <v>2.4E-2</v>
       </c>
@@ -41253,7 +41238,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="78"/>
+      <c r="A84" s="61"/>
       <c r="B84">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -41291,7 +41276,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="78"/>
+      <c r="A85" s="61"/>
       <c r="B85">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -41329,7 +41314,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="78"/>
+      <c r="A86" s="61"/>
       <c r="B86">
         <v>2.7E-2</v>
       </c>
@@ -41367,7 +41352,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="78"/>
+      <c r="A87" s="61"/>
       <c r="B87">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -41499,7 +41484,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="78" t="s">
+      <c r="A91" s="61" t="s">
         <v>70</v>
       </c>
       <c r="B91">
@@ -41539,7 +41524,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="78"/>
+      <c r="A92" s="61"/>
       <c r="B92">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -41577,7 +41562,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="78"/>
+      <c r="A93" s="61"/>
       <c r="B93">
         <v>1.2E-2</v>
       </c>
@@ -41615,7 +41600,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="78"/>
+      <c r="A94" s="61"/>
       <c r="B94">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -41653,7 +41638,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="78"/>
+      <c r="A95" s="61"/>
       <c r="B95">
         <v>1.4E-2</v>
       </c>
@@ -41691,7 +41676,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="78"/>
+      <c r="A96" s="61"/>
       <c r="B96">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -41729,7 +41714,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="78"/>
+      <c r="A97" s="61"/>
       <c r="B97">
         <v>1.6E-2</v>
       </c>
@@ -41767,7 +41752,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="78"/>
+      <c r="A98" s="61"/>
       <c r="B98">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -41805,7 +41790,7 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="78"/>
+      <c r="A99" s="61"/>
       <c r="B99">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -41843,7 +41828,7 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="78"/>
+      <c r="A100" s="61"/>
       <c r="B100">
         <v>1.9E-2</v>
       </c>
@@ -41881,7 +41866,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="78"/>
+      <c r="A101" s="61"/>
       <c r="B101">
         <v>0.02</v>
       </c>
@@ -41919,7 +41904,7 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="78"/>
+      <c r="A102" s="61"/>
       <c r="B102">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -41957,7 +41942,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="78"/>
+      <c r="A103" s="61"/>
       <c r="B103">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -41995,7 +41980,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="78"/>
+      <c r="A104" s="61"/>
       <c r="B104">
         <v>2.3E-2</v>
       </c>
@@ -42033,7 +42018,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="78"/>
+      <c r="A105" s="61"/>
       <c r="B105">
         <v>2.4E-2</v>
       </c>
@@ -42071,7 +42056,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="78"/>
+      <c r="A106" s="61"/>
       <c r="B106">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -42109,7 +42094,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="78"/>
+      <c r="A107" s="61"/>
       <c r="B107">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -42147,7 +42132,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="78"/>
+      <c r="A108" s="61"/>
       <c r="B108">
         <v>2.7E-2</v>
       </c>
@@ -42185,7 +42170,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="78"/>
+      <c r="A109" s="61"/>
       <c r="B109">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -42223,7 +42208,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="78"/>
+      <c r="A110" s="61"/>
       <c r="B110">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -42317,7 +42302,7 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="78" t="s">
+      <c r="A113" s="61" t="s">
         <v>71</v>
       </c>
       <c r="B113">
@@ -42357,7 +42342,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="78"/>
+      <c r="A114" s="61"/>
       <c r="B114">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -42395,7 +42380,7 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="78"/>
+      <c r="A115" s="61"/>
       <c r="B115">
         <v>1.2E-2</v>
       </c>
@@ -42433,7 +42418,7 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="78"/>
+      <c r="A116" s="61"/>
       <c r="B116">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -42471,7 +42456,7 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="78"/>
+      <c r="A117" s="61"/>
       <c r="B117">
         <v>1.4E-2</v>
       </c>
@@ -42509,7 +42494,7 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="78"/>
+      <c r="A118" s="61"/>
       <c r="B118">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -42547,7 +42532,7 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="78"/>
+      <c r="A119" s="61"/>
       <c r="B119">
         <v>1.6E-2</v>
       </c>
@@ -42585,7 +42570,7 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="78"/>
+      <c r="A120" s="61"/>
       <c r="B120">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -42623,7 +42608,7 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="78"/>
+      <c r="A121" s="61"/>
       <c r="B121">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -42661,7 +42646,7 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="78"/>
+      <c r="A122" s="61"/>
       <c r="B122">
         <v>1.9E-2</v>
       </c>
@@ -42699,7 +42684,7 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="78"/>
+      <c r="A123" s="61"/>
       <c r="B123">
         <v>0.02</v>
       </c>
@@ -42737,7 +42722,7 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="78"/>
+      <c r="A124" s="61"/>
       <c r="B124">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -42775,7 +42760,7 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="78"/>
+      <c r="A125" s="61"/>
       <c r="B125">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -42813,7 +42798,7 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="78"/>
+      <c r="A126" s="61"/>
       <c r="B126">
         <v>2.3E-2</v>
       </c>
@@ -42851,7 +42836,7 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="78"/>
+      <c r="A127" s="61"/>
       <c r="B127">
         <v>2.4E-2</v>
       </c>
@@ -42889,7 +42874,7 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="78"/>
+      <c r="A128" s="61"/>
       <c r="B128">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -42927,7 +42912,7 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="78"/>
+      <c r="A129" s="61"/>
       <c r="B129">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -42965,7 +42950,7 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="78"/>
+      <c r="A130" s="61"/>
       <c r="B130">
         <v>2.7E-2</v>
       </c>
@@ -43003,7 +42988,7 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="78"/>
+      <c r="A131" s="61"/>
       <c r="B131">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -43079,16 +43064,16 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A113:A131"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="A3:A22"/>
+    <mergeCell ref="A25:A44"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="A91:A110"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B67:D67"/>
@@ -43105,16 +43090,16 @@
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="A69:A87"/>
     <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A22"/>
-    <mergeCell ref="A25:A44"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="A113:A131"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:I111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -43200,7 +43185,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="61" t="s">
         <v>35</v>
       </c>
       <c r="B3">
@@ -43240,7 +43225,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="78"/>
+      <c r="A4" s="61"/>
       <c r="B4">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -43278,7 +43263,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
+      <c r="A5" s="61"/>
       <c r="B5">
         <v>1.2E-2</v>
       </c>
@@ -43316,7 +43301,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="78"/>
+      <c r="A6" s="61"/>
       <c r="B6">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -43354,7 +43339,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="78"/>
+      <c r="A7" s="61"/>
       <c r="B7">
         <v>1.4E-2</v>
       </c>
@@ -43392,7 +43377,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="78"/>
+      <c r="A8" s="61"/>
       <c r="B8">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -43430,7 +43415,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="78"/>
+      <c r="A9" s="61"/>
       <c r="B9">
         <v>1.6E-2</v>
       </c>
@@ -43468,7 +43453,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="78"/>
+      <c r="A10" s="61"/>
       <c r="B10">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -43506,7 +43491,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="78"/>
+      <c r="A11" s="61"/>
       <c r="B11">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -43544,7 +43529,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="78"/>
+      <c r="A12" s="61"/>
       <c r="B12">
         <v>1.9E-2</v>
       </c>
@@ -43582,7 +43567,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="78"/>
+      <c r="A13" s="61"/>
       <c r="B13">
         <v>0.02</v>
       </c>
@@ -43620,7 +43605,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="78"/>
+      <c r="A14" s="61"/>
       <c r="B14">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -43658,7 +43643,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="78"/>
+      <c r="A15" s="61"/>
       <c r="B15">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -43696,7 +43681,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="78"/>
+      <c r="A16" s="61"/>
       <c r="B16">
         <v>2.3E-2</v>
       </c>
@@ -43734,7 +43719,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="78"/>
+      <c r="A17" s="61"/>
       <c r="B17">
         <v>2.4E-2</v>
       </c>
@@ -43772,7 +43757,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
+      <c r="A18" s="61"/>
       <c r="B18">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -43810,7 +43795,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="78"/>
+      <c r="A19" s="61"/>
       <c r="B19">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -43848,7 +43833,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="78"/>
+      <c r="A20" s="61"/>
       <c r="B20">
         <v>2.7E-2</v>
       </c>
@@ -43886,7 +43871,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="78"/>
+      <c r="A21" s="61"/>
       <c r="B21">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -43924,7 +43909,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="78"/>
+      <c r="A22" s="61"/>
       <c r="B22">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -43962,7 +43947,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="61" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="60" t="s">
@@ -43985,7 +43970,7 @@
       <c r="K23" s="60"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="78"/>
+      <c r="A24" s="61"/>
       <c r="B24" t="s">
         <v>28</v>
       </c>
@@ -44018,7 +44003,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="61" t="s">
         <v>34</v>
       </c>
       <c r="B25">
@@ -44058,7 +44043,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="78"/>
+      <c r="A26" s="61"/>
       <c r="B26">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -44096,7 +44081,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="78"/>
+      <c r="A27" s="61"/>
       <c r="B27">
         <v>1.2E-2</v>
       </c>
@@ -44134,7 +44119,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="78"/>
+      <c r="A28" s="61"/>
       <c r="B28">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -44172,7 +44157,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="78"/>
+      <c r="A29" s="61"/>
       <c r="B29">
         <v>1.4E-2</v>
       </c>
@@ -44210,7 +44195,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="78"/>
+      <c r="A30" s="61"/>
       <c r="B30">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -44248,7 +44233,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="78"/>
+      <c r="A31" s="61"/>
       <c r="B31">
         <v>1.6E-2</v>
       </c>
@@ -44286,7 +44271,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="78"/>
+      <c r="A32" s="61"/>
       <c r="B32">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -44324,7 +44309,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="78"/>
+      <c r="A33" s="61"/>
       <c r="B33">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -44362,7 +44347,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="78"/>
+      <c r="A34" s="61"/>
       <c r="B34">
         <v>1.9E-2</v>
       </c>
@@ -44400,7 +44385,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="78"/>
+      <c r="A35" s="61"/>
       <c r="B35">
         <v>0.02</v>
       </c>
@@ -44438,7 +44423,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="78"/>
+      <c r="A36" s="61"/>
       <c r="B36">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -44476,7 +44461,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="78"/>
+      <c r="A37" s="61"/>
       <c r="B37">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -44514,7 +44499,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="78"/>
+      <c r="A38" s="61"/>
       <c r="B38">
         <v>2.3E-2</v>
       </c>
@@ -44552,7 +44537,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="78"/>
+      <c r="A39" s="61"/>
       <c r="B39">
         <v>2.4E-2</v>
       </c>
@@ -44590,7 +44575,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="78"/>
+      <c r="A40" s="61"/>
       <c r="B40">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -44628,7 +44613,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="78"/>
+      <c r="A41" s="61"/>
       <c r="B41">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -44666,7 +44651,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="78"/>
+      <c r="A42" s="61"/>
       <c r="B42">
         <v>2.7E-2</v>
       </c>
@@ -44704,7 +44689,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="78"/>
+      <c r="A43" s="61"/>
       <c r="B43">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -44742,7 +44727,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="78"/>
+      <c r="A44" s="61"/>
       <c r="B44">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -44780,7 +44765,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="78" t="s">
+      <c r="A45" s="61" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="60" t="s">
@@ -44803,7 +44788,7 @@
       <c r="K45" s="60"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="78"/>
+      <c r="A46" s="61"/>
       <c r="B46" t="s">
         <v>28</v>
       </c>
@@ -44836,7 +44821,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="78" t="s">
+      <c r="A47" s="61" t="s">
         <v>72</v>
       </c>
       <c r="B47">
@@ -44876,7 +44861,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="78"/>
+      <c r="A48" s="61"/>
       <c r="B48">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -44914,7 +44899,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="78"/>
+      <c r="A49" s="61"/>
       <c r="B49">
         <v>1.2E-2</v>
       </c>
@@ -44952,7 +44937,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="78"/>
+      <c r="A50" s="61"/>
       <c r="B50">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -44990,7 +44975,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="78"/>
+      <c r="A51" s="61"/>
       <c r="B51">
         <v>1.4E-2</v>
       </c>
@@ -45028,7 +45013,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="78"/>
+      <c r="A52" s="61"/>
       <c r="B52">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -45066,7 +45051,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="78"/>
+      <c r="A53" s="61"/>
       <c r="B53">
         <v>1.6E-2</v>
       </c>
@@ -45104,7 +45089,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="78"/>
+      <c r="A54" s="61"/>
       <c r="B54">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -45142,7 +45127,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="78"/>
+      <c r="A55" s="61"/>
       <c r="B55">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -45180,7 +45165,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="78"/>
+      <c r="A56" s="61"/>
       <c r="B56">
         <v>1.9E-2</v>
       </c>
@@ -45218,7 +45203,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="78"/>
+      <c r="A57" s="61"/>
       <c r="B57">
         <v>0.02</v>
       </c>
@@ -45256,7 +45241,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="78"/>
+      <c r="A58" s="61"/>
       <c r="B58">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -45294,7 +45279,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="78"/>
+      <c r="A59" s="61"/>
       <c r="B59">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -45332,7 +45317,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="78"/>
+      <c r="A60" s="61"/>
       <c r="B60">
         <v>2.3E-2</v>
       </c>
@@ -45370,7 +45355,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="78"/>
+      <c r="A61" s="61"/>
       <c r="B61">
         <v>2.4E-2</v>
       </c>
@@ -45408,7 +45393,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="78"/>
+      <c r="A62" s="61"/>
       <c r="B62">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -45446,7 +45431,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="78"/>
+      <c r="A63" s="61"/>
       <c r="B63">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -45484,7 +45469,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="78"/>
+      <c r="A64" s="61"/>
       <c r="B64">
         <v>2.7E-2</v>
       </c>
@@ -45522,7 +45507,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="78"/>
+      <c r="A65" s="61"/>
       <c r="B65">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -45560,7 +45545,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="78"/>
+      <c r="A66" s="61"/>
       <c r="B66">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -45598,7 +45583,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="78" t="s">
+      <c r="A67" s="61" t="s">
         <v>30</v>
       </c>
       <c r="B67" s="60" t="s">
@@ -45621,7 +45606,7 @@
       <c r="K67" s="60"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="78"/>
+      <c r="A68" s="61"/>
       <c r="B68" t="s">
         <v>28</v>
       </c>
@@ -45654,7 +45639,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="78" t="s">
+      <c r="A69" s="61" t="s">
         <v>73</v>
       </c>
       <c r="B69">
@@ -45694,7 +45679,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="78"/>
+      <c r="A70" s="61"/>
       <c r="B70">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -45732,7 +45717,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="78"/>
+      <c r="A71" s="61"/>
       <c r="B71">
         <v>1.2E-2</v>
       </c>
@@ -45770,7 +45755,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="78"/>
+      <c r="A72" s="61"/>
       <c r="B72">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -45808,7 +45793,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="78"/>
+      <c r="A73" s="61"/>
       <c r="B73">
         <v>1.4E-2</v>
       </c>
@@ -45846,7 +45831,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="78"/>
+      <c r="A74" s="61"/>
       <c r="B74">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -45884,7 +45869,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="78"/>
+      <c r="A75" s="61"/>
       <c r="B75">
         <v>1.6E-2</v>
       </c>
@@ -45922,7 +45907,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="78"/>
+      <c r="A76" s="61"/>
       <c r="B76">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -45960,7 +45945,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="78"/>
+      <c r="A77" s="61"/>
       <c r="B77">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -45998,7 +45983,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="78"/>
+      <c r="A78" s="61"/>
       <c r="B78">
         <v>1.9E-2</v>
       </c>
@@ -46036,7 +46021,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="78"/>
+      <c r="A79" s="61"/>
       <c r="B79">
         <v>0.02</v>
       </c>
@@ -46074,7 +46059,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="78"/>
+      <c r="A80" s="61"/>
       <c r="B80">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -46112,7 +46097,7 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" s="78"/>
+      <c r="A81" s="61"/>
       <c r="B81">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -46150,7 +46135,7 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="78"/>
+      <c r="A82" s="61"/>
       <c r="B82">
         <v>2.3E-2</v>
       </c>
@@ -46188,7 +46173,7 @@
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="78"/>
+      <c r="A83" s="61"/>
       <c r="B83">
         <v>2.4E-2</v>
       </c>
@@ -46226,7 +46211,7 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" s="78"/>
+      <c r="A84" s="61"/>
       <c r="B84">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -46264,7 +46249,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="78"/>
+      <c r="A85" s="61"/>
       <c r="B85">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -46302,7 +46287,7 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="78"/>
+      <c r="A86" s="61"/>
       <c r="B86">
         <v>2.7E-2</v>
       </c>
@@ -46340,7 +46325,7 @@
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="78"/>
+      <c r="A87" s="61"/>
       <c r="B87">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -46378,7 +46363,7 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="78"/>
+      <c r="A88" s="61"/>
       <c r="B88">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -46416,7 +46401,7 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="78" t="s">
+      <c r="A89" s="61" t="s">
         <v>30</v>
       </c>
       <c r="B89" s="60" t="s">
@@ -46439,7 +46424,7 @@
       <c r="K89" s="60"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="78"/>
+      <c r="A90" s="61"/>
       <c r="B90" t="s">
         <v>28</v>
       </c>
@@ -46472,7 +46457,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="78" t="s">
+      <c r="A91" s="61" t="s">
         <v>74</v>
       </c>
       <c r="B91">
@@ -46512,7 +46497,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="78"/>
+      <c r="A92" s="61"/>
       <c r="B92">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -46550,7 +46535,7 @@
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="78"/>
+      <c r="A93" s="61"/>
       <c r="B93">
         <v>1.2E-2</v>
       </c>
@@ -46588,7 +46573,7 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="78"/>
+      <c r="A94" s="61"/>
       <c r="B94">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -46627,7 +46612,7 @@
       <c r="N94" s="53"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="78"/>
+      <c r="A95" s="61"/>
       <c r="B95">
         <v>1.4E-2</v>
       </c>
@@ -46665,7 +46650,7 @@
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" s="78"/>
+      <c r="A96" s="61"/>
       <c r="B96">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -46703,7 +46688,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="78"/>
+      <c r="A97" s="61"/>
       <c r="B97">
         <v>1.6E-2</v>
       </c>
@@ -46741,7 +46726,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="78"/>
+      <c r="A98" s="61"/>
       <c r="B98">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -46779,7 +46764,7 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="78"/>
+      <c r="A99" s="61"/>
       <c r="B99">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -46817,7 +46802,7 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="78"/>
+      <c r="A100" s="61"/>
       <c r="B100">
         <v>1.9E-2</v>
       </c>
@@ -46855,7 +46840,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="78"/>
+      <c r="A101" s="61"/>
       <c r="B101">
         <v>0.02</v>
       </c>
@@ -46893,7 +46878,7 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="78"/>
+      <c r="A102" s="61"/>
       <c r="B102">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -46931,7 +46916,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="78"/>
+      <c r="A103" s="61"/>
       <c r="B103">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -46969,7 +46954,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="78"/>
+      <c r="A104" s="61"/>
       <c r="B104">
         <v>2.3E-2</v>
       </c>
@@ -47007,7 +46992,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="78"/>
+      <c r="A105" s="61"/>
       <c r="B105">
         <v>2.4E-2</v>
       </c>
@@ -47045,7 +47030,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="78"/>
+      <c r="A106" s="61"/>
       <c r="B106">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -47083,7 +47068,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="78"/>
+      <c r="A107" s="61"/>
       <c r="B107">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -47121,7 +47106,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="78"/>
+      <c r="A108" s="61"/>
       <c r="B108">
         <v>2.7E-2</v>
       </c>
@@ -47159,7 +47144,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="78"/>
+      <c r="A109" s="61"/>
       <c r="B109">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -47197,7 +47182,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="78"/>
+      <c r="A110" s="61"/>
       <c r="B110">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -47235,7 +47220,7 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="78" t="s">
+      <c r="A111" s="61" t="s">
         <v>30</v>
       </c>
       <c r="B111" s="60" t="s">
@@ -47258,7 +47243,7 @@
       <c r="K111" s="60"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="78"/>
+      <c r="A112" s="61"/>
       <c r="B112" t="s">
         <v>28</v>
       </c>
@@ -47291,7 +47276,7 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="78" t="s">
+      <c r="A113" s="61" t="s">
         <v>80</v>
       </c>
       <c r="B113">
@@ -47331,7 +47316,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="78"/>
+      <c r="A114" s="61"/>
       <c r="B114">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -47369,7 +47354,7 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="78"/>
+      <c r="A115" s="61"/>
       <c r="B115">
         <v>1.2E-2</v>
       </c>
@@ -47407,7 +47392,7 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="78"/>
+      <c r="A116" s="61"/>
       <c r="B116">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -47445,7 +47430,7 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="78"/>
+      <c r="A117" s="61"/>
       <c r="B117">
         <v>1.4E-2</v>
       </c>
@@ -47483,7 +47468,7 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="78"/>
+      <c r="A118" s="61"/>
       <c r="B118">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -47521,7 +47506,7 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="78"/>
+      <c r="A119" s="61"/>
       <c r="B119">
         <v>1.6E-2</v>
       </c>
@@ -47559,7 +47544,7 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="78"/>
+      <c r="A120" s="61"/>
       <c r="B120">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -47597,7 +47582,7 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="78"/>
+      <c r="A121" s="61"/>
       <c r="B121">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -47635,7 +47620,7 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="78"/>
+      <c r="A122" s="61"/>
       <c r="B122">
         <v>1.9E-2</v>
       </c>
@@ -47673,7 +47658,7 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="78"/>
+      <c r="A123" s="61"/>
       <c r="B123">
         <v>0.02</v>
       </c>
@@ -47711,7 +47696,7 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="78"/>
+      <c r="A124" s="61"/>
       <c r="B124">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -47749,7 +47734,7 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="78"/>
+      <c r="A125" s="61"/>
       <c r="B125">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -47787,7 +47772,7 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="78"/>
+      <c r="A126" s="61"/>
       <c r="B126">
         <v>2.3E-2</v>
       </c>
@@ -47825,7 +47810,7 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="78"/>
+      <c r="A127" s="61"/>
       <c r="B127">
         <v>2.4E-2</v>
       </c>
@@ -47863,7 +47848,7 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="78"/>
+      <c r="A128" s="61"/>
       <c r="B128">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -47901,7 +47886,7 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="78"/>
+      <c r="A129" s="61"/>
       <c r="B129">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -47939,7 +47924,7 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="78"/>
+      <c r="A130" s="61"/>
       <c r="B130">
         <v>2.7E-2</v>
       </c>
@@ -47977,7 +47962,7 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="78"/>
+      <c r="A131" s="61"/>
       <c r="B131">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -48015,7 +48000,7 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="78"/>
+      <c r="A132" s="61"/>
       <c r="B132">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -48054,33 +48039,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A113:A132"/>
-    <mergeCell ref="A91:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A69:A88"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="A47:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A3:A22"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="B45:D45"/>
@@ -48090,6 +48048,33 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A69:A88"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="A47:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="A113:A132"/>
+    <mergeCell ref="A91:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="E111:F111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -48175,7 +48160,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="61" t="s">
         <v>75</v>
       </c>
       <c r="B3">
@@ -48215,7 +48200,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="78"/>
+      <c r="A4" s="61"/>
       <c r="B4">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -48253,7 +48238,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
+      <c r="A5" s="61"/>
       <c r="B5">
         <v>1.2E-2</v>
       </c>
@@ -48291,7 +48276,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="78"/>
+      <c r="A6" s="61"/>
       <c r="B6">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -48329,7 +48314,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="78"/>
+      <c r="A7" s="61"/>
       <c r="B7">
         <v>1.4E-2</v>
       </c>
@@ -48367,7 +48352,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="78"/>
+      <c r="A8" s="61"/>
       <c r="B8">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -48405,7 +48390,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="78"/>
+      <c r="A9" s="61"/>
       <c r="B9">
         <v>1.6E-2</v>
       </c>
@@ -48443,7 +48428,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="78"/>
+      <c r="A10" s="61"/>
       <c r="B10">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -48481,7 +48466,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="78"/>
+      <c r="A11" s="61"/>
       <c r="B11">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -48519,7 +48504,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="78"/>
+      <c r="A12" s="61"/>
       <c r="B12">
         <v>1.9E-2</v>
       </c>
@@ -48557,7 +48542,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="78"/>
+      <c r="A13" s="61"/>
       <c r="B13">
         <v>0.02</v>
       </c>
@@ -48595,7 +48580,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="78"/>
+      <c r="A14" s="61"/>
       <c r="B14">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -48633,7 +48618,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="78"/>
+      <c r="A15" s="61"/>
       <c r="B15">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -48671,7 +48656,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="78"/>
+      <c r="A16" s="61"/>
       <c r="B16">
         <v>2.3E-2</v>
       </c>
@@ -48709,7 +48694,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="78"/>
+      <c r="A17" s="61"/>
       <c r="B17">
         <v>2.4E-2</v>
       </c>
@@ -48747,7 +48732,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
+      <c r="A18" s="61"/>
       <c r="B18">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -48785,7 +48770,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="78"/>
+      <c r="A19" s="61"/>
       <c r="B19">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -48823,7 +48808,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="78"/>
+      <c r="A20" s="61"/>
       <c r="B20">
         <v>2.7E-2</v>
       </c>
@@ -48861,7 +48846,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="78"/>
+      <c r="A21" s="61"/>
       <c r="B21">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -48899,7 +48884,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="78"/>
+      <c r="A22" s="61"/>
       <c r="B22">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -48937,7 +48922,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="61" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="60" t="s">
@@ -48960,7 +48945,7 @@
       <c r="K23" s="60"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="78"/>
+      <c r="A24" s="61"/>
       <c r="B24" t="s">
         <v>28</v>
       </c>
@@ -48993,7 +48978,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="61" t="s">
         <v>76</v>
       </c>
       <c r="B25">
@@ -49033,7 +49018,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="78"/>
+      <c r="A26" s="61"/>
       <c r="B26">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -49071,7 +49056,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="78"/>
+      <c r="A27" s="61"/>
       <c r="B27">
         <v>1.2E-2</v>
       </c>
@@ -49109,7 +49094,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="78"/>
+      <c r="A28" s="61"/>
       <c r="B28">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -49147,7 +49132,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="78"/>
+      <c r="A29" s="61"/>
       <c r="B29">
         <v>1.4E-2</v>
       </c>
@@ -49185,7 +49170,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="78"/>
+      <c r="A30" s="61"/>
       <c r="B30">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -49223,7 +49208,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="78"/>
+      <c r="A31" s="61"/>
       <c r="B31">
         <v>1.6E-2</v>
       </c>
@@ -49261,7 +49246,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="78"/>
+      <c r="A32" s="61"/>
       <c r="B32">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -49299,7 +49284,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="78"/>
+      <c r="A33" s="61"/>
       <c r="B33">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -49337,7 +49322,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="78"/>
+      <c r="A34" s="61"/>
       <c r="B34">
         <v>1.9E-2</v>
       </c>
@@ -49375,7 +49360,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="78"/>
+      <c r="A35" s="61"/>
       <c r="B35">
         <v>0.02</v>
       </c>
@@ -49413,7 +49398,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="78"/>
+      <c r="A36" s="61"/>
       <c r="B36">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -49451,7 +49436,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="78"/>
+      <c r="A37" s="61"/>
       <c r="B37">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -49489,7 +49474,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="78"/>
+      <c r="A38" s="61"/>
       <c r="B38">
         <v>2.3E-2</v>
       </c>
@@ -49527,7 +49512,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="78"/>
+      <c r="A39" s="61"/>
       <c r="B39">
         <v>2.4E-2</v>
       </c>
@@ -49565,7 +49550,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="78"/>
+      <c r="A40" s="61"/>
       <c r="B40">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -49603,7 +49588,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="78"/>
+      <c r="A41" s="61"/>
       <c r="B41">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -49641,7 +49626,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="78"/>
+      <c r="A42" s="61"/>
       <c r="B42">
         <v>2.7E-2</v>
       </c>
@@ -49679,7 +49664,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="78"/>
+      <c r="A43" s="61"/>
       <c r="B43">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -49717,7 +49702,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="78"/>
+      <c r="A44" s="61"/>
       <c r="B44">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -49755,7 +49740,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="78" t="s">
+      <c r="A45" s="61" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="60" t="s">
@@ -49778,7 +49763,7 @@
       <c r="K45" s="60"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="78"/>
+      <c r="A46" s="61"/>
       <c r="B46" t="s">
         <v>28</v>
       </c>
@@ -49811,7 +49796,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="78" t="s">
+      <c r="A47" s="61" t="s">
         <v>77</v>
       </c>
       <c r="B47">
@@ -49851,7 +49836,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="78"/>
+      <c r="A48" s="61"/>
       <c r="B48">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -49889,7 +49874,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="78"/>
+      <c r="A49" s="61"/>
       <c r="B49">
         <v>1.2E-2</v>
       </c>
@@ -49927,7 +49912,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="78"/>
+      <c r="A50" s="61"/>
       <c r="B50">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -49965,7 +49950,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="78"/>
+      <c r="A51" s="61"/>
       <c r="B51">
         <v>1.4E-2</v>
       </c>
@@ -50003,7 +49988,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="78"/>
+      <c r="A52" s="61"/>
       <c r="B52">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -50041,7 +50026,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="78"/>
+      <c r="A53" s="61"/>
       <c r="B53">
         <v>1.6E-2</v>
       </c>
@@ -50079,7 +50064,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="78"/>
+      <c r="A54" s="61"/>
       <c r="B54">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -50117,7 +50102,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="78"/>
+      <c r="A55" s="61"/>
       <c r="B55">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -50155,7 +50140,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="78"/>
+      <c r="A56" s="61"/>
       <c r="B56">
         <v>1.9E-2</v>
       </c>
@@ -50193,7 +50178,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="78"/>
+      <c r="A57" s="61"/>
       <c r="B57">
         <v>0.02</v>
       </c>
@@ -50231,7 +50216,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="78"/>
+      <c r="A58" s="61"/>
       <c r="B58">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -50269,7 +50254,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="78"/>
+      <c r="A59" s="61"/>
       <c r="B59">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -50307,7 +50292,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="78"/>
+      <c r="A60" s="61"/>
       <c r="B60">
         <v>2.3E-2</v>
       </c>
@@ -50345,7 +50330,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="78"/>
+      <c r="A61" s="61"/>
       <c r="B61">
         <v>2.4E-2</v>
       </c>
@@ -50383,7 +50368,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="78"/>
+      <c r="A62" s="61"/>
       <c r="B62">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -50421,7 +50406,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="78"/>
+      <c r="A63" s="61"/>
       <c r="B63">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -50459,7 +50444,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="78"/>
+      <c r="A64" s="61"/>
       <c r="B64">
         <v>2.7E-2</v>
       </c>
@@ -50497,7 +50482,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="78"/>
+      <c r="A65" s="61"/>
       <c r="B65">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -50535,7 +50520,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="78"/>
+      <c r="A66" s="61"/>
       <c r="B66">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -50573,7 +50558,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="78" t="s">
+      <c r="A67" s="61" t="s">
         <v>30</v>
       </c>
       <c r="B67" s="60" t="s">
@@ -50596,7 +50581,7 @@
       <c r="K67" s="60"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="78"/>
+      <c r="A68" s="61"/>
       <c r="B68" t="s">
         <v>28</v>
       </c>
@@ -50629,7 +50614,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="78" t="s">
+      <c r="A69" s="61" t="s">
         <v>78</v>
       </c>
       <c r="B69">
@@ -50669,7 +50654,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="78"/>
+      <c r="A70" s="61"/>
       <c r="B70">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -50707,7 +50692,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="78"/>
+      <c r="A71" s="61"/>
       <c r="B71">
         <v>1.2E-2</v>
       </c>
@@ -50745,7 +50730,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="78"/>
+      <c r="A72" s="61"/>
       <c r="B72">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -50783,7 +50768,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="78"/>
+      <c r="A73" s="61"/>
       <c r="B73">
         <v>1.4E-2</v>
       </c>
@@ -50821,7 +50806,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="78"/>
+      <c r="A74" s="61"/>
       <c r="B74">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -50859,7 +50844,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="78"/>
+      <c r="A75" s="61"/>
       <c r="B75">
         <v>1.6E-2</v>
       </c>
@@ -50897,7 +50882,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="78"/>
+      <c r="A76" s="61"/>
       <c r="B76">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -50935,7 +50920,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="78"/>
+      <c r="A77" s="61"/>
       <c r="B77">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -50973,7 +50958,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="78"/>
+      <c r="A78" s="61"/>
       <c r="B78">
         <v>1.9E-2</v>
       </c>
@@ -51011,7 +50996,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="78"/>
+      <c r="A79" s="61"/>
       <c r="B79">
         <v>0.02</v>
       </c>
@@ -51049,7 +51034,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="78"/>
+      <c r="A80" s="61"/>
       <c r="B80">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -51087,7 +51072,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="78"/>
+      <c r="A81" s="61"/>
       <c r="B81">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -51125,7 +51110,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="78"/>
+      <c r="A82" s="61"/>
       <c r="B82">
         <v>2.3E-2</v>
       </c>
@@ -51163,7 +51148,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="78"/>
+      <c r="A83" s="61"/>
       <c r="B83">
         <v>2.4E-2</v>
       </c>
@@ -51201,7 +51186,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="78"/>
+      <c r="A84" s="61"/>
       <c r="B84">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -51239,7 +51224,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="78"/>
+      <c r="A85" s="61"/>
       <c r="B85">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -51277,7 +51262,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="78"/>
+      <c r="A86" s="61"/>
       <c r="B86">
         <v>2.7E-2</v>
       </c>
@@ -51315,7 +51300,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="78"/>
+      <c r="A87" s="61"/>
       <c r="B87">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -51353,7 +51338,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="78"/>
+      <c r="A88" s="61"/>
       <c r="B88">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -51391,7 +51376,7 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="78" t="s">
+      <c r="A89" s="61" t="s">
         <v>30</v>
       </c>
       <c r="B89" s="60" t="s">
@@ -51414,7 +51399,7 @@
       <c r="K89" s="60"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="78"/>
+      <c r="A90" s="61"/>
       <c r="B90" t="s">
         <v>28</v>
       </c>
@@ -51447,7 +51432,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="78" t="s">
+      <c r="A91" s="61" t="s">
         <v>79</v>
       </c>
       <c r="B91">
@@ -51487,7 +51472,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="78"/>
+      <c r="A92" s="61"/>
       <c r="B92">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -51525,7 +51510,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="78"/>
+      <c r="A93" s="61"/>
       <c r="B93">
         <v>1.2E-2</v>
       </c>
@@ -51563,7 +51548,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="78"/>
+      <c r="A94" s="61"/>
       <c r="B94">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -51601,7 +51586,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="78"/>
+      <c r="A95" s="61"/>
       <c r="B95">
         <v>1.4E-2</v>
       </c>
@@ -51639,7 +51624,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="78"/>
+      <c r="A96" s="61"/>
       <c r="B96">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -51677,7 +51662,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="78"/>
+      <c r="A97" s="61"/>
       <c r="B97">
         <v>1.6E-2</v>
       </c>
@@ -51715,7 +51700,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="78"/>
+      <c r="A98" s="61"/>
       <c r="B98">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -51753,7 +51738,7 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="78"/>
+      <c r="A99" s="61"/>
       <c r="B99">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -51791,7 +51776,7 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="78"/>
+      <c r="A100" s="61"/>
       <c r="B100">
         <v>1.9E-2</v>
       </c>
@@ -51829,7 +51814,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="78"/>
+      <c r="A101" s="61"/>
       <c r="B101">
         <v>0.02</v>
       </c>
@@ -51867,7 +51852,7 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="78"/>
+      <c r="A102" s="61"/>
       <c r="B102">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -51905,7 +51890,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="78"/>
+      <c r="A103" s="61"/>
       <c r="B103">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -51943,7 +51928,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="78"/>
+      <c r="A104" s="61"/>
       <c r="B104">
         <v>2.3E-2</v>
       </c>
@@ -51981,7 +51966,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="78"/>
+      <c r="A105" s="61"/>
       <c r="B105">
         <v>2.4E-2</v>
       </c>
@@ -52019,7 +52004,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="78"/>
+      <c r="A106" s="61"/>
       <c r="B106">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -52057,7 +52042,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="78"/>
+      <c r="A107" s="61"/>
       <c r="B107">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -52095,7 +52080,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="78"/>
+      <c r="A108" s="61"/>
       <c r="B108">
         <v>2.7E-2</v>
       </c>
@@ -52133,7 +52118,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="78"/>
+      <c r="A109" s="61"/>
       <c r="B109">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -52171,7 +52156,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="78"/>
+      <c r="A110" s="61"/>
       <c r="B110">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -52210,6 +52195,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A3:A22"/>
+    <mergeCell ref="A25:A44"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
     <mergeCell ref="A47:A66"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="J89:K89"/>
@@ -52226,20 +52225,6 @@
     <mergeCell ref="A69:A88"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A3:A22"/>
-    <mergeCell ref="A25:A44"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -52250,7 +52235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12D6C6C-1C7D-4660-B1DE-C4124E614331}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -52376,8 +52361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0791AE47-1ACE-4771-B86E-F6CA00F4253A}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52397,7 +52382,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="61" t="s">
         <v>94</v>
       </c>
       <c r="B2">
@@ -52408,7 +52393,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="78"/>
+      <c r="A3" s="61"/>
       <c r="B3">
         <v>16</v>
       </c>
@@ -52417,7 +52402,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="78"/>
+      <c r="A4" s="61"/>
       <c r="B4">
         <v>17</v>
       </c>
@@ -52426,7 +52411,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
+      <c r="A5" s="61"/>
       <c r="B5">
         <v>18</v>
       </c>
@@ -52435,7 +52420,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="78"/>
+      <c r="A6" s="61"/>
       <c r="B6">
         <v>19</v>
       </c>
@@ -52444,7 +52429,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="78"/>
+      <c r="A7" s="61"/>
       <c r="B7">
         <v>20</v>
       </c>
@@ -52453,7 +52438,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="78"/>
+      <c r="A8" s="61"/>
       <c r="B8">
         <v>21</v>
       </c>
@@ -52462,7 +52447,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="78"/>
+      <c r="A9" s="61"/>
       <c r="B9">
         <v>22</v>
       </c>
@@ -52471,7 +52456,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="78"/>
+      <c r="A10" s="61"/>
       <c r="B10">
         <v>23</v>
       </c>
@@ -52480,7 +52465,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="78"/>
+      <c r="A11" s="61"/>
       <c r="B11">
         <v>24</v>
       </c>
@@ -52489,7 +52474,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="78"/>
+      <c r="A12" s="61"/>
       <c r="B12">
         <v>25</v>
       </c>
@@ -52498,7 +52483,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="61" t="s">
         <v>0</v>
       </c>
       <c r="B13">
@@ -52509,7 +52494,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="78"/>
+      <c r="A14" s="61"/>
       <c r="B14">
         <v>16</v>
       </c>
@@ -52518,7 +52503,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="78"/>
+      <c r="A15" s="61"/>
       <c r="B15">
         <v>17</v>
       </c>
@@ -52527,7 +52512,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="78"/>
+      <c r="A16" s="61"/>
       <c r="B16">
         <v>18</v>
       </c>
@@ -52536,7 +52521,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="78"/>
+      <c r="A17" s="61"/>
       <c r="B17">
         <v>19</v>
       </c>
@@ -52545,7 +52530,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
+      <c r="A18" s="61"/>
       <c r="B18">
         <v>20</v>
       </c>
@@ -52554,7 +52539,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="78"/>
+      <c r="A19" s="61"/>
       <c r="B19">
         <v>21</v>
       </c>
@@ -52563,7 +52548,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="78"/>
+      <c r="A20" s="61"/>
       <c r="B20">
         <v>22</v>
       </c>
@@ -52572,7 +52557,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="78"/>
+      <c r="A21" s="61"/>
       <c r="B21">
         <v>23</v>
       </c>
@@ -52581,7 +52566,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="78"/>
+      <c r="A22" s="61"/>
       <c r="B22">
         <v>24</v>
       </c>
@@ -52590,7 +52575,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="78"/>
+      <c r="A23" s="61"/>
       <c r="B23">
         <v>25</v>
       </c>
@@ -52599,7 +52584,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="61" t="s">
         <v>6</v>
       </c>
       <c r="B24">
@@ -52610,7 +52595,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="78"/>
+      <c r="A25" s="61"/>
       <c r="B25">
         <v>16</v>
       </c>
@@ -52619,7 +52604,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="78"/>
+      <c r="A26" s="61"/>
       <c r="B26">
         <v>17</v>
       </c>
@@ -52628,7 +52613,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="78"/>
+      <c r="A27" s="61"/>
       <c r="B27">
         <v>18</v>
       </c>
@@ -52637,7 +52622,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="78"/>
+      <c r="A28" s="61"/>
       <c r="B28">
         <v>19</v>
       </c>
@@ -52646,7 +52631,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="78"/>
+      <c r="A29" s="61"/>
       <c r="B29">
         <v>20</v>
       </c>
@@ -52655,7 +52640,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="78"/>
+      <c r="A30" s="61"/>
       <c r="B30">
         <v>21</v>
       </c>
@@ -52664,7 +52649,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="78"/>
+      <c r="A31" s="61"/>
       <c r="B31">
         <v>22</v>
       </c>
@@ -52673,7 +52658,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="78"/>
+      <c r="A32" s="61"/>
       <c r="B32">
         <v>23</v>
       </c>
@@ -52682,7 +52667,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="78"/>
+      <c r="A33" s="61"/>
       <c r="B33">
         <v>24</v>
       </c>
@@ -52691,7 +52676,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="78"/>
+      <c r="A34" s="61"/>
       <c r="B34">
         <v>25</v>
       </c>
@@ -52700,7 +52685,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="61" t="s">
         <v>96</v>
       </c>
       <c r="B35">
@@ -52711,7 +52696,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="78"/>
+      <c r="A36" s="61"/>
       <c r="B36">
         <v>16</v>
       </c>
@@ -52720,7 +52705,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="78"/>
+      <c r="A37" s="61"/>
       <c r="B37">
         <v>17</v>
       </c>
@@ -52729,7 +52714,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="78"/>
+      <c r="A38" s="61"/>
       <c r="B38">
         <v>18</v>
       </c>
@@ -52738,7 +52723,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="78"/>
+      <c r="A39" s="61"/>
       <c r="B39">
         <v>19</v>
       </c>
@@ -52747,7 +52732,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="78"/>
+      <c r="A40" s="61"/>
       <c r="B40">
         <v>20</v>
       </c>
@@ -52756,7 +52741,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="78"/>
+      <c r="A41" s="61"/>
       <c r="B41">
         <v>21</v>
       </c>
@@ -52765,7 +52750,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="78"/>
+      <c r="A42" s="61"/>
       <c r="B42">
         <v>22</v>
       </c>
@@ -52774,7 +52759,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="78"/>
+      <c r="A43" s="61"/>
       <c r="B43">
         <v>23</v>
       </c>
@@ -52783,7 +52768,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="78"/>
+      <c r="A44" s="61"/>
       <c r="B44">
         <v>24</v>
       </c>
@@ -52792,7 +52777,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="78"/>
+      <c r="A45" s="61"/>
       <c r="B45">
         <v>25</v>
       </c>
@@ -52801,7 +52786,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="78" t="s">
+      <c r="A46" s="61" t="s">
         <v>1</v>
       </c>
       <c r="B46">
@@ -52812,7 +52797,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="78"/>
+      <c r="A47" s="61"/>
       <c r="B47">
         <v>16</v>
       </c>
@@ -52821,7 +52806,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="78"/>
+      <c r="A48" s="61"/>
       <c r="B48">
         <v>17</v>
       </c>
@@ -52830,7 +52815,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="78"/>
+      <c r="A49" s="61"/>
       <c r="B49">
         <v>18</v>
       </c>
@@ -52839,7 +52824,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="78"/>
+      <c r="A50" s="61"/>
       <c r="B50">
         <v>19</v>
       </c>
@@ -52848,7 +52833,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="78"/>
+      <c r="A51" s="61"/>
       <c r="B51">
         <v>20</v>
       </c>
@@ -52857,7 +52842,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="78"/>
+      <c r="A52" s="61"/>
       <c r="B52">
         <v>21</v>
       </c>
@@ -52866,7 +52851,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="78"/>
+      <c r="A53" s="61"/>
       <c r="B53">
         <v>22</v>
       </c>
@@ -52875,7 +52860,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="78"/>
+      <c r="A54" s="61"/>
       <c r="B54">
         <v>23</v>
       </c>
@@ -52884,7 +52869,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="78"/>
+      <c r="A55" s="61"/>
       <c r="B55">
         <v>24</v>
       </c>
@@ -52893,7 +52878,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="78"/>
+      <c r="A56" s="61"/>
       <c r="B56">
         <v>25</v>
       </c>
@@ -52902,7 +52887,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="78" t="s">
+      <c r="A57" s="61" t="s">
         <v>2</v>
       </c>
       <c r="B57">
@@ -52913,7 +52898,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="78"/>
+      <c r="A58" s="61"/>
       <c r="B58">
         <v>16</v>
       </c>
@@ -52922,7 +52907,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="78"/>
+      <c r="A59" s="61"/>
       <c r="B59">
         <v>17</v>
       </c>
@@ -52931,7 +52916,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="78"/>
+      <c r="A60" s="61"/>
       <c r="B60">
         <v>18</v>
       </c>
@@ -52940,7 +52925,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="78"/>
+      <c r="A61" s="61"/>
       <c r="B61">
         <v>19</v>
       </c>
@@ -52949,7 +52934,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="78"/>
+      <c r="A62" s="61"/>
       <c r="B62">
         <v>20</v>
       </c>
@@ -52958,7 +52943,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="78"/>
+      <c r="A63" s="61"/>
       <c r="B63">
         <v>21</v>
       </c>
@@ -52967,7 +52952,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="78"/>
+      <c r="A64" s="61"/>
       <c r="B64">
         <v>22</v>
       </c>
@@ -52976,7 +52961,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="78"/>
+      <c r="A65" s="61"/>
       <c r="B65">
         <v>23</v>
       </c>
@@ -52985,7 +52970,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="78"/>
+      <c r="A66" s="61"/>
       <c r="B66">
         <v>24</v>
       </c>
@@ -52994,7 +52979,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="78"/>
+      <c r="A67" s="61"/>
       <c r="B67">
         <v>25</v>
       </c>
@@ -53003,306 +52988,213 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="78" t="s">
-        <v>97</v>
+      <c r="A68" s="61" t="s">
+        <v>118</v>
       </c>
       <c r="B68">
         <v>15</v>
       </c>
-      <c r="C68">
-        <v>18.54</v>
-      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="78"/>
+      <c r="A69" s="61"/>
       <c r="B69">
         <v>16</v>
       </c>
-      <c r="C69">
-        <v>17.98</v>
-      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="78"/>
+      <c r="A70" s="61"/>
       <c r="B70">
         <v>17</v>
       </c>
-      <c r="C70">
-        <v>17.649999999999999</v>
-      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="78"/>
+      <c r="A71" s="61"/>
       <c r="B71">
         <v>18</v>
       </c>
-      <c r="C71">
-        <v>17.13</v>
-      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="78"/>
+      <c r="A72" s="61"/>
       <c r="B72">
         <v>19</v>
       </c>
-      <c r="C72">
-        <v>16.45</v>
-      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="78"/>
+      <c r="A73" s="61"/>
       <c r="B73">
         <v>20</v>
       </c>
-      <c r="C73">
-        <v>15.36</v>
-      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="78"/>
+      <c r="A74" s="61"/>
       <c r="B74">
         <v>21</v>
       </c>
-      <c r="C74">
-        <v>14.69</v>
-      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="78"/>
+      <c r="A75" s="61"/>
       <c r="B75">
         <v>22</v>
       </c>
-      <c r="C75">
-        <v>14.95</v>
-      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="78"/>
+      <c r="A76" s="61"/>
       <c r="B76">
         <v>23</v>
       </c>
-      <c r="C76">
-        <v>15.65</v>
-      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="78"/>
+      <c r="A77" s="61"/>
       <c r="B77">
         <v>24</v>
       </c>
-      <c r="C77">
-        <v>16.23</v>
-      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="78"/>
+      <c r="A78" s="61"/>
       <c r="B78">
         <v>25</v>
       </c>
       <c r="C78">
-        <v>16.86</v>
+        <v>23.35</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="78" t="s">
-        <v>3</v>
+      <c r="A79" s="61" t="s">
+        <v>119</v>
       </c>
       <c r="B79">
         <v>15</v>
       </c>
-      <c r="C79">
-        <v>19.86</v>
-      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="78"/>
+      <c r="A80" s="61"/>
       <c r="B80">
         <v>16</v>
       </c>
-      <c r="C80">
-        <v>19.23</v>
-      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="78"/>
+      <c r="A81" s="61"/>
       <c r="B81">
         <v>17</v>
       </c>
-      <c r="C81">
-        <v>18.52</v>
-      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="78"/>
+      <c r="A82" s="61"/>
       <c r="B82">
         <v>18</v>
       </c>
-      <c r="C82">
-        <v>17.760000000000002</v>
-      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="78"/>
+      <c r="A83" s="61"/>
       <c r="B83">
         <v>19</v>
       </c>
-      <c r="C83">
-        <v>16.64</v>
-      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="78"/>
+      <c r="A84" s="61"/>
       <c r="B84">
         <v>20</v>
       </c>
-      <c r="C84">
-        <v>15.26</v>
-      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="78"/>
+      <c r="A85" s="61"/>
       <c r="B85">
         <v>21</v>
       </c>
-      <c r="C85">
-        <v>15.56</v>
-      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="78"/>
+      <c r="A86" s="61"/>
       <c r="B86">
         <v>22</v>
       </c>
-      <c r="C86">
-        <v>16.02</v>
-      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="78"/>
+      <c r="A87" s="61"/>
       <c r="B87">
         <v>23</v>
       </c>
-      <c r="C87">
-        <v>16.86</v>
-      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="78"/>
+      <c r="A88" s="61"/>
       <c r="B88">
         <v>24</v>
       </c>
-      <c r="C88">
-        <v>17.16</v>
-      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="78"/>
+      <c r="A89" s="61"/>
       <c r="B89">
         <v>25</v>
       </c>
       <c r="C89">
-        <v>17.690000000000001</v>
+        <v>23.22</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="78" t="s">
+      <c r="A90" s="61" t="s">
         <v>4</v>
       </c>
       <c r="B90">
         <v>15</v>
       </c>
-      <c r="C90">
-        <v>24.81</v>
-      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="78"/>
+      <c r="A91" s="61"/>
       <c r="B91">
         <v>16</v>
       </c>
-      <c r="C91">
-        <v>24.36</v>
-      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="78"/>
+      <c r="A92" s="61"/>
       <c r="B92">
         <v>17</v>
       </c>
-      <c r="C92">
-        <v>23.67</v>
-      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="78"/>
+      <c r="A93" s="61"/>
       <c r="B93">
         <v>18</v>
       </c>
-      <c r="C93">
-        <v>23.16</v>
-      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="78"/>
+      <c r="A94" s="61"/>
       <c r="B94">
         <v>19</v>
       </c>
-      <c r="C94">
-        <v>22.69</v>
-      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="78"/>
+      <c r="A95" s="61"/>
       <c r="B95">
         <v>20</v>
       </c>
-      <c r="C95">
-        <v>22.06</v>
-      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="78"/>
+      <c r="A96" s="61"/>
       <c r="B96">
         <v>21</v>
       </c>
-      <c r="C96">
-        <v>23.49</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="78"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="61"/>
       <c r="B97">
         <v>22</v>
       </c>
-      <c r="C97">
-        <v>23.91</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="78"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="61"/>
       <c r="B98">
         <v>23</v>
       </c>
-      <c r="C98">
-        <v>24.24</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="78"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="61"/>
       <c r="B99">
         <v>24</v>
       </c>
-      <c r="C99">
-        <v>24.98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="78"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="61"/>
       <c r="B100">
         <v>25</v>
-      </c>
-      <c r="C100">
-        <v>25.26</v>
       </c>
     </row>
   </sheetData>

--- a/one_excel.xlsx
+++ b/one_excel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10F3A39-FCBF-4650-9760-22FC9D09C5FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EC509D-DB0E-4F4F-A28D-D48901D7B7B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="4" r:id="rId1"/>
@@ -6910,6 +6910,44 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pixel</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Value out-projection with chessboard</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17022812501134454"/>
+          <c:y val="2.5348542458808618E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6922,7 +6960,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr algn="ctr">
             <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -12332,7 +12370,25 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> offset</a:t>
+                  <a:t> offset  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" baseline="0">
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>β</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>(mm)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -29920,15 +29976,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>162261</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30511,15 +30567,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>975360</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>1089660</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33805,7 +33861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB06FDE9-06F5-4FF6-9152-D56CC8449C2C}">
   <dimension ref="A1:AA94"/>
   <sheetViews>
-    <sheetView topLeftCell="L31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="L11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="X48" sqref="X48:AA56"/>
     </sheetView>
   </sheetViews>
@@ -37037,7 +37093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BB8612-D910-4E1C-B060-8B590798E8C6}">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -38137,8 +38193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEBEDD0-E4C3-489D-AB96-BA456FE7E7FC}">
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V84" sqref="V84"/>
+    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52236,7 +52292,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="N28" sqref="N27:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/one_excel.xlsx
+++ b/one_excel.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EC509D-DB0E-4F4F-A28D-D48901D7B7B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2673472A-C6E1-4785-BAEB-9BA25798B2EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="4" r:id="rId1"/>
     <sheet name="uberseminar" sheetId="1" r:id="rId2"/>
     <sheet name="summary" sheetId="2" r:id="rId3"/>
     <sheet name="hand_trajectory_summary" sheetId="10" r:id="rId4"/>
-    <sheet name="CA_124" sheetId="3" r:id="rId5"/>
-    <sheet name="CS_301" sheetId="6" r:id="rId6"/>
-    <sheet name="CS_301_RED" sheetId="7" r:id="rId7"/>
-    <sheet name="depth_calibration" sheetId="8" r:id="rId8"/>
-    <sheet name="hand_trajectory" sheetId="9" r:id="rId9"/>
-    <sheet name="playground" sheetId="5" r:id="rId10"/>
-    <sheet name="hand_trajectory_backup" sheetId="11" r:id="rId11"/>
-    <sheet name="hand_trajectory_summary_backup" sheetId="12" r:id="rId12"/>
+    <sheet name="kinect_hand_eye" sheetId="13" r:id="rId5"/>
+    <sheet name="CA_124" sheetId="3" r:id="rId6"/>
+    <sheet name="CS_301" sheetId="6" r:id="rId7"/>
+    <sheet name="CS_301_RED" sheetId="7" r:id="rId8"/>
+    <sheet name="depth_calibration" sheetId="8" r:id="rId9"/>
+    <sheet name="hand_trajectory" sheetId="9" r:id="rId10"/>
+    <sheet name="playground" sheetId="5" r:id="rId11"/>
+    <sheet name="hand_trajectory_backup" sheetId="11" r:id="rId12"/>
+    <sheet name="hand_trajectory_summary_backup" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="132">
   <si>
     <t>CA_124_7</t>
   </si>
@@ -800,6 +801,102 @@
   <si>
     <t>CS_301_RED_14</t>
   </si>
+  <si>
+    <t>ICP skip 1 pose</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-36.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 81</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (mm)</t>
+    </r>
+  </si>
+  <si>
+    <t>-24 ± 111.2 (mm)</t>
+  </si>
+  <si>
+    <t>12.5 ± 95.7 (mm)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18.9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ±11.6 °</t>
+    </r>
+  </si>
+  <si>
+    <t>1.5 ° ± 0.8 °</t>
+  </si>
+  <si>
+    <t>10.1 ± 7.3 (mm)</t>
+  </si>
+  <si>
+    <t>22.7 ± 15.3 (mm)</t>
+  </si>
+  <si>
+    <t>16.3 ± 0.2 (mm)</t>
+  </si>
+  <si>
+    <t>Transalation</t>
+  </si>
+  <si>
+    <t>Rotation</t>
+  </si>
 </sst>
 </file>
 
@@ -1153,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1244,6 +1341,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -30981,7 +31080,7 @@
       <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="56" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -30989,25 +31088,25 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="56"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="56" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -31015,31 +31114,31 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="55"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="56"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="35" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="57" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -31047,19 +31146,19 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="56"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="13" t="s">
         <v>62</v>
       </c>
@@ -31081,6 +31180,863 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0791AE47-1ACE-4771-B86E-F6CA00F4253A}">
+  <dimension ref="A1:C100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L93" sqref="L93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>16.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="63"/>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="63"/>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="63"/>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>15.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="63"/>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="63"/>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>14.58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="63"/>
+      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>14.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="63"/>
+      <c r="B9">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="63"/>
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="63"/>
+      <c r="B11">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>15.74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="63"/>
+      <c r="B12">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>16.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="63"/>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>17.96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="63"/>
+      <c r="B15">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>17.11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="63"/>
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="63"/>
+      <c r="B17">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="63"/>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>15.42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="63"/>
+      <c r="B19">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>14.91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="63"/>
+      <c r="B20">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="63"/>
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>15.93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="63"/>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>16.48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="63"/>
+      <c r="B23">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>23.16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="63"/>
+      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>22.85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="63"/>
+      <c r="B26">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>22.66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="63"/>
+      <c r="B27">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="63"/>
+      <c r="B28">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>22.08</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="63"/>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>21.39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="63"/>
+      <c r="B30">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>21.53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="63"/>
+      <c r="B31">
+        <v>22</v>
+      </c>
+      <c r="C31">
+        <v>21.83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="63"/>
+      <c r="B32">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>21.91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="63"/>
+      <c r="B33">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>22.32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="63"/>
+      <c r="B34">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>19.45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="63"/>
+      <c r="B36">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="63"/>
+      <c r="B37">
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <v>18.52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="63"/>
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>17.260000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="63"/>
+      <c r="B39">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>16.59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="63"/>
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>15.23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="63"/>
+      <c r="B41">
+        <v>21</v>
+      </c>
+      <c r="C41">
+        <v>14.52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="63"/>
+      <c r="B42">
+        <v>22</v>
+      </c>
+      <c r="C42">
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="63"/>
+      <c r="B43">
+        <v>23</v>
+      </c>
+      <c r="C43">
+        <v>15.56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="63"/>
+      <c r="B44">
+        <v>24</v>
+      </c>
+      <c r="C44">
+        <v>15.97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="63"/>
+      <c r="B45">
+        <v>25</v>
+      </c>
+      <c r="C45">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <v>20.49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="63"/>
+      <c r="B47">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>19.57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="63"/>
+      <c r="B48">
+        <v>17</v>
+      </c>
+      <c r="C48">
+        <v>18.52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="63"/>
+      <c r="B49">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <v>17.52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="63"/>
+      <c r="B50">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>16.59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="63"/>
+      <c r="B51">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="63"/>
+      <c r="B52">
+        <v>21</v>
+      </c>
+      <c r="C52">
+        <v>14.52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="63"/>
+      <c r="B53">
+        <v>22</v>
+      </c>
+      <c r="C53">
+        <v>14.24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="63"/>
+      <c r="B54">
+        <v>23</v>
+      </c>
+      <c r="C54">
+        <v>14.22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="63"/>
+      <c r="B55">
+        <v>24</v>
+      </c>
+      <c r="C55">
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="63"/>
+      <c r="B56">
+        <v>25</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>15</v>
+      </c>
+      <c r="C57">
+        <v>25.36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="63"/>
+      <c r="B58">
+        <v>16</v>
+      </c>
+      <c r="C58">
+        <v>25.19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="63"/>
+      <c r="B59">
+        <v>17</v>
+      </c>
+      <c r="C59">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="63"/>
+      <c r="B60">
+        <v>18</v>
+      </c>
+      <c r="C60">
+        <v>23.97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="63"/>
+      <c r="B61">
+        <v>19</v>
+      </c>
+      <c r="C61">
+        <v>23.88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="63"/>
+      <c r="B62">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>23.73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="63"/>
+      <c r="B63">
+        <v>21</v>
+      </c>
+      <c r="C63">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="63"/>
+      <c r="B64">
+        <v>22</v>
+      </c>
+      <c r="C64">
+        <v>23.51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="63"/>
+      <c r="B65">
+        <v>23</v>
+      </c>
+      <c r="C65">
+        <v>23.62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="63"/>
+      <c r="B66">
+        <v>24</v>
+      </c>
+      <c r="C66">
+        <v>23.73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="63"/>
+      <c r="B67">
+        <v>25</v>
+      </c>
+      <c r="C67">
+        <v>23.87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="63"/>
+      <c r="B69">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="63"/>
+      <c r="B70">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="63"/>
+      <c r="B71">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="63"/>
+      <c r="B72">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="63"/>
+      <c r="B73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="63"/>
+      <c r="B74">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="63"/>
+      <c r="B75">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="63"/>
+      <c r="B76">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="63"/>
+      <c r="B77">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="63"/>
+      <c r="B78">
+        <v>25</v>
+      </c>
+      <c r="C78">
+        <v>23.35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="63"/>
+      <c r="B80">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="63"/>
+      <c r="B81">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="63"/>
+      <c r="B82">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="63"/>
+      <c r="B83">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="63"/>
+      <c r="B84">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="63"/>
+      <c r="B85">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="63"/>
+      <c r="B86">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="63"/>
+      <c r="B87">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="63"/>
+      <c r="B88">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="63"/>
+      <c r="B89">
+        <v>25</v>
+      </c>
+      <c r="C89">
+        <v>23.22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="63"/>
+      <c r="B91">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="63"/>
+      <c r="B92">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="63"/>
+      <c r="B93">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="63"/>
+      <c r="B94">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="63"/>
+      <c r="B95">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="63"/>
+      <c r="B96">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="63"/>
+      <c r="B97">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="63"/>
+      <c r="B98">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="63"/>
+      <c r="B99">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="63"/>
+      <c r="B100">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A68:A78"/>
+    <mergeCell ref="A79:A89"/>
+    <mergeCell ref="A90:A100"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="A24:A34"/>
+    <mergeCell ref="A46:A56"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="A35:A45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BBBA1B-2343-4D92-8C5A-89B32CB201D0}">
   <dimension ref="E6:I14"/>
   <sheetViews>
@@ -31248,7 +32204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B242B58-26A0-49BE-9FEB-EAA0720E4D57}">
   <dimension ref="A1:C100"/>
   <sheetViews>
@@ -31273,7 +32229,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>94</v>
       </c>
       <c r="B2">
@@ -31284,7 +32240,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
+      <c r="A3" s="63"/>
       <c r="B3">
         <v>16</v>
       </c>
@@ -31293,7 +32249,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
+      <c r="A4" s="63"/>
       <c r="B4">
         <v>17</v>
       </c>
@@ -31302,7 +32258,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
+      <c r="A5" s="63"/>
       <c r="B5">
         <v>18</v>
       </c>
@@ -31311,7 +32267,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
+      <c r="A6" s="63"/>
       <c r="B6">
         <v>19</v>
       </c>
@@ -31320,7 +32276,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
+      <c r="A7" s="63"/>
       <c r="B7">
         <v>20</v>
       </c>
@@ -31329,7 +32285,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
+      <c r="A8" s="63"/>
       <c r="B8">
         <v>21</v>
       </c>
@@ -31338,7 +32294,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
+      <c r="A9" s="63"/>
       <c r="B9">
         <v>22</v>
       </c>
@@ -31347,7 +32303,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
+      <c r="A10" s="63"/>
       <c r="B10">
         <v>23</v>
       </c>
@@ -31356,7 +32312,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
+      <c r="A11" s="63"/>
       <c r="B11">
         <v>24</v>
       </c>
@@ -31365,7 +32321,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
+      <c r="A12" s="63"/>
       <c r="B12">
         <v>25</v>
       </c>
@@ -31374,7 +32330,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="63" t="s">
         <v>0</v>
       </c>
       <c r="B13">
@@ -31385,7 +32341,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
+      <c r="A14" s="63"/>
       <c r="B14">
         <v>16</v>
       </c>
@@ -31394,7 +32350,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
+      <c r="A15" s="63"/>
       <c r="B15">
         <v>17</v>
       </c>
@@ -31403,7 +32359,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
+      <c r="A16" s="63"/>
       <c r="B16">
         <v>18</v>
       </c>
@@ -31412,7 +32368,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
+      <c r="A17" s="63"/>
       <c r="B17">
         <v>19</v>
       </c>
@@ -31421,7 +32377,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
+      <c r="A18" s="63"/>
       <c r="B18">
         <v>20</v>
       </c>
@@ -31430,7 +32386,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
+      <c r="A19" s="63"/>
       <c r="B19">
         <v>21</v>
       </c>
@@ -31439,7 +32395,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
+      <c r="A20" s="63"/>
       <c r="B20">
         <v>22</v>
       </c>
@@ -31448,7 +32404,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
+      <c r="A21" s="63"/>
       <c r="B21">
         <v>23</v>
       </c>
@@ -31457,7 +32413,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
+      <c r="A22" s="63"/>
       <c r="B22">
         <v>24</v>
       </c>
@@ -31466,7 +32422,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="61"/>
+      <c r="A23" s="63"/>
       <c r="B23">
         <v>25</v>
       </c>
@@ -31475,7 +32431,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="63" t="s">
         <v>6</v>
       </c>
       <c r="B24">
@@ -31486,7 +32442,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
+      <c r="A25" s="63"/>
       <c r="B25">
         <v>16</v>
       </c>
@@ -31495,7 +32451,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
+      <c r="A26" s="63"/>
       <c r="B26">
         <v>17</v>
       </c>
@@ -31504,7 +32460,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="61"/>
+      <c r="A27" s="63"/>
       <c r="B27">
         <v>18</v>
       </c>
@@ -31513,7 +32469,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="61"/>
+      <c r="A28" s="63"/>
       <c r="B28">
         <v>19</v>
       </c>
@@ -31522,7 +32478,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
+      <c r="A29" s="63"/>
       <c r="B29">
         <v>20</v>
       </c>
@@ -31531,7 +32487,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="61"/>
+      <c r="A30" s="63"/>
       <c r="B30">
         <v>21</v>
       </c>
@@ -31540,7 +32496,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="61"/>
+      <c r="A31" s="63"/>
       <c r="B31">
         <v>22</v>
       </c>
@@ -31549,7 +32505,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
+      <c r="A32" s="63"/>
       <c r="B32">
         <v>23</v>
       </c>
@@ -31558,7 +32514,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="61"/>
+      <c r="A33" s="63"/>
       <c r="B33">
         <v>24</v>
       </c>
@@ -31567,7 +32523,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
+      <c r="A34" s="63"/>
       <c r="B34">
         <v>25</v>
       </c>
@@ -31576,7 +32532,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="63" t="s">
         <v>96</v>
       </c>
       <c r="B35">
@@ -31587,7 +32543,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="61"/>
+      <c r="A36" s="63"/>
       <c r="B36">
         <v>16</v>
       </c>
@@ -31596,7 +32552,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="61"/>
+      <c r="A37" s="63"/>
       <c r="B37">
         <v>17</v>
       </c>
@@ -31605,7 +32561,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="61"/>
+      <c r="A38" s="63"/>
       <c r="B38">
         <v>18</v>
       </c>
@@ -31614,7 +32570,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="61"/>
+      <c r="A39" s="63"/>
       <c r="B39">
         <v>19</v>
       </c>
@@ -31623,7 +32579,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="61"/>
+      <c r="A40" s="63"/>
       <c r="B40">
         <v>20</v>
       </c>
@@ -31632,7 +32588,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="61"/>
+      <c r="A41" s="63"/>
       <c r="B41">
         <v>21</v>
       </c>
@@ -31641,7 +32597,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
+      <c r="A42" s="63"/>
       <c r="B42">
         <v>22</v>
       </c>
@@ -31650,7 +32606,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="61"/>
+      <c r="A43" s="63"/>
       <c r="B43">
         <v>23</v>
       </c>
@@ -31659,7 +32615,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="61"/>
+      <c r="A44" s="63"/>
       <c r="B44">
         <v>24</v>
       </c>
@@ -31668,7 +32624,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="61"/>
+      <c r="A45" s="63"/>
       <c r="B45">
         <v>25</v>
       </c>
@@ -31677,7 +32633,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="61" t="s">
+      <c r="A46" s="63" t="s">
         <v>1</v>
       </c>
       <c r="B46">
@@ -31688,7 +32644,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="61"/>
+      <c r="A47" s="63"/>
       <c r="B47">
         <v>16</v>
       </c>
@@ -31697,7 +32653,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="61"/>
+      <c r="A48" s="63"/>
       <c r="B48">
         <v>17</v>
       </c>
@@ -31706,7 +32662,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="61"/>
+      <c r="A49" s="63"/>
       <c r="B49">
         <v>18</v>
       </c>
@@ -31715,7 +32671,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="61"/>
+      <c r="A50" s="63"/>
       <c r="B50">
         <v>19</v>
       </c>
@@ -31724,7 +32680,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="61"/>
+      <c r="A51" s="63"/>
       <c r="B51">
         <v>20</v>
       </c>
@@ -31733,7 +32689,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="61"/>
+      <c r="A52" s="63"/>
       <c r="B52">
         <v>21</v>
       </c>
@@ -31742,7 +32698,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="61"/>
+      <c r="A53" s="63"/>
       <c r="B53">
         <v>22</v>
       </c>
@@ -31751,7 +32707,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="61"/>
+      <c r="A54" s="63"/>
       <c r="B54">
         <v>23</v>
       </c>
@@ -31760,7 +32716,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="61"/>
+      <c r="A55" s="63"/>
       <c r="B55">
         <v>24</v>
       </c>
@@ -31769,7 +32725,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="61"/>
+      <c r="A56" s="63"/>
       <c r="B56">
         <v>25</v>
       </c>
@@ -31778,7 +32734,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="61" t="s">
+      <c r="A57" s="63" t="s">
         <v>2</v>
       </c>
       <c r="B57">
@@ -31789,7 +32745,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="61"/>
+      <c r="A58" s="63"/>
       <c r="B58">
         <v>16</v>
       </c>
@@ -31798,7 +32754,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="61"/>
+      <c r="A59" s="63"/>
       <c r="B59">
         <v>17</v>
       </c>
@@ -31807,7 +32763,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="61"/>
+      <c r="A60" s="63"/>
       <c r="B60">
         <v>18</v>
       </c>
@@ -31816,7 +32772,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="61"/>
+      <c r="A61" s="63"/>
       <c r="B61">
         <v>19</v>
       </c>
@@ -31825,7 +32781,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="61"/>
+      <c r="A62" s="63"/>
       <c r="B62">
         <v>20</v>
       </c>
@@ -31834,7 +32790,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="61"/>
+      <c r="A63" s="63"/>
       <c r="B63">
         <v>21</v>
       </c>
@@ -31843,7 +32799,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="61"/>
+      <c r="A64" s="63"/>
       <c r="B64">
         <v>22</v>
       </c>
@@ -31852,7 +32808,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="61"/>
+      <c r="A65" s="63"/>
       <c r="B65">
         <v>23</v>
       </c>
@@ -31861,7 +32817,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="61"/>
+      <c r="A66" s="63"/>
       <c r="B66">
         <v>24</v>
       </c>
@@ -31870,7 +32826,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="61"/>
+      <c r="A67" s="63"/>
       <c r="B67">
         <v>25</v>
       </c>
@@ -31879,7 +32835,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="61" t="s">
+      <c r="A68" s="63" t="s">
         <v>97</v>
       </c>
       <c r="B68">
@@ -31890,7 +32846,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="61"/>
+      <c r="A69" s="63"/>
       <c r="B69">
         <v>16</v>
       </c>
@@ -31899,7 +32855,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="61"/>
+      <c r="A70" s="63"/>
       <c r="B70">
         <v>17</v>
       </c>
@@ -31908,7 +32864,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="61"/>
+      <c r="A71" s="63"/>
       <c r="B71">
         <v>18</v>
       </c>
@@ -31917,7 +32873,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="61"/>
+      <c r="A72" s="63"/>
       <c r="B72">
         <v>19</v>
       </c>
@@ -31926,7 +32882,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="61"/>
+      <c r="A73" s="63"/>
       <c r="B73">
         <v>20</v>
       </c>
@@ -31935,7 +32891,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="61"/>
+      <c r="A74" s="63"/>
       <c r="B74">
         <v>21</v>
       </c>
@@ -31944,7 +32900,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="61"/>
+      <c r="A75" s="63"/>
       <c r="B75">
         <v>22</v>
       </c>
@@ -31953,7 +32909,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="61"/>
+      <c r="A76" s="63"/>
       <c r="B76">
         <v>23</v>
       </c>
@@ -31962,7 +32918,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="61"/>
+      <c r="A77" s="63"/>
       <c r="B77">
         <v>24</v>
       </c>
@@ -31971,7 +32927,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="61"/>
+      <c r="A78" s="63"/>
       <c r="B78">
         <v>25</v>
       </c>
@@ -31980,7 +32936,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="61" t="s">
+      <c r="A79" s="63" t="s">
         <v>3</v>
       </c>
       <c r="B79">
@@ -31991,7 +32947,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="61"/>
+      <c r="A80" s="63"/>
       <c r="B80">
         <v>16</v>
       </c>
@@ -32000,7 +32956,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="61"/>
+      <c r="A81" s="63"/>
       <c r="B81">
         <v>17</v>
       </c>
@@ -32009,7 +32965,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="61"/>
+      <c r="A82" s="63"/>
       <c r="B82">
         <v>18</v>
       </c>
@@ -32018,7 +32974,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="61"/>
+      <c r="A83" s="63"/>
       <c r="B83">
         <v>19</v>
       </c>
@@ -32027,7 +32983,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="61"/>
+      <c r="A84" s="63"/>
       <c r="B84">
         <v>20</v>
       </c>
@@ -32036,7 +32992,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="61"/>
+      <c r="A85" s="63"/>
       <c r="B85">
         <v>21</v>
       </c>
@@ -32045,7 +33001,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="61"/>
+      <c r="A86" s="63"/>
       <c r="B86">
         <v>22</v>
       </c>
@@ -32054,7 +33010,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="61"/>
+      <c r="A87" s="63"/>
       <c r="B87">
         <v>23</v>
       </c>
@@ -32063,7 +33019,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="61"/>
+      <c r="A88" s="63"/>
       <c r="B88">
         <v>24</v>
       </c>
@@ -32072,7 +33028,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="61"/>
+      <c r="A89" s="63"/>
       <c r="B89">
         <v>25</v>
       </c>
@@ -32081,7 +33037,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="61" t="s">
+      <c r="A90" s="63" t="s">
         <v>4</v>
       </c>
       <c r="B90">
@@ -32092,7 +33048,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="61"/>
+      <c r="A91" s="63"/>
       <c r="B91">
         <v>16</v>
       </c>
@@ -32101,7 +33057,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="61"/>
+      <c r="A92" s="63"/>
       <c r="B92">
         <v>17</v>
       </c>
@@ -32110,7 +33066,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="61"/>
+      <c r="A93" s="63"/>
       <c r="B93">
         <v>18</v>
       </c>
@@ -32119,7 +33075,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="61"/>
+      <c r="A94" s="63"/>
       <c r="B94">
         <v>19</v>
       </c>
@@ -32128,7 +33084,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="61"/>
+      <c r="A95" s="63"/>
       <c r="B95">
         <v>20</v>
       </c>
@@ -32137,7 +33093,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="61"/>
+      <c r="A96" s="63"/>
       <c r="B96">
         <v>21</v>
       </c>
@@ -32146,7 +33102,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="61"/>
+      <c r="A97" s="63"/>
       <c r="B97">
         <v>22</v>
       </c>
@@ -32155,7 +33111,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="61"/>
+      <c r="A98" s="63"/>
       <c r="B98">
         <v>23</v>
       </c>
@@ -32164,7 +33120,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="61"/>
+      <c r="A99" s="63"/>
       <c r="B99">
         <v>24</v>
       </c>
@@ -32173,7 +33129,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="61"/>
+      <c r="A100" s="63"/>
       <c r="B100">
         <v>25</v>
       </c>
@@ -32198,7 +33154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86988473-7E36-4C56-9597-97D4D50635FE}">
   <dimension ref="A1:V39"/>
   <sheetViews>
@@ -32223,70 +33179,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="74" t="s">
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="74" t="s">
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="85"/>
-      <c r="O1" s="74" t="s">
+      <c r="N1" s="87"/>
+      <c r="O1" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="85"/>
+      <c r="P1" s="87"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="78"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="75" t="s">
+      <c r="A2" s="80"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72" t="s">
+      <c r="F2" s="74"/>
+      <c r="G2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="75" t="s">
+      <c r="H2" s="88"/>
+      <c r="I2" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72" t="s">
+      <c r="J2" s="74"/>
+      <c r="K2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="86"/>
+      <c r="L2" s="88"/>
       <c r="M2" s="47"/>
       <c r="N2" s="50"/>
       <c r="O2" s="47"/>
       <c r="P2" s="50"/>
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="79"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="87"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="89"/>
       <c r="E3" s="48" t="s">
         <v>7</v>
       </c>
@@ -32363,12 +33319,12 @@
         <v>1.12E-2</v>
       </c>
       <c r="R4" s="9"/>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="82"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="84"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -32544,12 +33500,12 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R9" s="9"/>
-      <c r="S9" s="80" t="s">
+      <c r="S9" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="81"/>
-      <c r="U9" s="81"/>
-      <c r="V9" s="82"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="84"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -32764,12 +33720,12 @@
         <v>2.3744051886735753</v>
       </c>
       <c r="R14" s="9"/>
-      <c r="S14" s="80" t="s">
+      <c r="S14" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="T14" s="81"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="82"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="84"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R15" s="9"/>
@@ -33310,7 +34266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -33324,50 +34280,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60" t="s">
+      <c r="K1" s="62"/>
+      <c r="L1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="Q1" s="57" t="s">
+      <c r="M1" s="62"/>
+      <c r="Q1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="59"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="61"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60" t="s">
+      <c r="E2" s="62"/>
+      <c r="F2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60" t="s">
+      <c r="G2" s="62"/>
+      <c r="H2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="60"/>
+      <c r="I2" s="62"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -33555,12 +34511,12 @@
         <f>_xlfn.STDEV.P(L4:L5)*1000</f>
         <v>0.35000000000000003</v>
       </c>
-      <c r="Q6" s="57" t="s">
+      <c r="Q6" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="59"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="61"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="Q7" s="3"/>
@@ -33859,10 +34815,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB06FDE9-06F5-4FF6-9152-D56CC8449C2C}">
-  <dimension ref="A1:AA94"/>
+  <dimension ref="A1:AC94"/>
   <sheetViews>
-    <sheetView topLeftCell="L11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X48" sqref="X48:AA56"/>
+    <sheetView topLeftCell="L31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y59" sqref="Y59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33879,70 +34835,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="62" t="s">
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="62" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="62" t="s">
+      <c r="N1" s="70"/>
+      <c r="O1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="68"/>
+      <c r="P1" s="70"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="61"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="63" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83" t="s">
+      <c r="F2" s="85"/>
+      <c r="G2" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="63" t="s">
+      <c r="H2" s="71"/>
+      <c r="I2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83" t="s">
+      <c r="J2" s="85"/>
+      <c r="K2" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="69"/>
+      <c r="L2" s="71"/>
       <c r="M2" s="22"/>
       <c r="N2" s="23"/>
       <c r="O2" s="22"/>
       <c r="P2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="61"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="70"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="11" t="s">
         <v>7</v>
       </c>
@@ -33979,11 +34935,11 @@
       <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="79">
         <v>2E-3</v>
       </c>
       <c r="D4" s="36">
@@ -34025,9 +34981,9 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="78"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="80"/>
       <c r="D5" s="37">
         <v>2</v>
       </c>
@@ -34067,9 +35023,9 @@
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="78"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="37">
         <v>4</v>
       </c>
@@ -34109,9 +35065,9 @@
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="78"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="37">
         <v>6</v>
       </c>
@@ -34151,9 +35107,9 @@
       <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="78"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="37">
         <v>8</v>
       </c>
@@ -34193,9 +35149,9 @@
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="78"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="37">
         <v>10</v>
       </c>
@@ -34235,9 +35191,9 @@
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="61"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="79"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="81"/>
       <c r="D10" s="38">
         <v>15</v>
       </c>
@@ -34277,9 +35233,9 @@
       <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="77">
+      <c r="A11" s="63"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="79">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D11" s="36">
@@ -34325,9 +35281,9 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="78"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="37">
         <v>2</v>
       </c>
@@ -34371,9 +35327,9 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="78"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="37">
         <v>4</v>
       </c>
@@ -34417,9 +35373,9 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="78"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="37">
         <v>6</v>
       </c>
@@ -34463,9 +35419,9 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="78"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="37">
         <v>8</v>
       </c>
@@ -34509,9 +35465,9 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="78"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="37">
         <v>10</v>
       </c>
@@ -34555,9 +35511,9 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="61"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="79"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="38">
         <v>15</v>
       </c>
@@ -34601,11 +35557,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18" s="77" t="s">
+      <c r="A18" s="63"/>
+      <c r="B18" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="77">
+      <c r="C18" s="79">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D18" s="36">
@@ -34651,9 +35607,9 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
       <c r="D19" s="37">
         <v>2</v>
       </c>
@@ -34689,9 +35645,9 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
       <c r="D20" s="37">
         <v>4</v>
       </c>
@@ -34727,9 +35683,9 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
       <c r="D21" s="37">
         <v>6</v>
       </c>
@@ -34765,9 +35721,9 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
       <c r="D22" s="37">
         <v>8</v>
       </c>
@@ -34803,9 +35759,9 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="61"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="37">
         <v>10</v>
       </c>
@@ -34841,9 +35797,9 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="61"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="38">
         <v>15</v>
       </c>
@@ -34883,10 +35839,10 @@
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="74">
+      <c r="B26" s="76">
         <v>14</v>
       </c>
-      <c r="C26" s="77">
+      <c r="C26" s="79">
         <v>2E-3</v>
       </c>
       <c r="D26" s="36" t="s">
@@ -34928,8 +35884,8 @@
       <c r="P26" s="16"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="75"/>
-      <c r="C27" s="78"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="80"/>
       <c r="D27" s="37">
         <v>2</v>
       </c>
@@ -34969,8 +35925,8 @@
       <c r="P27" s="10"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="75"/>
-      <c r="C28" s="78"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="80"/>
       <c r="D28" s="37">
         <v>4</v>
       </c>
@@ -35010,8 +35966,8 @@
       <c r="P28" s="10"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="75"/>
-      <c r="C29" s="78"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="80"/>
       <c r="D29" s="37">
         <v>6</v>
       </c>
@@ -35051,8 +36007,8 @@
       <c r="P29" s="10"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="75"/>
-      <c r="C30" s="78"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="80"/>
       <c r="D30" s="37">
         <v>8</v>
       </c>
@@ -35092,8 +36048,8 @@
       <c r="P30" s="10"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="75"/>
-      <c r="C31" s="78"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="80"/>
       <c r="D31" s="37">
         <v>10</v>
       </c>
@@ -35133,8 +36089,8 @@
       <c r="P31" s="10"/>
     </row>
     <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="75"/>
-      <c r="C32" s="79"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="81"/>
       <c r="D32" s="38">
         <v>15</v>
       </c>
@@ -35174,8 +36130,8 @@
       <c r="P32" s="10"/>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B33" s="75"/>
-      <c r="C33" s="77">
+      <c r="B33" s="77"/>
+      <c r="C33" s="79">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D33" s="36" t="s">
@@ -35217,8 +36173,8 @@
       <c r="P33" s="10"/>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B34" s="75"/>
-      <c r="C34" s="78"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="80"/>
       <c r="D34" s="37">
         <v>2</v>
       </c>
@@ -35258,8 +36214,8 @@
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B35" s="75"/>
-      <c r="C35" s="78"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="80"/>
       <c r="D35" s="37">
         <v>4</v>
       </c>
@@ -35299,8 +36255,8 @@
       <c r="P35" s="10"/>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B36" s="75"/>
-      <c r="C36" s="78"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="80"/>
       <c r="D36" s="37">
         <v>6</v>
       </c>
@@ -35340,8 +36296,8 @@
       <c r="P36" s="10"/>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B37" s="75"/>
-      <c r="C37" s="78"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="80"/>
       <c r="D37" s="37">
         <v>8</v>
       </c>
@@ -35381,8 +36337,8 @@
       <c r="P37" s="10"/>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B38" s="75"/>
-      <c r="C38" s="78"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="80"/>
       <c r="D38" s="37">
         <v>10</v>
       </c>
@@ -35422,8 +36378,8 @@
       <c r="P38" s="10"/>
     </row>
     <row r="39" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="76"/>
-      <c r="C39" s="79"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="38">
         <v>15</v>
       </c>
@@ -35463,10 +36419,10 @@
       <c r="P39" s="13"/>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B40" s="74">
+      <c r="B40" s="76">
         <v>25</v>
       </c>
-      <c r="C40" s="71">
+      <c r="C40" s="73">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D40" s="15" t="s">
@@ -35508,15 +36464,23 @@
       <c r="P40" s="16"/>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B41" s="75"/>
-      <c r="C41" s="72"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="9">
         <v>2</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+      <c r="E41" s="27">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F41" s="27">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="G41" s="27">
+        <v>0.4022</v>
+      </c>
+      <c r="H41" s="27">
+        <v>0.2324</v>
+      </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -35527,8 +36491,8 @@
       <c r="P41" s="10"/>
     </row>
     <row r="42" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="75"/>
-      <c r="C42" s="72"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="74"/>
       <c r="D42" s="9">
         <v>4</v>
       </c>
@@ -35546,8 +36510,8 @@
       <c r="P42" s="10"/>
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B43" s="75"/>
-      <c r="C43" s="72"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="74"/>
       <c r="D43" s="9">
         <v>6</v>
       </c>
@@ -35563,16 +36527,16 @@
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="10"/>
-      <c r="X43" s="80" t="s">
+      <c r="X43" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="Y43" s="81"/>
-      <c r="Z43" s="81"/>
-      <c r="AA43" s="82"/>
+      <c r="Y43" s="83"/>
+      <c r="Z43" s="83"/>
+      <c r="AA43" s="84"/>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B44" s="75"/>
-      <c r="C44" s="72"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="74"/>
       <c r="D44" s="9">
         <v>8</v>
       </c>
@@ -35600,8 +36564,8 @@
       </c>
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B45" s="75"/>
-      <c r="C45" s="72"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="74"/>
       <c r="D45" s="9">
         <v>10</v>
       </c>
@@ -35631,8 +36595,8 @@
       </c>
     </row>
     <row r="46" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="76"/>
-      <c r="C46" s="73"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="12">
         <v>15</v>
       </c>
@@ -35668,14 +36632,14 @@
     <row r="48" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
-      <c r="X48" s="80" t="s">
+      <c r="X48" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="Y48" s="81"/>
-      <c r="Z48" s="81"/>
-      <c r="AA48" s="82"/>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Y48" s="83"/>
+      <c r="Z48" s="83"/>
+      <c r="AA48" s="84"/>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="X49" s="3"/>
       <c r="Y49" s="2" t="s">
         <v>16</v>
@@ -35687,7 +36651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E50">
         <f>AVERAGE(E18,E40)*1000</f>
         <v>0.25</v>
@@ -35749,7 +36713,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="X51" s="5" t="s">
         <v>15</v>
       </c>
@@ -35763,15 +36727,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A53" s="74" t="s">
+    <row r="52" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A53" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="71" t="s">
+      <c r="B53" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="71">
+      <c r="C53" s="73">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D53" s="15">
@@ -35814,17 +36782,17 @@
         <f>M53*1000</f>
         <v>34</v>
       </c>
-      <c r="X53" s="80" t="s">
+      <c r="X53" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="Y53" s="81"/>
-      <c r="Z53" s="81"/>
-      <c r="AA53" s="82"/>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A54" s="75"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
+      <c r="Y53" s="83"/>
+      <c r="Z53" s="83"/>
+      <c r="AA53" s="84"/>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A54" s="77"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="74"/>
       <c r="D54" s="9">
         <v>2</v>
       </c>
@@ -35876,10 +36844,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A55" s="75"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="72"/>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A55" s="77"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="74"/>
       <c r="D55" s="9">
         <v>4</v>
       </c>
@@ -35933,10 +36901,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="75"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="72"/>
+    <row r="56" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="77"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="9">
         <v>6</v>
       </c>
@@ -35990,10 +36958,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A57" s="75"/>
-      <c r="B57" s="72"/>
-      <c r="C57" s="72"/>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A57" s="77"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="74"/>
       <c r="D57" s="9">
         <v>8</v>
       </c>
@@ -36035,10 +37003,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A58" s="75"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="72"/>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A58" s="77"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="74"/>
       <c r="D58" s="9">
         <v>10</v>
       </c>
@@ -36080,10 +37048,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A59" s="75"/>
-      <c r="B59" s="72"/>
-      <c r="C59" s="72"/>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A59" s="77"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="74"/>
       <c r="D59" s="9">
         <v>15</v>
       </c>
@@ -36125,12 +37093,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A60" s="75"/>
-      <c r="B60" s="72" t="s">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A60" s="77"/>
+      <c r="B60" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="72">
+      <c r="C60" s="74">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D60" s="9">
@@ -36174,10 +37142,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A61" s="75"/>
-      <c r="B61" s="72"/>
-      <c r="C61" s="72"/>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A61" s="77"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="9">
         <v>2</v>
       </c>
@@ -36211,10 +37179,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A62" s="75"/>
-      <c r="B62" s="72"/>
-      <c r="C62" s="72"/>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A62" s="77"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="74"/>
       <c r="D62" s="9">
         <v>4</v>
       </c>
@@ -36248,10 +37216,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A63" s="75"/>
-      <c r="B63" s="72"/>
-      <c r="C63" s="72"/>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A63" s="77"/>
+      <c r="B63" s="74"/>
+      <c r="C63" s="74"/>
       <c r="D63" s="9">
         <v>6</v>
       </c>
@@ -36285,10 +37253,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A64" s="75"/>
-      <c r="B64" s="72"/>
-      <c r="C64" s="72"/>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A64" s="77"/>
+      <c r="B64" s="74"/>
+      <c r="C64" s="74"/>
       <c r="D64" s="9">
         <v>8</v>
       </c>
@@ -36323,9 +37291,9 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="75"/>
-      <c r="B65" s="72"/>
-      <c r="C65" s="72"/>
+      <c r="A65" s="77"/>
+      <c r="B65" s="74"/>
+      <c r="C65" s="74"/>
       <c r="D65" s="9">
         <v>10</v>
       </c>
@@ -36360,9 +37328,9 @@
       </c>
     </row>
     <row r="66" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="76"/>
-      <c r="B66" s="73"/>
-      <c r="C66" s="73"/>
+      <c r="A66" s="78"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="75"/>
       <c r="D66" s="12">
         <v>15</v>
       </c>
@@ -36401,13 +37369,13 @@
     </row>
     <row r="69" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="74" t="s">
+      <c r="A70" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="71">
+      <c r="B70" s="73">
         <v>14</v>
       </c>
-      <c r="C70" s="71">
+      <c r="C70" s="73">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D70" s="15" t="s">
@@ -36448,9 +37416,9 @@
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="75"/>
-      <c r="B71" s="72"/>
-      <c r="C71" s="72"/>
+      <c r="A71" s="77"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="74"/>
       <c r="D71" s="9">
         <v>2</v>
       </c>
@@ -36489,9 +37457,9 @@
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="75"/>
-      <c r="B72" s="72"/>
-      <c r="C72" s="72"/>
+      <c r="A72" s="77"/>
+      <c r="B72" s="74"/>
+      <c r="C72" s="74"/>
       <c r="D72" s="9">
         <v>4</v>
       </c>
@@ -36530,9 +37498,9 @@
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="75"/>
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
+      <c r="A73" s="77"/>
+      <c r="B73" s="74"/>
+      <c r="C73" s="74"/>
       <c r="D73" s="9">
         <v>6</v>
       </c>
@@ -36571,9 +37539,9 @@
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" s="75"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="72"/>
+      <c r="A74" s="77"/>
+      <c r="B74" s="74"/>
+      <c r="C74" s="74"/>
       <c r="D74" s="9">
         <v>8</v>
       </c>
@@ -36612,9 +37580,9 @@
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="75"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="72"/>
+      <c r="A75" s="77"/>
+      <c r="B75" s="74"/>
+      <c r="C75" s="74"/>
       <c r="D75" s="9">
         <v>10</v>
       </c>
@@ -36653,9 +37621,9 @@
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="75"/>
-      <c r="B76" s="72"/>
-      <c r="C76" s="72"/>
+      <c r="A76" s="77"/>
+      <c r="B76" s="74"/>
+      <c r="C76" s="74"/>
       <c r="D76" s="9">
         <v>15</v>
       </c>
@@ -36694,11 +37662,11 @@
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="75"/>
-      <c r="B77" s="72">
+      <c r="A77" s="77"/>
+      <c r="B77" s="74">
         <v>25</v>
       </c>
-      <c r="C77" s="72">
+      <c r="C77" s="74">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D77" s="9" t="s">
@@ -36717,38 +37685,46 @@
         <v>0.37580000000000002</v>
       </c>
       <c r="I77" s="27">
-        <v>9.1999999999999998E-3</v>
+        <v>2.29E-2</v>
       </c>
       <c r="J77" s="27">
-        <v>1.38E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="K77" s="27">
-        <v>4.7093999999999996</v>
+        <v>5.9015000000000004</v>
       </c>
       <c r="L77" s="27">
-        <v>1.7585</v>
+        <v>2.1833</v>
       </c>
       <c r="M77" s="9">
-        <v>1.4E-2</v>
+        <v>1.3809999999999999E-2</v>
       </c>
       <c r="N77" s="9">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O77" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" s="75"/>
-      <c r="B78" s="72"/>
-      <c r="C78" s="72"/>
+      <c r="A78" s="77"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="74"/>
       <c r="D78" s="9">
         <v>2</v>
       </c>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
+      <c r="E78" s="27">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="F78" s="27">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G78" s="27">
+        <v>0.63729999999999998</v>
+      </c>
+      <c r="H78" s="27">
+        <v>0.36940000000000001</v>
+      </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
@@ -36758,9 +37734,9 @@
       <c r="O78" s="10"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79" s="75"/>
-      <c r="B79" s="72"/>
-      <c r="C79" s="72"/>
+      <c r="A79" s="77"/>
+      <c r="B79" s="74"/>
+      <c r="C79" s="74"/>
       <c r="D79" s="9">
         <v>4</v>
       </c>
@@ -36777,9 +37753,9 @@
       <c r="O79" s="10"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" s="75"/>
-      <c r="B80" s="72"/>
-      <c r="C80" s="72"/>
+      <c r="A80" s="77"/>
+      <c r="B80" s="74"/>
+      <c r="C80" s="74"/>
       <c r="D80" s="9">
         <v>6</v>
       </c>
@@ -36796,9 +37772,9 @@
       <c r="O80" s="10"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A81" s="75"/>
-      <c r="B81" s="72"/>
-      <c r="C81" s="72"/>
+      <c r="A81" s="77"/>
+      <c r="B81" s="74"/>
+      <c r="C81" s="74"/>
       <c r="D81" s="9">
         <v>8</v>
       </c>
@@ -36815,9 +37791,9 @@
       <c r="O81" s="10"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A82" s="75"/>
-      <c r="B82" s="72"/>
-      <c r="C82" s="72"/>
+      <c r="A82" s="77"/>
+      <c r="B82" s="74"/>
+      <c r="C82" s="74"/>
       <c r="D82" s="9">
         <v>10</v>
       </c>
@@ -36834,9 +37810,9 @@
       <c r="O82" s="10"/>
     </row>
     <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="76"/>
-      <c r="B83" s="73"/>
-      <c r="C83" s="73"/>
+      <c r="A83" s="78"/>
+      <c r="B83" s="75"/>
+      <c r="C83" s="75"/>
       <c r="D83" s="12">
         <v>15</v>
       </c>
@@ -36874,27 +37850,27 @@
       </c>
       <c r="I86">
         <f>AVERAGE(I60,I77)*1000</f>
-        <v>9.2999999999999989</v>
+        <v>16.150000000000002</v>
       </c>
       <c r="J86">
         <f>AVERAGE(J60,J77)*1000</f>
-        <v>11.4</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="K86" s="25">
         <f>AVERAGE(K60,K77)</f>
-        <v>4.03925</v>
+        <v>4.6353</v>
       </c>
       <c r="L86">
         <f>AVERAGE(L60,L77)</f>
-        <v>1.5247999999999999</v>
+        <v>1.7372000000000001</v>
       </c>
       <c r="M86">
         <f>AVERAGE(M60,M77)*1000</f>
-        <v>11.5</v>
+        <v>11.404999999999998</v>
       </c>
       <c r="N86">
         <f>AVERAGE(N60,N77)*1000</f>
-        <v>4.5000000000000009</v>
+        <v>4</v>
       </c>
       <c r="O86">
         <f>AVERAGE(O60,O77)*1000</f>
@@ -36916,16 +37892,16 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E89">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F89">
-        <v>2.8E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="G89">
-        <v>0.75800000000000001</v>
+        <v>0.83320000000000005</v>
       </c>
       <c r="H89">
-        <v>0.42959999999999998</v>
+        <v>0.69330000000000003</v>
       </c>
       <c r="I89">
         <v>6.1000000000000004E-3</v>
@@ -36940,7 +37916,7 @@
         <v>3.05</v>
       </c>
       <c r="M89">
-        <v>1.6E-2</v>
+        <v>1.5769999999999999E-2</v>
       </c>
       <c r="N89">
         <v>6.0000000000000001E-3</v>
@@ -36962,13 +37938,13 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E92">
-        <v>1.1999999999999999E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F92">
-        <v>2.8999999999999998E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G92">
-        <v>0.76300000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="H92">
         <v>0.43</v>
@@ -36998,19 +37974,19 @@
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E94">
         <f>AVERAGE(E89,E92)*1000</f>
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="F94">
         <f>AVERAGE(F89,F92)*1000</f>
-        <v>2.85</v>
+        <v>3.1999999999999997</v>
       </c>
       <c r="G94">
         <f>AVERAGE(G89,G92)</f>
-        <v>0.76049999999999995</v>
+        <v>0.80160000000000009</v>
       </c>
       <c r="H94">
         <f>AVERAGE(H89,H92)</f>
-        <v>0.42979999999999996</v>
+        <v>0.56164999999999998</v>
       </c>
       <c r="I94">
         <f>AVERAGE(I89,I92)*1000</f>
@@ -37030,7 +38006,7 @@
       </c>
       <c r="M94">
         <f>AVERAGE(M89,M92)*1000</f>
-        <v>12.5</v>
+        <v>12.385</v>
       </c>
       <c r="N94">
         <f>AVERAGE(N89,N92)*1000</f>
@@ -37091,10 +38067,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BB8612-D910-4E1C-B060-8B590798E8C6}">
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37114,70 +38090,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="74" t="s">
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="74" t="s">
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="85"/>
-      <c r="O1" s="74" t="s">
+      <c r="N1" s="87"/>
+      <c r="O1" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="85"/>
+      <c r="P1" s="87"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="78"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="75" t="s">
+      <c r="A2" s="80"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72" t="s">
+      <c r="F2" s="74"/>
+      <c r="G2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="75" t="s">
+      <c r="H2" s="88"/>
+      <c r="I2" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72" t="s">
+      <c r="J2" s="74"/>
+      <c r="K2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="86"/>
+      <c r="L2" s="88"/>
       <c r="M2" s="45"/>
       <c r="N2" s="50"/>
       <c r="O2" s="45"/>
       <c r="P2" s="50"/>
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="79"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="87"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="89"/>
       <c r="E3" s="46" t="s">
         <v>7</v>
       </c>
@@ -37254,12 +38230,12 @@
         <v>1.12E-2</v>
       </c>
       <c r="R4" s="9"/>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="82"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="84"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -37357,14 +38333,14 @@
       <c r="S6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>112</v>
+      <c r="T6" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="U6" s="55" t="s">
+        <v>123</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -37379,7 +38355,7 @@
         <v>113</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -37435,12 +38411,12 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R9" s="9"/>
-      <c r="S9" s="80" t="s">
+      <c r="S9" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="81"/>
-      <c r="U9" s="81"/>
-      <c r="V9" s="82"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="84"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -37544,7 +38520,9 @@
       <c r="U11" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="V11" s="4"/>
+      <c r="V11" s="4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -37596,7 +38574,9 @@
       <c r="U12" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="V12" s="7"/>
+      <c r="V12" s="7" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R13" s="9"/>
@@ -37651,12 +38631,12 @@
         <v>2.3744051886735753</v>
       </c>
       <c r="R14" s="9"/>
-      <c r="S14" s="80" t="s">
+      <c r="S14" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="T14" s="81"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="82"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="84"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R15" s="9"/>
@@ -37721,7 +38701,9 @@
       <c r="U16" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="V16" s="4"/>
+      <c r="V16" s="4" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="17" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -37773,7 +38755,9 @@
       <c r="U17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="V17" s="7"/>
+      <c r="V17" s="7" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -37782,6 +38766,39 @@
       <c r="B18">
         <v>20</v>
       </c>
+      <c r="E18">
+        <v>1.01E-2</v>
+      </c>
+      <c r="F18">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="G18">
+        <v>1.4663999999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.85129999999999995</v>
+      </c>
+      <c r="I18">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="J18">
+        <v>0.1065</v>
+      </c>
+      <c r="K18">
+        <v>20.1435</v>
+      </c>
+      <c r="L18">
+        <v>13.0496</v>
+      </c>
+      <c r="M18">
+        <v>2.2329999999999999E-2</v>
+      </c>
+      <c r="N18">
+        <v>1.4E-2</v>
+      </c>
+      <c r="O18">
+        <v>1.6500000000000001E-2</v>
+      </c>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
     </row>
@@ -37791,52 +38808,52 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E20" s="52">
-        <f>AVERAGE(E17:E18)*1000</f>
-        <v>10.1</v>
+        <f>AVERAGE(E16:E18)*1000</f>
+        <v>10.133333333333333</v>
       </c>
       <c r="F20" s="52">
-        <f>AVERAGE(F17:F18)*1000</f>
-        <v>7.3</v>
+        <f>AVERAGE(F16:F18)*1000</f>
+        <v>7.2666666666666666</v>
       </c>
       <c r="G20" s="52">
-        <f>AVERAGE(G17:G18)</f>
-        <v>1.4663999999999999</v>
+        <f>AVERAGE(G16:G18)</f>
+        <v>1.4753000000000001</v>
       </c>
       <c r="H20" s="52">
-        <f>AVERAGE(H17:H18)</f>
-        <v>0.85129999999999995</v>
+        <f>AVERAGE(H16:H18)</f>
+        <v>0.81820000000000004</v>
       </c>
       <c r="I20" s="52">
-        <f>AVERAGE(I17:I18)*1000</f>
-        <v>11.299999999999999</v>
+        <f>AVERAGE(I16:I18)*1000</f>
+        <v>12.533333333333331</v>
       </c>
       <c r="J20" s="52">
-        <f>AVERAGE(J17:J18)*1000</f>
-        <v>106.5</v>
+        <f>AVERAGE(J16:J18)*1000</f>
+        <v>95.699999999999989</v>
       </c>
       <c r="K20" s="52">
-        <f>AVERAGE(K17:K18)</f>
-        <v>20.1435</v>
+        <f>AVERAGE(K16:K18)</f>
+        <v>18.858433333333334</v>
       </c>
       <c r="L20" s="52">
-        <f>AVERAGE(L17:L18)</f>
-        <v>13.0496</v>
+        <f>AVERAGE(L16:L18)</f>
+        <v>11.611933333333333</v>
       </c>
       <c r="M20" s="52">
-        <f>AVERAGE(M17:M18)*1000</f>
-        <v>22.33</v>
+        <f>AVERAGE(M16:M18)*1000</f>
+        <v>22.686666666666664</v>
       </c>
       <c r="N20" s="52">
-        <f>AVERAGE(N17:N18)*1000</f>
-        <v>14</v>
+        <f>AVERAGE(N16:N18)*1000</f>
+        <v>15.333333333333332</v>
       </c>
       <c r="O20" s="52">
         <f>AVERAGE(O16:O18)*1000</f>
-        <v>16.25</v>
+        <v>16.333333333333336</v>
       </c>
       <c r="P20" s="52">
         <f>_xlfn.STDEV.P(O16:O18)*1000</f>
-        <v>0.25000000000000022</v>
+        <v>0.23570226039551603</v>
       </c>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
@@ -37858,6 +38875,24 @@
       <c r="S24" s="9"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
@@ -37870,22 +38905,45 @@
       <c r="S27" s="9"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="F28">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="G28">
+        <v>1.2996000000000001</v>
+      </c>
+      <c r="H28">
+        <v>0.72209999999999996</v>
+      </c>
+      <c r="I28">
+        <v>-4.0300000000000002E-2</v>
+      </c>
+      <c r="J28">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K28">
+        <v>19.160499999999999</v>
+      </c>
+      <c r="L28">
+        <v>12.095000000000001</v>
+      </c>
+      <c r="M28">
+        <v>1.404E-2</v>
+      </c>
+      <c r="N28">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O28">
+        <v>1.12E-2</v>
+      </c>
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
@@ -37893,44 +38951,45 @@
       <c r="U28" s="9"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>21</v>
+      </c>
       <c r="E29">
-        <v>9.7999999999999997E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="F29">
-        <v>5.5999999999999999E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="G29">
-        <v>1.3625</v>
+        <v>1.1615</v>
       </c>
       <c r="H29">
-        <v>0.59599999999999997</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="I29">
-        <v>-2.3800000000000002E-2</v>
+        <v>-3.0599999999999999E-2</v>
       </c>
       <c r="J29">
-        <v>9.5000000000000001E-2</v>
+        <v>0.10050000000000001</v>
       </c>
       <c r="K29">
-        <v>21.18</v>
+        <v>23.885000000000002</v>
       </c>
       <c r="L29">
-        <v>16.239999999999998</v>
+        <v>14.5733</v>
       </c>
       <c r="M29">
-        <v>2.206E-2</v>
+        <v>1.491E-2</v>
       </c>
       <c r="N29">
-        <v>1.26E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O29">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="P29" s="9"/>
+        <v>1.14E-2</v>
+      </c>
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
@@ -37938,22 +38997,45 @@
       <c r="U29" s="9"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="F30">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="G30">
+        <v>1.171</v>
+      </c>
+      <c r="H30">
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="I30">
+        <v>-3.7900000000000003E-2</v>
+      </c>
+      <c r="J30">
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="K30">
+        <v>12.4278</v>
+      </c>
+      <c r="L30">
+        <v>11.0913</v>
+      </c>
+      <c r="M30">
+        <v>2.1389999999999999E-2</v>
+      </c>
+      <c r="N30">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O30">
+        <v>1.6799999999999999E-2</v>
+      </c>
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
@@ -37961,22 +39043,6 @@
       <c r="U30" s="9"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
@@ -37984,22 +39050,54 @@
       <c r="U31" s="9"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
+      <c r="E32" s="52">
+        <f>AVERAGE(E28:E30)*1000</f>
+        <v>8.9</v>
+      </c>
+      <c r="F32" s="52">
+        <f>AVERAGE(F28:F30)*1000</f>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="G32" s="52">
+        <f>AVERAGE(G28:G30)</f>
+        <v>1.2107000000000001</v>
+      </c>
+      <c r="H32" s="52">
+        <f>AVERAGE(H28:H30)</f>
+        <v>0.63786666666666669</v>
+      </c>
+      <c r="I32" s="52">
+        <f t="shared" ref="I32:J32" si="2">AVERAGE(I28:I30)*1000</f>
+        <v>-36.266666666666666</v>
+      </c>
+      <c r="J32" s="52">
+        <f t="shared" si="2"/>
+        <v>81.066666666666663</v>
+      </c>
+      <c r="K32" s="52">
+        <f>AVERAGE(K28:K30)</f>
+        <v>18.491099999999999</v>
+      </c>
+      <c r="L32" s="52">
+        <f>AVERAGE(L28:L30)</f>
+        <v>12.586533333333335</v>
+      </c>
+      <c r="M32" s="52">
+        <f t="shared" ref="M32:O32" si="3">AVERAGE(M28:M30)*1000</f>
+        <v>16.78</v>
+      </c>
+      <c r="N32" s="52">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="O32" s="52">
+        <f t="shared" si="3"/>
+        <v>13.133333333333335</v>
+      </c>
+      <c r="P32" s="52">
+        <f>_xlfn.STDEV.P(O28:O30)*1000</f>
+        <v>2.5940101944458287</v>
+      </c>
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
@@ -38007,22 +39105,6 @@
       <c r="U32" s="9"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
@@ -38030,22 +39112,45 @@
       <c r="U33" s="9"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34">
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F34">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="G34">
+        <v>1.4236</v>
+      </c>
+      <c r="H34">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="I34">
+        <v>-2.1600000000000001E-2</v>
+      </c>
+      <c r="J34">
+        <v>0.108</v>
+      </c>
+      <c r="K34">
+        <v>25.67</v>
+      </c>
+      <c r="L34">
+        <v>13.26</v>
+      </c>
+      <c r="M34" s="20">
+        <v>1.523E-2</v>
+      </c>
+      <c r="N34">
+        <v>1.2E-2</v>
+      </c>
+      <c r="O34" s="20">
+        <v>1.269E-2</v>
+      </c>
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
@@ -38053,22 +39158,45 @@
       <c r="U34" s="9"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F35">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="G35">
+        <v>1.5367</v>
+      </c>
+      <c r="H35">
+        <v>0.84789999999999999</v>
+      </c>
+      <c r="I35">
+        <v>-2.3599999999999999E-2</v>
+      </c>
+      <c r="J35">
+        <v>0.1158</v>
+      </c>
+      <c r="K35">
+        <v>27.960899999999999</v>
+      </c>
+      <c r="L35">
+        <v>14.1426</v>
+      </c>
+      <c r="M35" s="20">
+        <v>1.4239999999999999E-2</v>
+      </c>
+      <c r="N35">
+        <v>1.6E-2</v>
+      </c>
+      <c r="O35" s="20">
+        <v>1.329E-2</v>
+      </c>
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
@@ -38076,22 +39204,45 @@
       <c r="U35" s="9"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>21</v>
+      </c>
+      <c r="E36">
+        <v>1.06E-2</v>
+      </c>
+      <c r="F36">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="G36">
+        <v>1.4712000000000001</v>
+      </c>
+      <c r="H36">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="I36">
+        <v>-2.6800000000000001E-2</v>
+      </c>
+      <c r="J36">
+        <v>0.10979999999999999</v>
+      </c>
+      <c r="K36">
+        <v>20.4086</v>
+      </c>
+      <c r="L36">
+        <v>16.203800000000001</v>
+      </c>
+      <c r="M36" s="20">
+        <v>2.3879999999999998E-2</v>
+      </c>
+      <c r="N36">
+        <v>1.6E-2</v>
+      </c>
+      <c r="O36" s="20">
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
@@ -38099,22 +39250,6 @@
       <c r="U36" s="9"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
@@ -38122,22 +39257,54 @@
       <c r="U37" s="9"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
+      <c r="E38" s="52">
+        <f>AVERAGE(E34:E36)*1000</f>
+        <v>11.2</v>
+      </c>
+      <c r="F38" s="52">
+        <f>AVERAGE(F34:F36)*1000</f>
+        <v>6.7</v>
+      </c>
+      <c r="G38" s="52">
+        <f>AVERAGE(G34:G36)</f>
+        <v>1.4771666666666665</v>
+      </c>
+      <c r="H38" s="52">
+        <f>AVERAGE(H34:H36)</f>
+        <v>0.78713333333333324</v>
+      </c>
+      <c r="I38" s="52">
+        <f t="shared" ref="I38:J38" si="4">AVERAGE(I34:I36)*1000</f>
+        <v>-24.000000000000004</v>
+      </c>
+      <c r="J38" s="52">
+        <f t="shared" si="4"/>
+        <v>111.2</v>
+      </c>
+      <c r="K38" s="52">
+        <f>AVERAGE(K34:K36)</f>
+        <v>24.679833333333335</v>
+      </c>
+      <c r="L38" s="52">
+        <f>AVERAGE(L34:L36)</f>
+        <v>14.535466666666666</v>
+      </c>
+      <c r="M38" s="52">
+        <f t="shared" ref="M38:O38" si="5">AVERAGE(M34:M36)*1000</f>
+        <v>17.783333333333331</v>
+      </c>
+      <c r="N38" s="52">
+        <f t="shared" si="5"/>
+        <v>14.666666666666666</v>
+      </c>
+      <c r="O38" s="52">
+        <f t="shared" si="5"/>
+        <v>14.66</v>
+      </c>
+      <c r="P38" s="52">
+        <f>_xlfn.STDEV.P(O34:O36)*1000</f>
+        <v>2.3744051886735753</v>
+      </c>
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
@@ -38145,30 +39312,155 @@
       <c r="U38" s="9"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
     </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40">
+        <v>21</v>
+      </c>
+      <c r="E40">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="F40">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="G40">
+        <v>1.4931000000000001</v>
+      </c>
+      <c r="H40">
+        <v>0.752</v>
+      </c>
+      <c r="I40">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J40">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="K40">
+        <v>16.2883</v>
+      </c>
+      <c r="L40">
+        <v>8.7365999999999993</v>
+      </c>
+      <c r="M40">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="N40">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="O40">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41">
+        <v>21</v>
+      </c>
+      <c r="E41">
+        <v>1.01E-2</v>
+      </c>
+      <c r="F41">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="G41">
+        <v>1.4663999999999999</v>
+      </c>
+      <c r="H41">
+        <v>0.85129999999999995</v>
+      </c>
+      <c r="I41">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="J41">
+        <v>0.1065</v>
+      </c>
+      <c r="K41">
+        <v>20.1435</v>
+      </c>
+      <c r="L41">
+        <v>13.0496</v>
+      </c>
+      <c r="M41">
+        <v>2.2329999999999999E-2</v>
+      </c>
+      <c r="N41">
+        <v>1.4E-2</v>
+      </c>
+      <c r="O41">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E44" s="52">
+        <f>AVERAGE(E41:E42)*1000</f>
+        <v>10.1</v>
+      </c>
+      <c r="F44" s="52">
+        <f>AVERAGE(F41:F42)*1000</f>
+        <v>7.3</v>
+      </c>
+      <c r="G44" s="52">
+        <f>AVERAGE(G41:G42)</f>
+        <v>1.4663999999999999</v>
+      </c>
+      <c r="H44" s="52">
+        <f>AVERAGE(H41:H42)</f>
+        <v>0.85129999999999995</v>
+      </c>
+      <c r="I44" s="52">
+        <f>AVERAGE(I41:I42)*1000</f>
+        <v>11.299999999999999</v>
+      </c>
+      <c r="J44" s="52">
+        <f>AVERAGE(J41:J42)*1000</f>
+        <v>106.5</v>
+      </c>
+      <c r="K44" s="52">
+        <f>AVERAGE(K41:K42)</f>
+        <v>20.1435</v>
+      </c>
+      <c r="L44" s="52">
+        <f>AVERAGE(L41:L42)</f>
+        <v>13.0496</v>
+      </c>
+      <c r="M44" s="52">
+        <f>AVERAGE(M41:M42)*1000</f>
+        <v>22.33</v>
+      </c>
+      <c r="N44" s="52">
+        <f>AVERAGE(N41:N42)*1000</f>
+        <v>14</v>
+      </c>
+      <c r="O44" s="52">
+        <f>AVERAGE(O40:O42)*1000</f>
+        <v>16.25</v>
+      </c>
+      <c r="P44" s="52">
+        <f>_xlfn.STDEV.P(O40:O42)*1000</f>
+        <v>0.25000000000000022</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="A25:P25"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="S4:V4"/>
     <mergeCell ref="S9:V9"/>
@@ -38186,14 +39478,209 @@
     <mergeCell ref="I1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EB4C89-CBBD-485D-BE79-2979359B89ED}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.109375" customWidth="1"/>
+    <col min="19" max="20" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="62"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>9.2443400000000002E-3</v>
+      </c>
+      <c r="C2">
+        <v>2.4172399999999999E-4</v>
+      </c>
+      <c r="D2">
+        <v>0.84126500000000004</v>
+      </c>
+      <c r="E2">
+        <v>2.1060099999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>9.2639200000000001E-3</v>
+      </c>
+      <c r="C3">
+        <v>2.3709600000000001E-4</v>
+      </c>
+      <c r="D3">
+        <v>0.834955</v>
+      </c>
+      <c r="E3">
+        <v>2.04908E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>9.0656299999999999E-3</v>
+      </c>
+      <c r="C4">
+        <v>2.37118E-4</v>
+      </c>
+      <c r="D4">
+        <v>0.80893199999999998</v>
+      </c>
+      <c r="E4">
+        <v>2.0950699999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>8.7834999999999996E-3</v>
+      </c>
+      <c r="C5">
+        <v>2.3341E-4</v>
+      </c>
+      <c r="D5">
+        <v>0.77324499999999996</v>
+      </c>
+      <c r="E5">
+        <v>2.0240000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>8.6891599999999996E-3</v>
+      </c>
+      <c r="C6">
+        <v>2.3436099999999999E-4</v>
+      </c>
+      <c r="D6">
+        <v>0.75664500000000001</v>
+      </c>
+      <c r="E6">
+        <v>2.0590600000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>8.6320700000000004E-3</v>
+      </c>
+      <c r="C7">
+        <v>2.3504999999999999E-4</v>
+      </c>
+      <c r="D7">
+        <v>0.74614400000000003</v>
+      </c>
+      <c r="E7">
+        <v>2.09261E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>8.64119E-3</v>
+      </c>
+      <c r="C8">
+        <v>2.1411100000000001E-4</v>
+      </c>
+      <c r="D8">
+        <v>0.71720499999999998</v>
+      </c>
+      <c r="E8">
+        <v>1.9783499999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>8.60029E-3</v>
+      </c>
+      <c r="C9">
+        <v>2.14806E-4</v>
+      </c>
+      <c r="D9">
+        <v>0.71617500000000001</v>
+      </c>
+      <c r="E9">
+        <v>1.9878199999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>8.6393400000000006E-3</v>
+      </c>
+      <c r="C10">
+        <v>2.15684E-4</v>
+      </c>
+      <c r="D10">
+        <v>0.71881600000000001</v>
+      </c>
+      <c r="E10">
+        <v>1.9750899999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="26">
+        <f>AVERAGE(B2:B10)</f>
+        <v>8.839937777777777E-3</v>
+      </c>
+      <c r="C12" s="26">
+        <f t="shared" ref="C12:E12" si="0">AVERAGE(C2:C10)</f>
+        <v>2.2926222222222219E-4</v>
+      </c>
+      <c r="D12" s="26">
+        <f t="shared" si="0"/>
+        <v>0.76815355555555564</v>
+      </c>
+      <c r="E12" s="26">
+        <f t="shared" si="0"/>
+        <v>2.0407877777777778E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEBEDD0-E4C3-489D-AB96-BA456FE7E7FC}">
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
@@ -38212,30 +39699,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="88" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88" t="s">
+      <c r="F1" s="90"/>
+      <c r="G1" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="60" t="s">
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="60"/>
+      <c r="K1" s="62"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
+      <c r="A2" s="62"/>
       <c r="B2" t="s">
         <v>28</v>
       </c>
@@ -38268,7 +39755,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="63" t="s">
         <v>32</v>
       </c>
       <c r="B3">
@@ -38308,7 +39795,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
+      <c r="A4" s="63"/>
       <c r="B4">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -38346,7 +39833,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
+      <c r="A5" s="63"/>
       <c r="B5">
         <v>1.2E-2</v>
       </c>
@@ -38384,7 +39871,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
+      <c r="A6" s="63"/>
       <c r="B6">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -38422,7 +39909,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
+      <c r="A7" s="63"/>
       <c r="B7">
         <v>1.4E-2</v>
       </c>
@@ -38460,7 +39947,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
+      <c r="A8" s="63"/>
       <c r="B8">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -38498,7 +39985,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
+      <c r="A9" s="63"/>
       <c r="B9">
         <v>1.6E-2</v>
       </c>
@@ -38536,7 +40023,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
+      <c r="A10" s="63"/>
       <c r="B10">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -38574,7 +40061,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
+      <c r="A11" s="63"/>
       <c r="B11">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -38612,7 +40099,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
+      <c r="A12" s="63"/>
       <c r="B12">
         <v>1.9E-2</v>
       </c>
@@ -38650,7 +40137,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
+      <c r="A13" s="63"/>
       <c r="B13">
         <v>0.02</v>
       </c>
@@ -38688,7 +40175,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
+      <c r="A14" s="63"/>
       <c r="B14">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -38726,7 +40213,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
+      <c r="A15" s="63"/>
       <c r="B15">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -38764,7 +40251,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
+      <c r="A16" s="63"/>
       <c r="B16">
         <v>2.3E-2</v>
       </c>
@@ -38802,7 +40289,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
+      <c r="A17" s="63"/>
       <c r="B17">
         <v>2.4E-2</v>
       </c>
@@ -38840,7 +40327,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
+      <c r="A18" s="63"/>
       <c r="B18">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -38878,7 +40365,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
+      <c r="A19" s="63"/>
       <c r="B19">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -38916,7 +40403,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
+      <c r="A20" s="63"/>
       <c r="B20">
         <v>2.7E-2</v>
       </c>
@@ -38954,7 +40441,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
+      <c r="A21" s="63"/>
       <c r="B21">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -38992,7 +40479,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
+      <c r="A22" s="63"/>
       <c r="B22">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -39030,30 +40517,30 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60" t="s">
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60" t="s">
+      <c r="F23" s="62"/>
+      <c r="G23" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60" t="s">
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="K23" s="60"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="61"/>
+      <c r="A24" s="63"/>
       <c r="B24" t="s">
         <v>28</v>
       </c>
@@ -39086,7 +40573,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="63" t="s">
         <v>33</v>
       </c>
       <c r="B25">
@@ -39126,7 +40613,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
+      <c r="A26" s="63"/>
       <c r="B26">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -39164,7 +40651,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="61"/>
+      <c r="A27" s="63"/>
       <c r="B27">
         <v>1.2E-2</v>
       </c>
@@ -39202,7 +40689,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="61"/>
+      <c r="A28" s="63"/>
       <c r="B28">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -39240,7 +40727,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
+      <c r="A29" s="63"/>
       <c r="B29">
         <v>1.4E-2</v>
       </c>
@@ -39278,7 +40765,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="61"/>
+      <c r="A30" s="63"/>
       <c r="B30">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -39316,7 +40803,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="61"/>
+      <c r="A31" s="63"/>
       <c r="B31">
         <v>1.6E-2</v>
       </c>
@@ -39354,7 +40841,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
+      <c r="A32" s="63"/>
       <c r="B32">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -39392,7 +40879,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="61"/>
+      <c r="A33" s="63"/>
       <c r="B33">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -39430,7 +40917,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
+      <c r="A34" s="63"/>
       <c r="B34">
         <v>1.9E-2</v>
       </c>
@@ -39468,7 +40955,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="61"/>
+      <c r="A35" s="63"/>
       <c r="B35">
         <v>0.02</v>
       </c>
@@ -39506,7 +40993,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="61"/>
+      <c r="A36" s="63"/>
       <c r="B36">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -39544,7 +41031,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="61"/>
+      <c r="A37" s="63"/>
       <c r="B37">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -39582,7 +41069,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="61"/>
+      <c r="A38" s="63"/>
       <c r="B38">
         <v>2.3E-2</v>
       </c>
@@ -39620,7 +41107,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="61"/>
+      <c r="A39" s="63"/>
       <c r="B39">
         <v>2.4E-2</v>
       </c>
@@ -39658,7 +41145,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="61"/>
+      <c r="A40" s="63"/>
       <c r="B40">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -39696,7 +41183,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="61"/>
+      <c r="A41" s="63"/>
       <c r="B41">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -39734,7 +41221,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
+      <c r="A42" s="63"/>
       <c r="B42">
         <v>2.7E-2</v>
       </c>
@@ -39772,7 +41259,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="61"/>
+      <c r="A43" s="63"/>
       <c r="B43">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -39810,7 +41297,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="61"/>
+      <c r="A44" s="63"/>
       <c r="B44">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -39848,30 +41335,30 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="88" t="s">
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88" t="s">
+      <c r="F45" s="90"/>
+      <c r="G45" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="60" t="s">
+      <c r="H45" s="90"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="K45" s="60"/>
+      <c r="K45" s="62"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="60"/>
+      <c r="A46" s="62"/>
       <c r="B46" t="s">
         <v>28</v>
       </c>
@@ -39904,7 +41391,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="63" t="s">
         <v>68</v>
       </c>
       <c r="B47">
@@ -39944,7 +41431,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="61"/>
+      <c r="A48" s="63"/>
       <c r="B48">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -39982,7 +41469,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="61"/>
+      <c r="A49" s="63"/>
       <c r="B49">
         <v>1.2E-2</v>
       </c>
@@ -40020,7 +41507,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="61"/>
+      <c r="A50" s="63"/>
       <c r="B50">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -40058,7 +41545,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="61"/>
+      <c r="A51" s="63"/>
       <c r="B51">
         <v>1.4E-2</v>
       </c>
@@ -40096,7 +41583,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="61"/>
+      <c r="A52" s="63"/>
       <c r="B52">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -40134,7 +41621,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="61"/>
+      <c r="A53" s="63"/>
       <c r="B53">
         <v>1.6E-2</v>
       </c>
@@ -40172,7 +41659,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="61"/>
+      <c r="A54" s="63"/>
       <c r="B54">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -40210,7 +41697,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="61"/>
+      <c r="A55" s="63"/>
       <c r="B55">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -40248,7 +41735,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="61"/>
+      <c r="A56" s="63"/>
       <c r="B56">
         <v>1.9E-2</v>
       </c>
@@ -40286,7 +41773,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="61"/>
+      <c r="A57" s="63"/>
       <c r="B57">
         <v>0.02</v>
       </c>
@@ -40324,7 +41811,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="61"/>
+      <c r="A58" s="63"/>
       <c r="B58">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -40362,7 +41849,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="61"/>
+      <c r="A59" s="63"/>
       <c r="B59">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -40400,7 +41887,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="61"/>
+      <c r="A60" s="63"/>
       <c r="B60">
         <v>2.3E-2</v>
       </c>
@@ -40438,7 +41925,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="61"/>
+      <c r="A61" s="63"/>
       <c r="B61">
         <v>2.4E-2</v>
       </c>
@@ -40476,7 +41963,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="61"/>
+      <c r="A62" s="63"/>
       <c r="B62">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -40514,7 +42001,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="61"/>
+      <c r="A63" s="63"/>
       <c r="B63">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -40552,7 +42039,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="61"/>
+      <c r="A64" s="63"/>
       <c r="B64">
         <v>2.7E-2</v>
       </c>
@@ -40590,7 +42077,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="61"/>
+      <c r="A65" s="63"/>
       <c r="B65">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -40666,30 +42153,30 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="60" t="s">
+      <c r="A67" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="60" t="s">
+      <c r="B67" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="88" t="s">
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="F67" s="88"/>
-      <c r="G67" s="88" t="s">
+      <c r="F67" s="90"/>
+      <c r="G67" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="H67" s="88"/>
-      <c r="I67" s="88"/>
-      <c r="J67" s="60" t="s">
+      <c r="H67" s="90"/>
+      <c r="I67" s="90"/>
+      <c r="J67" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="K67" s="60"/>
+      <c r="K67" s="62"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="60"/>
+      <c r="A68" s="62"/>
       <c r="B68" t="s">
         <v>28</v>
       </c>
@@ -40722,7 +42209,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="61" t="s">
+      <c r="A69" s="63" t="s">
         <v>69</v>
       </c>
       <c r="B69">
@@ -40762,7 +42249,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="61"/>
+      <c r="A70" s="63"/>
       <c r="B70">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -40800,7 +42287,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="61"/>
+      <c r="A71" s="63"/>
       <c r="B71">
         <v>1.2E-2</v>
       </c>
@@ -40838,7 +42325,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="61"/>
+      <c r="A72" s="63"/>
       <c r="B72">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -40876,7 +42363,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="61"/>
+      <c r="A73" s="63"/>
       <c r="B73">
         <v>1.4E-2</v>
       </c>
@@ -40914,7 +42401,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="61"/>
+      <c r="A74" s="63"/>
       <c r="B74">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -40952,7 +42439,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="61"/>
+      <c r="A75" s="63"/>
       <c r="B75">
         <v>1.6E-2</v>
       </c>
@@ -40990,7 +42477,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="61"/>
+      <c r="A76" s="63"/>
       <c r="B76">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -41028,7 +42515,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="61"/>
+      <c r="A77" s="63"/>
       <c r="B77">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -41066,7 +42553,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="61"/>
+      <c r="A78" s="63"/>
       <c r="B78">
         <v>1.9E-2</v>
       </c>
@@ -41104,7 +42591,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="61"/>
+      <c r="A79" s="63"/>
       <c r="B79">
         <v>0.02</v>
       </c>
@@ -41142,7 +42629,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="61"/>
+      <c r="A80" s="63"/>
       <c r="B80">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -41180,7 +42667,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="61"/>
+      <c r="A81" s="63"/>
       <c r="B81">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -41218,7 +42705,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="61"/>
+      <c r="A82" s="63"/>
       <c r="B82">
         <v>2.3E-2</v>
       </c>
@@ -41256,7 +42743,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="61"/>
+      <c r="A83" s="63"/>
       <c r="B83">
         <v>2.4E-2</v>
       </c>
@@ -41294,7 +42781,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="61"/>
+      <c r="A84" s="63"/>
       <c r="B84">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -41332,7 +42819,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="61"/>
+      <c r="A85" s="63"/>
       <c r="B85">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -41370,7 +42857,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="61"/>
+      <c r="A86" s="63"/>
       <c r="B86">
         <v>2.7E-2</v>
       </c>
@@ -41408,7 +42895,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="61"/>
+      <c r="A87" s="63"/>
       <c r="B87">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -41484,30 +42971,30 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="60" t="s">
+      <c r="A89" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B89" s="60" t="s">
+      <c r="B89" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C89" s="60"/>
-      <c r="D89" s="60"/>
-      <c r="E89" s="88" t="s">
+      <c r="C89" s="62"/>
+      <c r="D89" s="62"/>
+      <c r="E89" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="F89" s="88"/>
-      <c r="G89" s="88" t="s">
+      <c r="F89" s="90"/>
+      <c r="G89" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="H89" s="88"/>
-      <c r="I89" s="88"/>
-      <c r="J89" s="60" t="s">
+      <c r="H89" s="90"/>
+      <c r="I89" s="90"/>
+      <c r="J89" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="K89" s="60"/>
+      <c r="K89" s="62"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="60"/>
+      <c r="A90" s="62"/>
       <c r="B90" t="s">
         <v>28</v>
       </c>
@@ -41540,7 +43027,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="61" t="s">
+      <c r="A91" s="63" t="s">
         <v>70</v>
       </c>
       <c r="B91">
@@ -41580,7 +43067,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="61"/>
+      <c r="A92" s="63"/>
       <c r="B92">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -41618,7 +43105,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="61"/>
+      <c r="A93" s="63"/>
       <c r="B93">
         <v>1.2E-2</v>
       </c>
@@ -41656,7 +43143,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="61"/>
+      <c r="A94" s="63"/>
       <c r="B94">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -41694,7 +43181,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="61"/>
+      <c r="A95" s="63"/>
       <c r="B95">
         <v>1.4E-2</v>
       </c>
@@ -41732,7 +43219,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="61"/>
+      <c r="A96" s="63"/>
       <c r="B96">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -41770,7 +43257,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="61"/>
+      <c r="A97" s="63"/>
       <c r="B97">
         <v>1.6E-2</v>
       </c>
@@ -41808,7 +43295,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="61"/>
+      <c r="A98" s="63"/>
       <c r="B98">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -41846,7 +43333,7 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="61"/>
+      <c r="A99" s="63"/>
       <c r="B99">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -41884,7 +43371,7 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="61"/>
+      <c r="A100" s="63"/>
       <c r="B100">
         <v>1.9E-2</v>
       </c>
@@ -41922,7 +43409,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="61"/>
+      <c r="A101" s="63"/>
       <c r="B101">
         <v>0.02</v>
       </c>
@@ -41960,7 +43447,7 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="61"/>
+      <c r="A102" s="63"/>
       <c r="B102">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -41998,7 +43485,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="61"/>
+      <c r="A103" s="63"/>
       <c r="B103">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -42036,7 +43523,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="61"/>
+      <c r="A104" s="63"/>
       <c r="B104">
         <v>2.3E-2</v>
       </c>
@@ -42074,7 +43561,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="61"/>
+      <c r="A105" s="63"/>
       <c r="B105">
         <v>2.4E-2</v>
       </c>
@@ -42112,7 +43599,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="61"/>
+      <c r="A106" s="63"/>
       <c r="B106">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -42150,7 +43637,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="61"/>
+      <c r="A107" s="63"/>
       <c r="B107">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -42188,7 +43675,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="61"/>
+      <c r="A108" s="63"/>
       <c r="B108">
         <v>2.7E-2</v>
       </c>
@@ -42226,7 +43713,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="61"/>
+      <c r="A109" s="63"/>
       <c r="B109">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -42264,7 +43751,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="61"/>
+      <c r="A110" s="63"/>
       <c r="B110">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -42302,30 +43789,30 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="60" t="s">
+      <c r="A111" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B111" s="60" t="s">
+      <c r="B111" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C111" s="60"/>
-      <c r="D111" s="60"/>
-      <c r="E111" s="88" t="s">
+      <c r="C111" s="62"/>
+      <c r="D111" s="62"/>
+      <c r="E111" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="F111" s="88"/>
-      <c r="G111" s="88" t="s">
+      <c r="F111" s="90"/>
+      <c r="G111" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="H111" s="88"/>
-      <c r="I111" s="88"/>
-      <c r="J111" s="60" t="s">
+      <c r="H111" s="90"/>
+      <c r="I111" s="90"/>
+      <c r="J111" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="K111" s="60"/>
+      <c r="K111" s="62"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="60"/>
+      <c r="A112" s="62"/>
       <c r="B112" t="s">
         <v>28</v>
       </c>
@@ -42358,7 +43845,7 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="61" t="s">
+      <c r="A113" s="63" t="s">
         <v>71</v>
       </c>
       <c r="B113">
@@ -42398,7 +43885,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="61"/>
+      <c r="A114" s="63"/>
       <c r="B114">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -42436,7 +43923,7 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="61"/>
+      <c r="A115" s="63"/>
       <c r="B115">
         <v>1.2E-2</v>
       </c>
@@ -42474,7 +43961,7 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="61"/>
+      <c r="A116" s="63"/>
       <c r="B116">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -42512,7 +43999,7 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="61"/>
+      <c r="A117" s="63"/>
       <c r="B117">
         <v>1.4E-2</v>
       </c>
@@ -42550,7 +44037,7 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="61"/>
+      <c r="A118" s="63"/>
       <c r="B118">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -42588,7 +44075,7 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="61"/>
+      <c r="A119" s="63"/>
       <c r="B119">
         <v>1.6E-2</v>
       </c>
@@ -42626,7 +44113,7 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="61"/>
+      <c r="A120" s="63"/>
       <c r="B120">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -42664,7 +44151,7 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="61"/>
+      <c r="A121" s="63"/>
       <c r="B121">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -42702,7 +44189,7 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="61"/>
+      <c r="A122" s="63"/>
       <c r="B122">
         <v>1.9E-2</v>
       </c>
@@ -42740,7 +44227,7 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="61"/>
+      <c r="A123" s="63"/>
       <c r="B123">
         <v>0.02</v>
       </c>
@@ -42778,7 +44265,7 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="61"/>
+      <c r="A124" s="63"/>
       <c r="B124">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -42816,7 +44303,7 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="61"/>
+      <c r="A125" s="63"/>
       <c r="B125">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -42854,7 +44341,7 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="61"/>
+      <c r="A126" s="63"/>
       <c r="B126">
         <v>2.3E-2</v>
       </c>
@@ -42892,7 +44379,7 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="61"/>
+      <c r="A127" s="63"/>
       <c r="B127">
         <v>2.4E-2</v>
       </c>
@@ -42930,7 +44417,7 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="61"/>
+      <c r="A128" s="63"/>
       <c r="B128">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -42968,7 +44455,7 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="61"/>
+      <c r="A129" s="63"/>
       <c r="B129">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -43006,7 +44493,7 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="61"/>
+      <c r="A130" s="63"/>
       <c r="B130">
         <v>2.7E-2</v>
       </c>
@@ -43044,7 +44531,7 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="61"/>
+      <c r="A131" s="63"/>
       <c r="B131">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -43162,7 +44649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DAAA7D-1E1B-4673-A324-98DB0599DBB6}">
   <dimension ref="A1:N132"/>
   <sheetViews>
@@ -43185,30 +44672,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="88" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88" t="s">
+      <c r="F1" s="90"/>
+      <c r="G1" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="60" t="s">
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="60"/>
+      <c r="K1" s="62"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
+      <c r="A2" s="62"/>
       <c r="B2" t="s">
         <v>28</v>
       </c>
@@ -43241,7 +44728,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="63" t="s">
         <v>35</v>
       </c>
       <c r="B3">
@@ -43281,7 +44768,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
+      <c r="A4" s="63"/>
       <c r="B4">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -43319,7 +44806,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
+      <c r="A5" s="63"/>
       <c r="B5">
         <v>1.2E-2</v>
       </c>
@@ -43357,7 +44844,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
+      <c r="A6" s="63"/>
       <c r="B6">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -43395,7 +44882,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
+      <c r="A7" s="63"/>
       <c r="B7">
         <v>1.4E-2</v>
       </c>
@@ -43433,7 +44920,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
+      <c r="A8" s="63"/>
       <c r="B8">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -43471,7 +44958,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
+      <c r="A9" s="63"/>
       <c r="B9">
         <v>1.6E-2</v>
       </c>
@@ -43509,7 +44996,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
+      <c r="A10" s="63"/>
       <c r="B10">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -43547,7 +45034,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
+      <c r="A11" s="63"/>
       <c r="B11">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -43585,7 +45072,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
+      <c r="A12" s="63"/>
       <c r="B12">
         <v>1.9E-2</v>
       </c>
@@ -43623,7 +45110,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
+      <c r="A13" s="63"/>
       <c r="B13">
         <v>0.02</v>
       </c>
@@ -43661,7 +45148,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
+      <c r="A14" s="63"/>
       <c r="B14">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -43699,7 +45186,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
+      <c r="A15" s="63"/>
       <c r="B15">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -43737,7 +45224,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
+      <c r="A16" s="63"/>
       <c r="B16">
         <v>2.3E-2</v>
       </c>
@@ -43775,7 +45262,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
+      <c r="A17" s="63"/>
       <c r="B17">
         <v>2.4E-2</v>
       </c>
@@ -43813,7 +45300,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
+      <c r="A18" s="63"/>
       <c r="B18">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -43851,7 +45338,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
+      <c r="A19" s="63"/>
       <c r="B19">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -43889,7 +45376,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
+      <c r="A20" s="63"/>
       <c r="B20">
         <v>2.7E-2</v>
       </c>
@@ -43927,7 +45414,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
+      <c r="A21" s="63"/>
       <c r="B21">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -43965,7 +45452,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
+      <c r="A22" s="63"/>
       <c r="B22">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -44003,30 +45490,30 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60" t="s">
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60" t="s">
+      <c r="F23" s="62"/>
+      <c r="G23" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60" t="s">
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="K23" s="60"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="61"/>
+      <c r="A24" s="63"/>
       <c r="B24" t="s">
         <v>28</v>
       </c>
@@ -44059,7 +45546,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="63" t="s">
         <v>34</v>
       </c>
       <c r="B25">
@@ -44099,7 +45586,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
+      <c r="A26" s="63"/>
       <c r="B26">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -44137,7 +45624,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="61"/>
+      <c r="A27" s="63"/>
       <c r="B27">
         <v>1.2E-2</v>
       </c>
@@ -44175,7 +45662,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="61"/>
+      <c r="A28" s="63"/>
       <c r="B28">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -44213,7 +45700,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
+      <c r="A29" s="63"/>
       <c r="B29">
         <v>1.4E-2</v>
       </c>
@@ -44251,7 +45738,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="61"/>
+      <c r="A30" s="63"/>
       <c r="B30">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -44289,7 +45776,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="61"/>
+      <c r="A31" s="63"/>
       <c r="B31">
         <v>1.6E-2</v>
       </c>
@@ -44327,7 +45814,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
+      <c r="A32" s="63"/>
       <c r="B32">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -44365,7 +45852,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="61"/>
+      <c r="A33" s="63"/>
       <c r="B33">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -44403,7 +45890,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
+      <c r="A34" s="63"/>
       <c r="B34">
         <v>1.9E-2</v>
       </c>
@@ -44441,7 +45928,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="61"/>
+      <c r="A35" s="63"/>
       <c r="B35">
         <v>0.02</v>
       </c>
@@ -44479,7 +45966,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="61"/>
+      <c r="A36" s="63"/>
       <c r="B36">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -44517,7 +46004,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="61"/>
+      <c r="A37" s="63"/>
       <c r="B37">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -44555,7 +46042,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="61"/>
+      <c r="A38" s="63"/>
       <c r="B38">
         <v>2.3E-2</v>
       </c>
@@ -44593,7 +46080,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="61"/>
+      <c r="A39" s="63"/>
       <c r="B39">
         <v>2.4E-2</v>
       </c>
@@ -44631,7 +46118,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="61"/>
+      <c r="A40" s="63"/>
       <c r="B40">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -44669,7 +46156,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="61"/>
+      <c r="A41" s="63"/>
       <c r="B41">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -44707,7 +46194,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
+      <c r="A42" s="63"/>
       <c r="B42">
         <v>2.7E-2</v>
       </c>
@@ -44745,7 +46232,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="61"/>
+      <c r="A43" s="63"/>
       <c r="B43">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -44783,7 +46270,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="61"/>
+      <c r="A44" s="63"/>
       <c r="B44">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -44821,30 +46308,30 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="61" t="s">
+      <c r="A45" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60" t="s">
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60" t="s">
+      <c r="F45" s="62"/>
+      <c r="G45" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60" t="s">
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="K45" s="60"/>
+      <c r="K45" s="62"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="61"/>
+      <c r="A46" s="63"/>
       <c r="B46" t="s">
         <v>28</v>
       </c>
@@ -44877,7 +46364,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="63" t="s">
         <v>72</v>
       </c>
       <c r="B47">
@@ -44917,7 +46404,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="61"/>
+      <c r="A48" s="63"/>
       <c r="B48">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -44955,7 +46442,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="61"/>
+      <c r="A49" s="63"/>
       <c r="B49">
         <v>1.2E-2</v>
       </c>
@@ -44993,7 +46480,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="61"/>
+      <c r="A50" s="63"/>
       <c r="B50">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -45031,7 +46518,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="61"/>
+      <c r="A51" s="63"/>
       <c r="B51">
         <v>1.4E-2</v>
       </c>
@@ -45069,7 +46556,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="61"/>
+      <c r="A52" s="63"/>
       <c r="B52">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -45107,7 +46594,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="61"/>
+      <c r="A53" s="63"/>
       <c r="B53">
         <v>1.6E-2</v>
       </c>
@@ -45145,7 +46632,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="61"/>
+      <c r="A54" s="63"/>
       <c r="B54">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -45183,7 +46670,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="61"/>
+      <c r="A55" s="63"/>
       <c r="B55">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -45221,7 +46708,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="61"/>
+      <c r="A56" s="63"/>
       <c r="B56">
         <v>1.9E-2</v>
       </c>
@@ -45259,7 +46746,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="61"/>
+      <c r="A57" s="63"/>
       <c r="B57">
         <v>0.02</v>
       </c>
@@ -45297,7 +46784,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="61"/>
+      <c r="A58" s="63"/>
       <c r="B58">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -45335,7 +46822,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="61"/>
+      <c r="A59" s="63"/>
       <c r="B59">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -45373,7 +46860,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="61"/>
+      <c r="A60" s="63"/>
       <c r="B60">
         <v>2.3E-2</v>
       </c>
@@ -45411,7 +46898,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="61"/>
+      <c r="A61" s="63"/>
       <c r="B61">
         <v>2.4E-2</v>
       </c>
@@ -45449,7 +46936,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="61"/>
+      <c r="A62" s="63"/>
       <c r="B62">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -45487,7 +46974,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="61"/>
+      <c r="A63" s="63"/>
       <c r="B63">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -45525,7 +47012,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="61"/>
+      <c r="A64" s="63"/>
       <c r="B64">
         <v>2.7E-2</v>
       </c>
@@ -45563,7 +47050,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="61"/>
+      <c r="A65" s="63"/>
       <c r="B65">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -45601,7 +47088,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="61"/>
+      <c r="A66" s="63"/>
       <c r="B66">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -45639,30 +47126,30 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="61" t="s">
+      <c r="A67" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="60" t="s">
+      <c r="B67" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60" t="s">
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60" t="s">
+      <c r="F67" s="62"/>
+      <c r="G67" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="60" t="s">
+      <c r="H67" s="62"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="K67" s="60"/>
+      <c r="K67" s="62"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="61"/>
+      <c r="A68" s="63"/>
       <c r="B68" t="s">
         <v>28</v>
       </c>
@@ -45695,7 +47182,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="61" t="s">
+      <c r="A69" s="63" t="s">
         <v>73</v>
       </c>
       <c r="B69">
@@ -45735,7 +47222,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="61"/>
+      <c r="A70" s="63"/>
       <c r="B70">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -45773,7 +47260,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="61"/>
+      <c r="A71" s="63"/>
       <c r="B71">
         <v>1.2E-2</v>
       </c>
@@ -45811,7 +47298,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="61"/>
+      <c r="A72" s="63"/>
       <c r="B72">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -45849,7 +47336,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="61"/>
+      <c r="A73" s="63"/>
       <c r="B73">
         <v>1.4E-2</v>
       </c>
@@ -45887,7 +47374,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="61"/>
+      <c r="A74" s="63"/>
       <c r="B74">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -45925,7 +47412,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="61"/>
+      <c r="A75" s="63"/>
       <c r="B75">
         <v>1.6E-2</v>
       </c>
@@ -45963,7 +47450,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="61"/>
+      <c r="A76" s="63"/>
       <c r="B76">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -46001,7 +47488,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="61"/>
+      <c r="A77" s="63"/>
       <c r="B77">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -46039,7 +47526,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="61"/>
+      <c r="A78" s="63"/>
       <c r="B78">
         <v>1.9E-2</v>
       </c>
@@ -46077,7 +47564,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="61"/>
+      <c r="A79" s="63"/>
       <c r="B79">
         <v>0.02</v>
       </c>
@@ -46115,7 +47602,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="61"/>
+      <c r="A80" s="63"/>
       <c r="B80">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -46153,7 +47640,7 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" s="61"/>
+      <c r="A81" s="63"/>
       <c r="B81">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -46191,7 +47678,7 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="61"/>
+      <c r="A82" s="63"/>
       <c r="B82">
         <v>2.3E-2</v>
       </c>
@@ -46229,7 +47716,7 @@
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="61"/>
+      <c r="A83" s="63"/>
       <c r="B83">
         <v>2.4E-2</v>
       </c>
@@ -46267,7 +47754,7 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" s="61"/>
+      <c r="A84" s="63"/>
       <c r="B84">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -46305,7 +47792,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="61"/>
+      <c r="A85" s="63"/>
       <c r="B85">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -46343,7 +47830,7 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="61"/>
+      <c r="A86" s="63"/>
       <c r="B86">
         <v>2.7E-2</v>
       </c>
@@ -46381,7 +47868,7 @@
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="61"/>
+      <c r="A87" s="63"/>
       <c r="B87">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -46419,7 +47906,7 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="61"/>
+      <c r="A88" s="63"/>
       <c r="B88">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -46457,30 +47944,30 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="61" t="s">
+      <c r="A89" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B89" s="60" t="s">
+      <c r="B89" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C89" s="60"/>
-      <c r="D89" s="60"/>
-      <c r="E89" s="60" t="s">
+      <c r="C89" s="62"/>
+      <c r="D89" s="62"/>
+      <c r="E89" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="F89" s="60"/>
-      <c r="G89" s="60" t="s">
+      <c r="F89" s="62"/>
+      <c r="G89" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="H89" s="60"/>
-      <c r="I89" s="60"/>
-      <c r="J89" s="60" t="s">
+      <c r="H89" s="62"/>
+      <c r="I89" s="62"/>
+      <c r="J89" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="K89" s="60"/>
+      <c r="K89" s="62"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="61"/>
+      <c r="A90" s="63"/>
       <c r="B90" t="s">
         <v>28</v>
       </c>
@@ -46513,7 +48000,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="61" t="s">
+      <c r="A91" s="63" t="s">
         <v>74</v>
       </c>
       <c r="B91">
@@ -46553,7 +48040,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="61"/>
+      <c r="A92" s="63"/>
       <c r="B92">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -46591,7 +48078,7 @@
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="61"/>
+      <c r="A93" s="63"/>
       <c r="B93">
         <v>1.2E-2</v>
       </c>
@@ -46629,7 +48116,7 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="61"/>
+      <c r="A94" s="63"/>
       <c r="B94">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -46668,7 +48155,7 @@
       <c r="N94" s="53"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="61"/>
+      <c r="A95" s="63"/>
       <c r="B95">
         <v>1.4E-2</v>
       </c>
@@ -46706,7 +48193,7 @@
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" s="61"/>
+      <c r="A96" s="63"/>
       <c r="B96">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -46744,7 +48231,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="61"/>
+      <c r="A97" s="63"/>
       <c r="B97">
         <v>1.6E-2</v>
       </c>
@@ -46782,7 +48269,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="61"/>
+      <c r="A98" s="63"/>
       <c r="B98">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -46820,7 +48307,7 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="61"/>
+      <c r="A99" s="63"/>
       <c r="B99">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -46858,7 +48345,7 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="61"/>
+      <c r="A100" s="63"/>
       <c r="B100">
         <v>1.9E-2</v>
       </c>
@@ -46896,7 +48383,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="61"/>
+      <c r="A101" s="63"/>
       <c r="B101">
         <v>0.02</v>
       </c>
@@ -46934,7 +48421,7 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="61"/>
+      <c r="A102" s="63"/>
       <c r="B102">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -46972,7 +48459,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="61"/>
+      <c r="A103" s="63"/>
       <c r="B103">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -47010,7 +48497,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="61"/>
+      <c r="A104" s="63"/>
       <c r="B104">
         <v>2.3E-2</v>
       </c>
@@ -47048,7 +48535,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="61"/>
+      <c r="A105" s="63"/>
       <c r="B105">
         <v>2.4E-2</v>
       </c>
@@ -47086,7 +48573,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="61"/>
+      <c r="A106" s="63"/>
       <c r="B106">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -47124,7 +48611,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="61"/>
+      <c r="A107" s="63"/>
       <c r="B107">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -47162,7 +48649,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="61"/>
+      <c r="A108" s="63"/>
       <c r="B108">
         <v>2.7E-2</v>
       </c>
@@ -47200,7 +48687,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="61"/>
+      <c r="A109" s="63"/>
       <c r="B109">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -47238,7 +48725,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="61"/>
+      <c r="A110" s="63"/>
       <c r="B110">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -47276,30 +48763,30 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="61" t="s">
+      <c r="A111" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B111" s="60" t="s">
+      <c r="B111" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C111" s="60"/>
-      <c r="D111" s="60"/>
-      <c r="E111" s="60" t="s">
+      <c r="C111" s="62"/>
+      <c r="D111" s="62"/>
+      <c r="E111" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="F111" s="60"/>
-      <c r="G111" s="60" t="s">
+      <c r="F111" s="62"/>
+      <c r="G111" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="H111" s="60"/>
-      <c r="I111" s="60"/>
-      <c r="J111" s="60" t="s">
+      <c r="H111" s="62"/>
+      <c r="I111" s="62"/>
+      <c r="J111" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="K111" s="60"/>
+      <c r="K111" s="62"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="61"/>
+      <c r="A112" s="63"/>
       <c r="B112" t="s">
         <v>28</v>
       </c>
@@ -47332,7 +48819,7 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="61" t="s">
+      <c r="A113" s="63" t="s">
         <v>80</v>
       </c>
       <c r="B113">
@@ -47372,7 +48859,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="61"/>
+      <c r="A114" s="63"/>
       <c r="B114">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -47410,7 +48897,7 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="61"/>
+      <c r="A115" s="63"/>
       <c r="B115">
         <v>1.2E-2</v>
       </c>
@@ -47448,7 +48935,7 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="61"/>
+      <c r="A116" s="63"/>
       <c r="B116">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -47486,7 +48973,7 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="61"/>
+      <c r="A117" s="63"/>
       <c r="B117">
         <v>1.4E-2</v>
       </c>
@@ -47524,7 +49011,7 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="61"/>
+      <c r="A118" s="63"/>
       <c r="B118">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -47562,7 +49049,7 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="61"/>
+      <c r="A119" s="63"/>
       <c r="B119">
         <v>1.6E-2</v>
       </c>
@@ -47600,7 +49087,7 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="61"/>
+      <c r="A120" s="63"/>
       <c r="B120">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -47638,7 +49125,7 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="61"/>
+      <c r="A121" s="63"/>
       <c r="B121">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -47676,7 +49163,7 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="61"/>
+      <c r="A122" s="63"/>
       <c r="B122">
         <v>1.9E-2</v>
       </c>
@@ -47714,7 +49201,7 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="61"/>
+      <c r="A123" s="63"/>
       <c r="B123">
         <v>0.02</v>
       </c>
@@ -47752,7 +49239,7 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="61"/>
+      <c r="A124" s="63"/>
       <c r="B124">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -47790,7 +49277,7 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="61"/>
+      <c r="A125" s="63"/>
       <c r="B125">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -47828,7 +49315,7 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="61"/>
+      <c r="A126" s="63"/>
       <c r="B126">
         <v>2.3E-2</v>
       </c>
@@ -47866,7 +49353,7 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="61"/>
+      <c r="A127" s="63"/>
       <c r="B127">
         <v>2.4E-2</v>
       </c>
@@ -47904,7 +49391,7 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="61"/>
+      <c r="A128" s="63"/>
       <c r="B128">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -47942,7 +49429,7 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="61"/>
+      <c r="A129" s="63"/>
       <c r="B129">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -47980,7 +49467,7 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="61"/>
+      <c r="A130" s="63"/>
       <c r="B130">
         <v>2.7E-2</v>
       </c>
@@ -48018,7 +49505,7 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="61"/>
+      <c r="A131" s="63"/>
       <c r="B131">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -48056,7 +49543,7 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="61"/>
+      <c r="A132" s="63"/>
       <c r="B132">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -48137,7 +49624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE4370B-3999-4EB1-B90E-3C60E68E98FA}">
   <dimension ref="A1:K110"/>
   <sheetViews>
@@ -48160,30 +49647,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="88" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88" t="s">
+      <c r="F1" s="90"/>
+      <c r="G1" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="60" t="s">
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="60"/>
+      <c r="K1" s="62"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
+      <c r="A2" s="62"/>
       <c r="B2" t="s">
         <v>28</v>
       </c>
@@ -48216,7 +49703,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="63" t="s">
         <v>75</v>
       </c>
       <c r="B3">
@@ -48256,7 +49743,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
+      <c r="A4" s="63"/>
       <c r="B4">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -48294,7 +49781,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
+      <c r="A5" s="63"/>
       <c r="B5">
         <v>1.2E-2</v>
       </c>
@@ -48332,7 +49819,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
+      <c r="A6" s="63"/>
       <c r="B6">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -48370,7 +49857,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
+      <c r="A7" s="63"/>
       <c r="B7">
         <v>1.4E-2</v>
       </c>
@@ -48408,7 +49895,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
+      <c r="A8" s="63"/>
       <c r="B8">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -48446,7 +49933,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
+      <c r="A9" s="63"/>
       <c r="B9">
         <v>1.6E-2</v>
       </c>
@@ -48484,7 +49971,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
+      <c r="A10" s="63"/>
       <c r="B10">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -48522,7 +50009,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
+      <c r="A11" s="63"/>
       <c r="B11">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -48560,7 +50047,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
+      <c r="A12" s="63"/>
       <c r="B12">
         <v>1.9E-2</v>
       </c>
@@ -48598,7 +50085,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
+      <c r="A13" s="63"/>
       <c r="B13">
         <v>0.02</v>
       </c>
@@ -48636,7 +50123,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
+      <c r="A14" s="63"/>
       <c r="B14">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -48674,7 +50161,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
+      <c r="A15" s="63"/>
       <c r="B15">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -48712,7 +50199,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
+      <c r="A16" s="63"/>
       <c r="B16">
         <v>2.3E-2</v>
       </c>
@@ -48750,7 +50237,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
+      <c r="A17" s="63"/>
       <c r="B17">
         <v>2.4E-2</v>
       </c>
@@ -48788,7 +50275,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
+      <c r="A18" s="63"/>
       <c r="B18">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -48826,7 +50313,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
+      <c r="A19" s="63"/>
       <c r="B19">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -48864,7 +50351,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
+      <c r="A20" s="63"/>
       <c r="B20">
         <v>2.7E-2</v>
       </c>
@@ -48902,7 +50389,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
+      <c r="A21" s="63"/>
       <c r="B21">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -48940,7 +50427,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
+      <c r="A22" s="63"/>
       <c r="B22">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -48978,30 +50465,30 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60" t="s">
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60" t="s">
+      <c r="F23" s="62"/>
+      <c r="G23" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60" t="s">
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="K23" s="60"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="61"/>
+      <c r="A24" s="63"/>
       <c r="B24" t="s">
         <v>28</v>
       </c>
@@ -49034,7 +50521,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="63" t="s">
         <v>76</v>
       </c>
       <c r="B25">
@@ -49074,7 +50561,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
+      <c r="A26" s="63"/>
       <c r="B26">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -49112,7 +50599,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="61"/>
+      <c r="A27" s="63"/>
       <c r="B27">
         <v>1.2E-2</v>
       </c>
@@ -49150,7 +50637,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="61"/>
+      <c r="A28" s="63"/>
       <c r="B28">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -49188,7 +50675,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
+      <c r="A29" s="63"/>
       <c r="B29">
         <v>1.4E-2</v>
       </c>
@@ -49226,7 +50713,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="61"/>
+      <c r="A30" s="63"/>
       <c r="B30">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -49264,7 +50751,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="61"/>
+      <c r="A31" s="63"/>
       <c r="B31">
         <v>1.6E-2</v>
       </c>
@@ -49302,7 +50789,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
+      <c r="A32" s="63"/>
       <c r="B32">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -49340,7 +50827,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="61"/>
+      <c r="A33" s="63"/>
       <c r="B33">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -49378,7 +50865,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
+      <c r="A34" s="63"/>
       <c r="B34">
         <v>1.9E-2</v>
       </c>
@@ -49416,7 +50903,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="61"/>
+      <c r="A35" s="63"/>
       <c r="B35">
         <v>0.02</v>
       </c>
@@ -49454,7 +50941,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="61"/>
+      <c r="A36" s="63"/>
       <c r="B36">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -49492,7 +50979,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="61"/>
+      <c r="A37" s="63"/>
       <c r="B37">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -49530,7 +51017,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="61"/>
+      <c r="A38" s="63"/>
       <c r="B38">
         <v>2.3E-2</v>
       </c>
@@ -49568,7 +51055,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="61"/>
+      <c r="A39" s="63"/>
       <c r="B39">
         <v>2.4E-2</v>
       </c>
@@ -49606,7 +51093,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="61"/>
+      <c r="A40" s="63"/>
       <c r="B40">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -49644,7 +51131,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="61"/>
+      <c r="A41" s="63"/>
       <c r="B41">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -49682,7 +51169,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
+      <c r="A42" s="63"/>
       <c r="B42">
         <v>2.7E-2</v>
       </c>
@@ -49720,7 +51207,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="61"/>
+      <c r="A43" s="63"/>
       <c r="B43">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -49758,7 +51245,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="61"/>
+      <c r="A44" s="63"/>
       <c r="B44">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -49796,30 +51283,30 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="61" t="s">
+      <c r="A45" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60" t="s">
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60" t="s">
+      <c r="F45" s="62"/>
+      <c r="G45" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60" t="s">
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="K45" s="60"/>
+      <c r="K45" s="62"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="61"/>
+      <c r="A46" s="63"/>
       <c r="B46" t="s">
         <v>28</v>
       </c>
@@ -49852,7 +51339,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="63" t="s">
         <v>77</v>
       </c>
       <c r="B47">
@@ -49892,7 +51379,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="61"/>
+      <c r="A48" s="63"/>
       <c r="B48">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -49930,7 +51417,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="61"/>
+      <c r="A49" s="63"/>
       <c r="B49">
         <v>1.2E-2</v>
       </c>
@@ -49968,7 +51455,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="61"/>
+      <c r="A50" s="63"/>
       <c r="B50">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -50006,7 +51493,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="61"/>
+      <c r="A51" s="63"/>
       <c r="B51">
         <v>1.4E-2</v>
       </c>
@@ -50044,7 +51531,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="61"/>
+      <c r="A52" s="63"/>
       <c r="B52">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -50082,7 +51569,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="61"/>
+      <c r="A53" s="63"/>
       <c r="B53">
         <v>1.6E-2</v>
       </c>
@@ -50120,7 +51607,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="61"/>
+      <c r="A54" s="63"/>
       <c r="B54">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -50158,7 +51645,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="61"/>
+      <c r="A55" s="63"/>
       <c r="B55">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -50196,7 +51683,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="61"/>
+      <c r="A56" s="63"/>
       <c r="B56">
         <v>1.9E-2</v>
       </c>
@@ -50234,7 +51721,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="61"/>
+      <c r="A57" s="63"/>
       <c r="B57">
         <v>0.02</v>
       </c>
@@ -50272,7 +51759,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="61"/>
+      <c r="A58" s="63"/>
       <c r="B58">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -50310,7 +51797,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="61"/>
+      <c r="A59" s="63"/>
       <c r="B59">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -50348,7 +51835,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="61"/>
+      <c r="A60" s="63"/>
       <c r="B60">
         <v>2.3E-2</v>
       </c>
@@ -50386,7 +51873,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="61"/>
+      <c r="A61" s="63"/>
       <c r="B61">
         <v>2.4E-2</v>
       </c>
@@ -50424,7 +51911,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="61"/>
+      <c r="A62" s="63"/>
       <c r="B62">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -50462,7 +51949,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="61"/>
+      <c r="A63" s="63"/>
       <c r="B63">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -50500,7 +51987,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="61"/>
+      <c r="A64" s="63"/>
       <c r="B64">
         <v>2.7E-2</v>
       </c>
@@ -50538,7 +52025,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="61"/>
+      <c r="A65" s="63"/>
       <c r="B65">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -50576,7 +52063,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="61"/>
+      <c r="A66" s="63"/>
       <c r="B66">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -50614,30 +52101,30 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="61" t="s">
+      <c r="A67" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="60" t="s">
+      <c r="B67" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60" t="s">
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60" t="s">
+      <c r="F67" s="62"/>
+      <c r="G67" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="60" t="s">
+      <c r="H67" s="62"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="K67" s="60"/>
+      <c r="K67" s="62"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="61"/>
+      <c r="A68" s="63"/>
       <c r="B68" t="s">
         <v>28</v>
       </c>
@@ -50670,7 +52157,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="61" t="s">
+      <c r="A69" s="63" t="s">
         <v>78</v>
       </c>
       <c r="B69">
@@ -50710,7 +52197,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="61"/>
+      <c r="A70" s="63"/>
       <c r="B70">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -50748,7 +52235,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="61"/>
+      <c r="A71" s="63"/>
       <c r="B71">
         <v>1.2E-2</v>
       </c>
@@ -50786,7 +52273,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="61"/>
+      <c r="A72" s="63"/>
       <c r="B72">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -50824,7 +52311,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="61"/>
+      <c r="A73" s="63"/>
       <c r="B73">
         <v>1.4E-2</v>
       </c>
@@ -50862,7 +52349,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="61"/>
+      <c r="A74" s="63"/>
       <c r="B74">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -50900,7 +52387,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="61"/>
+      <c r="A75" s="63"/>
       <c r="B75">
         <v>1.6E-2</v>
       </c>
@@ -50938,7 +52425,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="61"/>
+      <c r="A76" s="63"/>
       <c r="B76">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -50976,7 +52463,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="61"/>
+      <c r="A77" s="63"/>
       <c r="B77">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -51014,7 +52501,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="61"/>
+      <c r="A78" s="63"/>
       <c r="B78">
         <v>1.9E-2</v>
       </c>
@@ -51052,7 +52539,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="61"/>
+      <c r="A79" s="63"/>
       <c r="B79">
         <v>0.02</v>
       </c>
@@ -51090,7 +52577,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="61"/>
+      <c r="A80" s="63"/>
       <c r="B80">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -51128,7 +52615,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="61"/>
+      <c r="A81" s="63"/>
       <c r="B81">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -51166,7 +52653,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="61"/>
+      <c r="A82" s="63"/>
       <c r="B82">
         <v>2.3E-2</v>
       </c>
@@ -51204,7 +52691,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="61"/>
+      <c r="A83" s="63"/>
       <c r="B83">
         <v>2.4E-2</v>
       </c>
@@ -51242,7 +52729,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="61"/>
+      <c r="A84" s="63"/>
       <c r="B84">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -51280,7 +52767,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="61"/>
+      <c r="A85" s="63"/>
       <c r="B85">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -51318,7 +52805,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="61"/>
+      <c r="A86" s="63"/>
       <c r="B86">
         <v>2.7E-2</v>
       </c>
@@ -51356,7 +52843,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="61"/>
+      <c r="A87" s="63"/>
       <c r="B87">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -51394,7 +52881,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="61"/>
+      <c r="A88" s="63"/>
       <c r="B88">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -51432,30 +52919,30 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="61" t="s">
+      <c r="A89" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B89" s="60" t="s">
+      <c r="B89" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C89" s="60"/>
-      <c r="D89" s="60"/>
-      <c r="E89" s="60" t="s">
+      <c r="C89" s="62"/>
+      <c r="D89" s="62"/>
+      <c r="E89" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="F89" s="60"/>
-      <c r="G89" s="60" t="s">
+      <c r="F89" s="62"/>
+      <c r="G89" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="H89" s="60"/>
-      <c r="I89" s="60"/>
-      <c r="J89" s="60" t="s">
+      <c r="H89" s="62"/>
+      <c r="I89" s="62"/>
+      <c r="J89" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="K89" s="60"/>
+      <c r="K89" s="62"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="61"/>
+      <c r="A90" s="63"/>
       <c r="B90" t="s">
         <v>28</v>
       </c>
@@ -51488,7 +52975,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="61" t="s">
+      <c r="A91" s="63" t="s">
         <v>79</v>
       </c>
       <c r="B91">
@@ -51528,7 +53015,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="61"/>
+      <c r="A92" s="63"/>
       <c r="B92">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -51566,7 +53053,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="61"/>
+      <c r="A93" s="63"/>
       <c r="B93">
         <v>1.2E-2</v>
       </c>
@@ -51604,7 +53091,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="61"/>
+      <c r="A94" s="63"/>
       <c r="B94">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -51642,7 +53129,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="61"/>
+      <c r="A95" s="63"/>
       <c r="B95">
         <v>1.4E-2</v>
       </c>
@@ -51680,7 +53167,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="61"/>
+      <c r="A96" s="63"/>
       <c r="B96">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -51718,7 +53205,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="61"/>
+      <c r="A97" s="63"/>
       <c r="B97">
         <v>1.6E-2</v>
       </c>
@@ -51756,7 +53243,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="61"/>
+      <c r="A98" s="63"/>
       <c r="B98">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -51794,7 +53281,7 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="61"/>
+      <c r="A99" s="63"/>
       <c r="B99">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -51832,7 +53319,7 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="61"/>
+      <c r="A100" s="63"/>
       <c r="B100">
         <v>1.9E-2</v>
       </c>
@@ -51870,7 +53357,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="61"/>
+      <c r="A101" s="63"/>
       <c r="B101">
         <v>0.02</v>
       </c>
@@ -51908,7 +53395,7 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="61"/>
+      <c r="A102" s="63"/>
       <c r="B102">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -51946,7 +53433,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="61"/>
+      <c r="A103" s="63"/>
       <c r="B103">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -51984,7 +53471,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="61"/>
+      <c r="A104" s="63"/>
       <c r="B104">
         <v>2.3E-2</v>
       </c>
@@ -52022,7 +53509,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="61"/>
+      <c r="A105" s="63"/>
       <c r="B105">
         <v>2.4E-2</v>
       </c>
@@ -52060,7 +53547,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="61"/>
+      <c r="A106" s="63"/>
       <c r="B106">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -52098,7 +53585,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="61"/>
+      <c r="A107" s="63"/>
       <c r="B107">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -52136,7 +53623,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="61"/>
+      <c r="A108" s="63"/>
       <c r="B108">
         <v>2.7E-2</v>
       </c>
@@ -52174,7 +53661,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="61"/>
+      <c r="A109" s="63"/>
       <c r="B109">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -52212,7 +53699,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="61"/>
+      <c r="A110" s="63"/>
       <c r="B110">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -52287,12 +53774,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12D6C6C-1C7D-4660-B1DE-C4124E614331}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N28" sqref="N27:N28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52301,7 +53788,7 @@
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -52312,7 +53799,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>400</v>
       </c>
@@ -52322,8 +53809,11 @@
       <c r="C2">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+200</f>
         <v>600</v>
@@ -52334,8 +53824,11 @@
       <c r="C3">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>A3+200</f>
         <v>800</v>
@@ -52346,8 +53839,11 @@
       <c r="C4">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" ref="A5:A9" si="0">A4+200</f>
         <v>1000</v>
@@ -52358,8 +53854,11 @@
       <c r="C5">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>1200</v>
@@ -52370,8 +53869,11 @@
       <c r="C6">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>1400</v>
@@ -52382,8 +53884,11 @@
       <c r="C7">
         <v>27.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>1600</v>
@@ -52394,8 +53899,11 @@
       <c r="C8">
         <v>30.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>1800</v>
@@ -52405,867 +53913,13 @@
       </c>
       <c r="C9">
         <v>35.6</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0791AE47-1ACE-4771-B86E-F6CA00F4253A}">
-  <dimension ref="A1:C100"/>
-  <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>16.22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
-      <c r="B3">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>15.85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>15.34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>15.12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>14.58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
-      <c r="B8">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>14.04</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
-      <c r="B9">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>14.82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
-      <c r="B10">
-        <v>23</v>
-      </c>
-      <c r="C10">
-        <v>15.28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>15.74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
-      <c r="B12">
-        <v>25</v>
-      </c>
-      <c r="C12">
-        <v>16.18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
-      <c r="B14">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>17.96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
-      <c r="B15">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>17.11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
-      <c r="B16">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
-      <c r="B17">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>15.42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
-      <c r="B19">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <v>14.91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
-      <c r="B20">
-        <v>22</v>
-      </c>
-      <c r="C20">
-        <v>15.34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
-      <c r="B21">
-        <v>23</v>
-      </c>
-      <c r="C21">
-        <v>15.93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
-      <c r="B22">
-        <v>24</v>
-      </c>
-      <c r="C22">
-        <v>16.48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="61"/>
-      <c r="B23">
-        <v>25</v>
-      </c>
-      <c r="C23">
-        <v>17.02</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24">
-        <v>15</v>
-      </c>
-      <c r="C24">
-        <v>23.16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
-      <c r="B25">
-        <v>16</v>
-      </c>
-      <c r="C25">
-        <v>22.85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
-      <c r="B26">
-        <v>17</v>
-      </c>
-      <c r="C26">
-        <v>22.66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="61"/>
-      <c r="B27">
-        <v>18</v>
-      </c>
-      <c r="C27">
-        <v>22.43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="61"/>
-      <c r="B28">
-        <v>19</v>
-      </c>
-      <c r="C28">
-        <v>22.08</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
-      <c r="B29">
-        <v>20</v>
-      </c>
-      <c r="C29">
-        <v>21.39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="61"/>
-      <c r="B30">
-        <v>21</v>
-      </c>
-      <c r="C30">
-        <v>21.53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="61"/>
-      <c r="B31">
-        <v>22</v>
-      </c>
-      <c r="C31">
-        <v>21.83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
-      <c r="B32">
-        <v>23</v>
-      </c>
-      <c r="C32">
-        <v>21.91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="61"/>
-      <c r="B33">
-        <v>24</v>
-      </c>
-      <c r="C33">
-        <v>22.32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
-      <c r="B34">
-        <v>25</v>
-      </c>
-      <c r="C34">
-        <v>22.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35">
-        <v>15</v>
-      </c>
-      <c r="C35">
-        <v>19.45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="61"/>
-      <c r="B36">
-        <v>16</v>
-      </c>
-      <c r="C36">
-        <v>18.95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="61"/>
-      <c r="B37">
-        <v>17</v>
-      </c>
-      <c r="C37">
-        <v>18.52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="61"/>
-      <c r="B38">
-        <v>18</v>
-      </c>
-      <c r="C38">
-        <v>17.260000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="61"/>
-      <c r="B39">
-        <v>19</v>
-      </c>
-      <c r="C39">
-        <v>16.59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="61"/>
-      <c r="B40">
-        <v>20</v>
-      </c>
-      <c r="C40">
-        <v>15.23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="61"/>
-      <c r="B41">
-        <v>21</v>
-      </c>
-      <c r="C41">
-        <v>14.52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
-      <c r="B42">
-        <v>22</v>
-      </c>
-      <c r="C42">
-        <v>14.89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="61"/>
-      <c r="B43">
-        <v>23</v>
-      </c>
-      <c r="C43">
-        <v>15.56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="61"/>
-      <c r="B44">
-        <v>24</v>
-      </c>
-      <c r="C44">
-        <v>15.97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="61"/>
-      <c r="B45">
-        <v>25</v>
-      </c>
-      <c r="C45">
-        <v>16.86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46">
-        <v>15</v>
-      </c>
-      <c r="C46">
-        <v>20.49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="61"/>
-      <c r="B47">
-        <v>16</v>
-      </c>
-      <c r="C47">
-        <v>19.57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="61"/>
-      <c r="B48">
-        <v>17</v>
-      </c>
-      <c r="C48">
-        <v>18.52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="61"/>
-      <c r="B49">
-        <v>18</v>
-      </c>
-      <c r="C49">
-        <v>17.52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="61"/>
-      <c r="B50">
-        <v>19</v>
-      </c>
-      <c r="C50">
-        <v>16.59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="61"/>
-      <c r="B51">
-        <v>20</v>
-      </c>
-      <c r="C51">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="61"/>
-      <c r="B52">
-        <v>21</v>
-      </c>
-      <c r="C52">
-        <v>14.52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="61"/>
-      <c r="B53">
-        <v>22</v>
-      </c>
-      <c r="C53">
-        <v>14.24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="61"/>
-      <c r="B54">
-        <v>23</v>
-      </c>
-      <c r="C54">
-        <v>14.22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="61"/>
-      <c r="B55">
-        <v>24</v>
-      </c>
-      <c r="C55">
-        <v>14.45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="61"/>
-      <c r="B56">
-        <v>25</v>
-      </c>
-      <c r="C56">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57">
-        <v>15</v>
-      </c>
-      <c r="C57">
-        <v>25.36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="61"/>
-      <c r="B58">
-        <v>16</v>
-      </c>
-      <c r="C58">
-        <v>25.19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="61"/>
-      <c r="B59">
-        <v>17</v>
-      </c>
-      <c r="C59">
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="61"/>
-      <c r="B60">
-        <v>18</v>
-      </c>
-      <c r="C60">
-        <v>23.97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="61"/>
-      <c r="B61">
-        <v>19</v>
-      </c>
-      <c r="C61">
-        <v>23.88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="61"/>
-      <c r="B62">
-        <v>20</v>
-      </c>
-      <c r="C62">
-        <v>23.73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="61"/>
-      <c r="B63">
-        <v>21</v>
-      </c>
-      <c r="C63">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="61"/>
-      <c r="B64">
-        <v>22</v>
-      </c>
-      <c r="C64">
-        <v>23.51</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="61"/>
-      <c r="B65">
-        <v>23</v>
-      </c>
-      <c r="C65">
-        <v>23.62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="61"/>
-      <c r="B66">
-        <v>24</v>
-      </c>
-      <c r="C66">
-        <v>23.73</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="61"/>
-      <c r="B67">
-        <v>25</v>
-      </c>
-      <c r="C67">
-        <v>23.87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="B68">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="61"/>
-      <c r="B69">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="61"/>
-      <c r="B70">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="61"/>
-      <c r="B71">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="61"/>
-      <c r="B72">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="61"/>
-      <c r="B73">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="61"/>
-      <c r="B74">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="61"/>
-      <c r="B75">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="61"/>
-      <c r="B76">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="61"/>
-      <c r="B77">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="61"/>
-      <c r="B78">
-        <v>25</v>
-      </c>
-      <c r="C78">
-        <v>23.35</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="B79">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="61"/>
-      <c r="B80">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="61"/>
-      <c r="B81">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="61"/>
-      <c r="B82">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="61"/>
-      <c r="B83">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="61"/>
-      <c r="B84">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="61"/>
-      <c r="B85">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="61"/>
-      <c r="B86">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="61"/>
-      <c r="B87">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="61"/>
-      <c r="B88">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="61"/>
-      <c r="B89">
-        <v>25</v>
-      </c>
-      <c r="C89">
-        <v>23.22</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="B90">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="61"/>
-      <c r="B91">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="61"/>
-      <c r="B92">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="61"/>
-      <c r="B93">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="61"/>
-      <c r="B94">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="61"/>
-      <c r="B95">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="61"/>
-      <c r="B96">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="61"/>
-      <c r="B97">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="61"/>
-      <c r="B98">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="61"/>
-      <c r="B99">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="61"/>
-      <c r="B100">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A68:A78"/>
-    <mergeCell ref="A79:A89"/>
-    <mergeCell ref="A90:A100"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="A24:A34"/>
-    <mergeCell ref="A46:A56"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="A35:A45"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>